--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['45+4']</t>
   </si>
   <si>
+    <t>['21', '64']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -839,6 +842,9 @@
   </si>
   <si>
     <t>['28', '51']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1450,7 @@
         <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1725,7 +1731,7 @@
         <v>1.83</v>
       </c>
       <c r="AT3">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2104,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2399,7 +2405,7 @@
         <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2590,7 +2596,7 @@
         <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2781,7 +2787,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2972,7 +2978,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -3250,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT11">
         <v>0.67</v>
@@ -3545,7 +3551,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3736,7 +3742,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3927,7 +3933,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4309,7 +4315,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4882,7 +4888,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4972,7 +4978,7 @@
         <v>0.83</v>
       </c>
       <c r="AT20">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5073,7 +5079,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5455,7 +5461,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -5646,7 +5652,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5837,7 +5843,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5924,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT25">
         <v>0.17</v>
@@ -6410,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6792,7 +6798,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7070,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT31">
         <v>1.17</v>
@@ -7365,7 +7371,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7556,7 +7562,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7938,7 +7944,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8025,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT36">
         <v>1.17</v>
@@ -8129,7 +8135,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8219,7 +8225,7 @@
         <v>0.83</v>
       </c>
       <c r="AT37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU37">
         <v>1.66</v>
@@ -8320,7 +8326,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8702,7 +8708,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9084,7 +9090,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9365,7 +9371,7 @@
         <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU43">
         <v>1.06</v>
@@ -9848,7 +9854,7 @@
         <v>100</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10317,7 +10323,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT48">
         <v>2.67</v>
@@ -10803,7 +10809,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11376,7 +11382,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11758,7 +11764,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11949,7 +11955,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12612,7 +12618,7 @@
         <v>0.83</v>
       </c>
       <c r="AT60">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU60">
         <v>1.54</v>
@@ -13095,7 +13101,7 @@
         <v>100</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13286,7 +13292,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13477,7 +13483,7 @@
         <v>100</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13946,7 +13952,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT67">
         <v>0.17</v>
@@ -14050,7 +14056,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14331,7 +14337,7 @@
         <v>3</v>
       </c>
       <c r="AT69">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU69">
         <v>1.52</v>
@@ -14432,7 +14438,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14713,7 +14719,7 @@
         <v>1.83</v>
       </c>
       <c r="AT71">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU71">
         <v>1.12</v>
@@ -14814,7 +14820,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15196,7 +15202,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15474,7 +15480,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT75">
         <v>1.67</v>
@@ -15769,7 +15775,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15960,7 +15966,7 @@
         <v>100</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>-1</v>
@@ -16050,7 +16056,7 @@
         <v>0.67</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU78">
         <v>1.41</v>
@@ -16724,7 +16730,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17002,7 +17008,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT83">
         <v>2.67</v>
@@ -17679,7 +17685,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17769,7 +17775,7 @@
         <v>2.67</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -18252,7 +18258,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18339,7 +18345,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT90">
         <v>1.5</v>
@@ -18443,7 +18449,7 @@
         <v>100</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -18825,7 +18831,7 @@
         <v>100</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19398,7 +19404,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20061,7 +20067,7 @@
         <v>3</v>
       </c>
       <c r="AT99">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -20162,7 +20168,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20249,7 +20255,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT100">
         <v>1.67</v>
@@ -20544,7 +20550,7 @@
         <v>100</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>-1</v>
@@ -21013,7 +21019,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT104">
         <v>1.83</v>
@@ -21308,7 +21314,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21881,7 +21887,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22072,7 +22078,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22353,7 +22359,7 @@
         <v>1</v>
       </c>
       <c r="AT111">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU111">
         <v>1.65</v>
@@ -22645,7 +22651,7 @@
         <v>100</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22836,7 +22842,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23027,7 +23033,7 @@
         <v>100</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -23409,7 +23415,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23496,7 +23502,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT117">
         <v>1.5</v>
@@ -23982,7 +23988,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24454,7 +24460,7 @@
         <v>2.67</v>
       </c>
       <c r="AT122">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU122">
         <v>1.69</v>
@@ -24555,7 +24561,7 @@
         <v>168</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24937,7 +24943,7 @@
         <v>170</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25128,7 +25134,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25319,7 +25325,7 @@
         <v>172</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25600,7 +25606,7 @@
         <v>2.17</v>
       </c>
       <c r="AT128">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU128">
         <v>1.21</v>
@@ -25788,7 +25794,7 @@
         <v>1.75</v>
       </c>
       <c r="AS129">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT129">
         <v>1.83</v>
@@ -26173,7 +26179,7 @@
         <v>0</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU131">
         <v>1.31</v>
@@ -26465,7 +26471,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26656,7 +26662,7 @@
         <v>100</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27038,7 +27044,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27507,7 +27513,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT138">
         <v>1.5</v>
@@ -27802,7 +27808,7 @@
         <v>179</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -27993,7 +27999,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28083,7 +28089,7 @@
         <v>1.17</v>
       </c>
       <c r="AT141">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU141">
         <v>1.35</v>
@@ -28375,7 +28381,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28948,7 +28954,7 @@
         <v>100</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29139,7 +29145,7 @@
         <v>176</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -29799,7 +29805,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -29903,7 +29909,7 @@
         <v>100</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30285,7 +30291,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30757,7 +30763,7 @@
         <v>1.83</v>
       </c>
       <c r="AT155">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU155">
         <v>1.18</v>
@@ -31136,10 +31142,10 @@
         <v>0.8</v>
       </c>
       <c r="AS157">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT157">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU157">
         <v>1.59</v>
@@ -31240,7 +31246,7 @@
         <v>156</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -31431,7 +31437,7 @@
         <v>100</v>
       </c>
       <c r="P159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q159">
         <v>6</v>
@@ -31518,7 +31524,7 @@
         <v>1.2</v>
       </c>
       <c r="AS159">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT159">
         <v>1.5</v>
@@ -32004,7 +32010,7 @@
         <v>191</v>
       </c>
       <c r="P162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -32577,7 +32583,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33341,7 +33347,7 @@
         <v>100</v>
       </c>
       <c r="P169" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -34105,7 +34111,7 @@
         <v>100</v>
       </c>
       <c r="P173" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34678,7 +34684,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35442,7 +35448,7 @@
         <v>100</v>
       </c>
       <c r="P180" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35633,7 +35639,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q181">
         <v>2</v>
@@ -36015,7 +36021,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36141,22 +36147,22 @@
         <v>0</v>
       </c>
       <c r="BF183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG183">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI183">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ183">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK183">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36206,16 +36212,16 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R184">
         <v>4</v>
       </c>
       <c r="S184">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T184">
         <v>0</v>
@@ -36332,22 +36338,595 @@
         <v>0</v>
       </c>
       <c r="BF184">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG184">
         <v>6</v>
       </c>
       <c r="BH184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ184">
+        <v>8</v>
+      </c>
+      <c r="BK184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>4470720</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44996.36458333334</v>
+      </c>
+      <c r="F185">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>74</v>
+      </c>
+      <c r="H185" t="s">
+        <v>92</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>100</v>
+      </c>
+      <c r="P185" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q185">
+        <v>-1</v>
+      </c>
+      <c r="R185">
+        <v>-1</v>
+      </c>
+      <c r="S185">
+        <v>-1</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <v>0</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+      <c r="AB185">
+        <v>0</v>
+      </c>
+      <c r="AC185">
+        <v>1.57</v>
+      </c>
+      <c r="AD185">
+        <v>3.6</v>
+      </c>
+      <c r="AE185">
+        <v>6.4</v>
+      </c>
+      <c r="AF185">
+        <v>0</v>
+      </c>
+      <c r="AG185">
+        <v>0</v>
+      </c>
+      <c r="AH185">
+        <v>1.49</v>
+      </c>
+      <c r="AI185">
+        <v>2.46</v>
+      </c>
+      <c r="AJ185">
+        <v>2.4</v>
+      </c>
+      <c r="AK185">
+        <v>1.44</v>
+      </c>
+      <c r="AL185">
+        <v>0</v>
+      </c>
+      <c r="AM185">
+        <v>0</v>
+      </c>
+      <c r="AN185">
+        <v>0</v>
+      </c>
+      <c r="AO185">
+        <v>0</v>
+      </c>
+      <c r="AP185">
+        <v>0</v>
+      </c>
+      <c r="AQ185">
+        <v>2.17</v>
+      </c>
+      <c r="AR185">
+        <v>1.17</v>
+      </c>
+      <c r="AS185">
+        <v>1.86</v>
+      </c>
+      <c r="AT185">
+        <v>1.43</v>
+      </c>
+      <c r="AU185">
+        <v>1.56</v>
+      </c>
+      <c r="AV185">
+        <v>0.91</v>
+      </c>
+      <c r="AW185">
+        <v>2.47</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>-1</v>
+      </c>
+      <c r="BG185">
+        <v>-1</v>
+      </c>
+      <c r="BH185">
+        <v>-1</v>
+      </c>
+      <c r="BI185">
+        <v>-1</v>
+      </c>
+      <c r="BJ185">
+        <v>-1</v>
+      </c>
+      <c r="BK185">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>4470745</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44996.40625</v>
+      </c>
+      <c r="F186">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s">
+        <v>88</v>
+      </c>
+      <c r="H186" t="s">
+        <v>80</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>202</v>
+      </c>
+      <c r="P186" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>1</v>
+      </c>
+      <c r="S186">
+        <v>1</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
+        <v>1.65</v>
+      </c>
+      <c r="AD186">
+        <v>3.3</v>
+      </c>
+      <c r="AE186">
+        <v>5.5</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>0</v>
+      </c>
+      <c r="AH186">
+        <v>0</v>
+      </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>2.25</v>
+      </c>
+      <c r="AK186">
+        <v>1.57</v>
+      </c>
+      <c r="AL186">
+        <v>0</v>
+      </c>
+      <c r="AM186">
+        <v>0</v>
+      </c>
+      <c r="AN186">
+        <v>0</v>
+      </c>
+      <c r="AO186">
+        <v>0</v>
+      </c>
+      <c r="AP186">
+        <v>0</v>
+      </c>
+      <c r="AQ186">
+        <v>2.33</v>
+      </c>
+      <c r="AR186">
+        <v>0.83</v>
+      </c>
+      <c r="AS186">
+        <v>2.43</v>
+      </c>
+      <c r="AT186">
+        <v>0.71</v>
+      </c>
+      <c r="AU186">
+        <v>1.68</v>
+      </c>
+      <c r="AV186">
+        <v>1.06</v>
+      </c>
+      <c r="AW186">
+        <v>2.74</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>0</v>
+      </c>
+      <c r="AZ186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>0</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>0</v>
+      </c>
+      <c r="BG186">
+        <v>3</v>
+      </c>
+      <c r="BH186">
         <v>4</v>
       </c>
-      <c r="BK184">
-        <v>6</v>
+      <c r="BI186">
+        <v>1</v>
+      </c>
+      <c r="BJ186">
+        <v>4</v>
+      </c>
+      <c r="BK186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>4470741</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44996.40625</v>
+      </c>
+      <c r="F187">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>68</v>
+      </c>
+      <c r="H187" t="s">
+        <v>82</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>128</v>
+      </c>
+      <c r="P187" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>4</v>
+      </c>
+      <c r="S187">
+        <v>5</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
+        <v>3.25</v>
+      </c>
+      <c r="AD187">
+        <v>2.95</v>
+      </c>
+      <c r="AE187">
+        <v>2.2</v>
+      </c>
+      <c r="AF187">
+        <v>0</v>
+      </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>0</v>
+      </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>2.38</v>
+      </c>
+      <c r="AK187">
+        <v>1.51</v>
+      </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
+      <c r="AM187">
+        <v>0</v>
+      </c>
+      <c r="AN187">
+        <v>0</v>
+      </c>
+      <c r="AO187">
+        <v>0</v>
+      </c>
+      <c r="AP187">
+        <v>0</v>
+      </c>
+      <c r="AQ187">
+        <v>0.17</v>
+      </c>
+      <c r="AR187">
+        <v>0.67</v>
+      </c>
+      <c r="AS187">
+        <v>0.57</v>
+      </c>
+      <c r="AT187">
+        <v>0.57</v>
+      </c>
+      <c r="AU187">
+        <v>1.15</v>
+      </c>
+      <c r="AV187">
+        <v>1.38</v>
+      </c>
+      <c r="AW187">
+        <v>2.53</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>0</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>2</v>
+      </c>
+      <c r="BG187">
+        <v>2</v>
+      </c>
+      <c r="BH187">
+        <v>1</v>
+      </c>
+      <c r="BI187">
+        <v>2</v>
+      </c>
+      <c r="BJ187">
+        <v>3</v>
+      </c>
+      <c r="BK187">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,12 @@
     <t>['21', '64']</t>
   </si>
   <si>
+    <t>['10', '39']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -845,6 +851,15 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['54', '61']</t>
+  </si>
+  <si>
+    <t>['3', '62', '81']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1465,7 @@
         <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1537,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT2">
         <v>1.86</v>
@@ -1832,7 +1847,7 @@
         <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1922,7 +1937,7 @@
         <v>2.17</v>
       </c>
       <c r="AT4">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2304,7 +2319,7 @@
         <v>1.57</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2405,7 +2420,7 @@
         <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2492,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT7">
         <v>2.67</v>
@@ -2596,7 +2611,7 @@
         <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2683,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>1.86</v>
@@ -2787,7 +2802,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2877,7 +2892,7 @@
         <v>0.43</v>
       </c>
       <c r="AT9">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2978,7 +2993,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -3259,7 +3274,7 @@
         <v>1.86</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3447,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
         <v>1.17</v>
@@ -3551,7 +3566,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3638,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT13">
         <v>1.5</v>
@@ -3742,7 +3757,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3933,7 +3948,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4315,7 +4330,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4888,7 +4903,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5079,7 +5094,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5461,7 +5476,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -5652,7 +5667,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5843,7 +5858,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6416,7 +6431,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6506,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6798,7 +6813,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7267,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU32">
         <v>0.76</v>
@@ -7371,7 +7386,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7562,7 +7577,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7649,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7840,10 +7855,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT35">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU35">
         <v>0.82</v>
@@ -7944,7 +7959,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8135,7 +8150,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8222,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT37">
         <v>0.57</v>
@@ -8326,7 +8341,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8607,7 +8622,7 @@
         <v>2.5</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8708,7 +8723,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8989,7 +9004,7 @@
         <v>0.43</v>
       </c>
       <c r="AT41">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9090,7 +9105,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9854,7 +9869,7 @@
         <v>100</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10132,7 +10147,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -10809,7 +10824,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11281,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU53">
         <v>1.45</v>
@@ -11382,7 +11397,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11472,7 +11487,7 @@
         <v>2.67</v>
       </c>
       <c r="AT54">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU54">
         <v>1.95</v>
@@ -11663,7 +11678,7 @@
         <v>3</v>
       </c>
       <c r="AT55">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU55">
         <v>1.2</v>
@@ -11764,7 +11779,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11851,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT56">
         <v>1.86</v>
@@ -11955,7 +11970,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12045,7 +12060,7 @@
         <v>0.43</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU57">
         <v>1.45</v>
@@ -12615,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT60">
         <v>0.71</v>
@@ -12806,7 +12821,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT61">
         <v>1.5</v>
@@ -13101,7 +13116,7 @@
         <v>100</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13292,7 +13307,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13483,7 +13498,7 @@
         <v>100</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13761,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>1.43</v>
@@ -13955,7 +13970,7 @@
         <v>1.86</v>
       </c>
       <c r="AT67">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU67">
         <v>1.53</v>
@@ -14056,7 +14071,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14438,7 +14453,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14820,7 +14835,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15202,7 +15217,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15292,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="AT74">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU74">
         <v>1.31</v>
@@ -15671,7 +15686,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT76">
         <v>1.33</v>
@@ -15775,7 +15790,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15966,7 +15981,7 @@
         <v>100</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>-1</v>
@@ -16438,7 +16453,7 @@
         <v>2</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.31</v>
@@ -16629,7 +16644,7 @@
         <v>2.67</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU81">
         <v>1.8</v>
@@ -16730,7 +16745,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17393,7 +17408,7 @@
         <v>1.17</v>
       </c>
       <c r="AT85">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU85">
         <v>1.18</v>
@@ -17581,7 +17596,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT86">
         <v>1.5</v>
@@ -17685,7 +17700,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17963,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT88">
         <v>0.17</v>
@@ -18157,7 +18172,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU89">
         <v>1.13</v>
@@ -18258,7 +18273,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18449,7 +18464,7 @@
         <v>100</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -18727,7 +18742,7 @@
         <v>1.5</v>
       </c>
       <c r="AS92">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT92">
         <v>1.17</v>
@@ -18831,7 +18846,7 @@
         <v>100</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19404,7 +19419,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19491,7 +19506,7 @@
         <v>3</v>
       </c>
       <c r="AS96">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT96">
         <v>3</v>
@@ -19876,7 +19891,7 @@
         <v>2.5</v>
       </c>
       <c r="AT98">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU98">
         <v>1.63</v>
@@ -20168,7 +20183,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20550,7 +20565,7 @@
         <v>100</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>-1</v>
@@ -20831,7 +20846,7 @@
         <v>1.8</v>
       </c>
       <c r="AT103">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU103">
         <v>1.71</v>
@@ -21022,7 +21037,7 @@
         <v>2.43</v>
       </c>
       <c r="AT104">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU104">
         <v>1.73</v>
@@ -21314,7 +21329,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21592,7 +21607,7 @@
         <v>0</v>
       </c>
       <c r="AS107">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT107">
         <v>0</v>
@@ -21887,7 +21902,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21977,7 +21992,7 @@
         <v>0.67</v>
       </c>
       <c r="AT109">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>1.41</v>
@@ -22078,7 +22093,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22168,7 +22183,7 @@
         <v>0.83</v>
       </c>
       <c r="AT110">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU110">
         <v>1.12</v>
@@ -22651,7 +22666,7 @@
         <v>100</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22842,7 +22857,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23033,7 +23048,7 @@
         <v>100</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -23415,7 +23430,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23887,7 +23902,7 @@
         <v>3</v>
       </c>
       <c r="AT119">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU119">
         <v>1.24</v>
@@ -23988,7 +24003,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24075,7 +24090,7 @@
         <v>2.33</v>
       </c>
       <c r="AS120">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT120">
         <v>2.67</v>
@@ -24561,7 +24576,7 @@
         <v>168</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24842,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU124">
         <v>1.37</v>
@@ -24943,7 +24958,7 @@
         <v>170</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25134,7 +25149,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25221,7 +25236,7 @@
         <v>2</v>
       </c>
       <c r="AS126">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT126">
         <v>1.33</v>
@@ -25325,7 +25340,7 @@
         <v>172</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25412,7 +25427,7 @@
         <v>0.33</v>
       </c>
       <c r="AS127">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT127">
         <v>0.83</v>
@@ -25797,7 +25812,7 @@
         <v>0.57</v>
       </c>
       <c r="AT129">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU129">
         <v>1.16</v>
@@ -26471,7 +26486,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26558,7 +26573,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT133">
         <v>2</v>
@@ -26662,7 +26677,7 @@
         <v>100</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26943,7 +26958,7 @@
         <v>1</v>
       </c>
       <c r="AT135">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU135">
         <v>1.45</v>
@@ -27044,7 +27059,7 @@
         <v>176</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27704,10 +27719,10 @@
         <v>0.75</v>
       </c>
       <c r="AS139">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU139">
         <v>0.79</v>
@@ -27808,7 +27823,7 @@
         <v>179</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -27898,7 +27913,7 @@
         <v>1.83</v>
       </c>
       <c r="AT140">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU140">
         <v>1.25</v>
@@ -27999,7 +28014,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28381,7 +28396,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28850,7 +28865,7 @@
         <v>1.75</v>
       </c>
       <c r="AS145">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT145">
         <v>1.33</v>
@@ -28954,7 +28969,7 @@
         <v>100</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -29145,7 +29160,7 @@
         <v>176</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -29617,7 +29632,7 @@
         <v>2.67</v>
       </c>
       <c r="AT149">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU149">
         <v>1.62</v>
@@ -29909,7 +29924,7 @@
         <v>100</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30291,7 +30306,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30760,7 +30775,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT155">
         <v>1.43</v>
@@ -31246,7 +31261,7 @@
         <v>156</v>
       </c>
       <c r="P158" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -31336,7 +31351,7 @@
         <v>1.57</v>
       </c>
       <c r="AT158">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU158">
         <v>1.8</v>
@@ -31437,7 +31452,7 @@
         <v>100</v>
       </c>
       <c r="P159" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q159">
         <v>6</v>
@@ -31715,7 +31730,7 @@
         <v>3</v>
       </c>
       <c r="AS160">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT160">
         <v>2.67</v>
@@ -31906,7 +31921,7 @@
         <v>0</v>
       </c>
       <c r="AS161">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT161">
         <v>0</v>
@@ -32010,7 +32025,7 @@
         <v>191</v>
       </c>
       <c r="P162" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -32288,7 +32303,7 @@
         <v>1.4</v>
       </c>
       <c r="AS163">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT163">
         <v>1.17</v>
@@ -32482,7 +32497,7 @@
         <v>2.17</v>
       </c>
       <c r="AT164">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>1.12</v>
@@ -32583,7 +32598,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32673,7 +32688,7 @@
         <v>1.14</v>
       </c>
       <c r="AT165">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU165">
         <v>1.5</v>
@@ -33055,7 +33070,7 @@
         <v>1.83</v>
       </c>
       <c r="AT167">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU167">
         <v>1.39</v>
@@ -33246,7 +33261,7 @@
         <v>1.8</v>
       </c>
       <c r="AT168">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU168">
         <v>1.81</v>
@@ -33347,7 +33362,7 @@
         <v>100</v>
       </c>
       <c r="P169" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -34111,7 +34126,7 @@
         <v>100</v>
       </c>
       <c r="P173" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34684,7 +34699,7 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35448,7 +35463,7 @@
         <v>100</v>
       </c>
       <c r="P180" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35639,7 +35654,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q181">
         <v>2</v>
@@ -36021,7 +36036,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36212,7 +36227,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36403,16 +36418,16 @@
         <v>100</v>
       </c>
       <c r="P185" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q185">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S185">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T185">
         <v>0</v>
@@ -36529,22 +36544,22 @@
         <v>0</v>
       </c>
       <c r="BF185">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG185">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH185">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ185">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK185">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:63">
@@ -36594,7 +36609,7 @@
         <v>202</v>
       </c>
       <c r="P186" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -36720,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="BF186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG186">
         <v>3</v>
@@ -36729,13 +36744,13 @@
         <v>4</v>
       </c>
       <c r="BI186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ186">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BK186">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:63">
@@ -36791,10 +36806,10 @@
         <v>1</v>
       </c>
       <c r="R187">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S187">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T187">
         <v>0</v>
@@ -36914,19 +36929,1165 @@
         <v>2</v>
       </c>
       <c r="BG187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH187">
         <v>1</v>
       </c>
       <c r="BI187">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ187">
         <v>3</v>
       </c>
       <c r="BK187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>4470722</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44997.40625</v>
+      </c>
+      <c r="F188">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s">
+        <v>65</v>
+      </c>
+      <c r="H188" t="s">
+        <v>83</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>100</v>
+      </c>
+      <c r="P188" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q188">
+        <v>5</v>
+      </c>
+      <c r="R188">
+        <v>3</v>
+      </c>
+      <c r="S188">
+        <v>8</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
+      <c r="AC188">
+        <v>1.87</v>
+      </c>
+      <c r="AD188">
+        <v>3.34</v>
+      </c>
+      <c r="AE188">
+        <v>4.22</v>
+      </c>
+      <c r="AF188">
+        <v>0</v>
+      </c>
+      <c r="AG188">
+        <v>0</v>
+      </c>
+      <c r="AH188">
+        <v>0</v>
+      </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>2.2</v>
+      </c>
+      <c r="AK188">
+        <v>1.6</v>
+      </c>
+      <c r="AL188">
+        <v>0</v>
+      </c>
+      <c r="AM188">
+        <v>0</v>
+      </c>
+      <c r="AN188">
+        <v>0</v>
+      </c>
+      <c r="AO188">
+        <v>0</v>
+      </c>
+      <c r="AP188">
+        <v>0</v>
+      </c>
+      <c r="AQ188">
+        <v>1.17</v>
+      </c>
+      <c r="AR188">
+        <v>1.5</v>
+      </c>
+      <c r="AS188">
+        <v>1</v>
+      </c>
+      <c r="AT188">
+        <v>1.71</v>
+      </c>
+      <c r="AU188">
+        <v>1.02</v>
+      </c>
+      <c r="AV188">
+        <v>1.13</v>
+      </c>
+      <c r="AW188">
+        <v>2.15</v>
+      </c>
+      <c r="AX188">
+        <v>0</v>
+      </c>
+      <c r="AY188">
+        <v>0</v>
+      </c>
+      <c r="AZ188">
+        <v>0</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>0</v>
+      </c>
+      <c r="BC188">
+        <v>0</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
         <v>4</v>
+      </c>
+      <c r="BG188">
+        <v>3</v>
+      </c>
+      <c r="BH188">
+        <v>6</v>
+      </c>
+      <c r="BI188">
+        <v>7</v>
+      </c>
+      <c r="BJ188">
+        <v>10</v>
+      </c>
+      <c r="BK188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>4470730</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44997.40625</v>
+      </c>
+      <c r="F189">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>90</v>
+      </c>
+      <c r="H189" t="s">
+        <v>84</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>117</v>
+      </c>
+      <c r="P189" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q189">
+        <v>7</v>
+      </c>
+      <c r="R189">
+        <v>5</v>
+      </c>
+      <c r="S189">
+        <v>12</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
+      <c r="AC189">
+        <v>1.7</v>
+      </c>
+      <c r="AD189">
+        <v>3.44</v>
+      </c>
+      <c r="AE189">
+        <v>5.2</v>
+      </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>0</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>2.29</v>
+      </c>
+      <c r="AK189">
+        <v>1.55</v>
+      </c>
+      <c r="AL189">
+        <v>0</v>
+      </c>
+      <c r="AM189">
+        <v>0</v>
+      </c>
+      <c r="AN189">
+        <v>0</v>
+      </c>
+      <c r="AO189">
+        <v>0</v>
+      </c>
+      <c r="AP189">
+        <v>0</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>0.17</v>
+      </c>
+      <c r="AS189">
+        <v>1</v>
+      </c>
+      <c r="AT189">
+        <v>0.29</v>
+      </c>
+      <c r="AU189">
+        <v>1.32</v>
+      </c>
+      <c r="AV189">
+        <v>0.8</v>
+      </c>
+      <c r="AW189">
+        <v>2.12</v>
+      </c>
+      <c r="AX189">
+        <v>0</v>
+      </c>
+      <c r="AY189">
+        <v>0</v>
+      </c>
+      <c r="AZ189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
+      <c r="BC189">
+        <v>0</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>0</v>
+      </c>
+      <c r="BG189">
+        <v>0</v>
+      </c>
+      <c r="BH189">
+        <v>6</v>
+      </c>
+      <c r="BI189">
+        <v>5</v>
+      </c>
+      <c r="BJ189">
+        <v>6</v>
+      </c>
+      <c r="BK189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>4470732</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44997.40625</v>
+      </c>
+      <c r="F190">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>75</v>
+      </c>
+      <c r="H190" t="s">
+        <v>87</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>3</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190" t="s">
+        <v>203</v>
+      </c>
+      <c r="P190" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q190">
+        <v>3</v>
+      </c>
+      <c r="R190">
+        <v>3</v>
+      </c>
+      <c r="S190">
+        <v>6</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>1.88</v>
+      </c>
+      <c r="AD190">
+        <v>3.2</v>
+      </c>
+      <c r="AE190">
+        <v>4.44</v>
+      </c>
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190">
+        <v>0</v>
+      </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
+        <v>2.4</v>
+      </c>
+      <c r="AK190">
+        <v>1.51</v>
+      </c>
+      <c r="AL190">
+        <v>0</v>
+      </c>
+      <c r="AM190">
+        <v>0</v>
+      </c>
+      <c r="AN190">
+        <v>0</v>
+      </c>
+      <c r="AO190">
+        <v>0</v>
+      </c>
+      <c r="AP190">
+        <v>0</v>
+      </c>
+      <c r="AQ190">
+        <v>1.83</v>
+      </c>
+      <c r="AR190">
+        <v>0.67</v>
+      </c>
+      <c r="AS190">
+        <v>1.57</v>
+      </c>
+      <c r="AT190">
+        <v>1</v>
+      </c>
+      <c r="AU190">
+        <v>1.27</v>
+      </c>
+      <c r="AV190">
+        <v>0.97</v>
+      </c>
+      <c r="AW190">
+        <v>2.24</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>0</v>
+      </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>0</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>2</v>
+      </c>
+      <c r="BG190">
+        <v>3</v>
+      </c>
+      <c r="BH190">
+        <v>5</v>
+      </c>
+      <c r="BI190">
+        <v>5</v>
+      </c>
+      <c r="BJ190">
+        <v>7</v>
+      </c>
+      <c r="BK190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>4470734</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44997.40625</v>
+      </c>
+      <c r="F191">
+        <v>14</v>
+      </c>
+      <c r="G191" t="s">
+        <v>76</v>
+      </c>
+      <c r="H191" t="s">
+        <v>93</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>204</v>
+      </c>
+      <c r="P191" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q191">
+        <v>5</v>
+      </c>
+      <c r="R191">
+        <v>9</v>
+      </c>
+      <c r="S191">
+        <v>14</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+      <c r="V191">
+        <v>0</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <v>0</v>
+      </c>
+      <c r="AC191">
+        <v>5.6</v>
+      </c>
+      <c r="AD191">
+        <v>3.28</v>
+      </c>
+      <c r="AE191">
+        <v>1.7</v>
+      </c>
+      <c r="AF191">
+        <v>0</v>
+      </c>
+      <c r="AG191">
+        <v>0</v>
+      </c>
+      <c r="AH191">
+        <v>0</v>
+      </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>2.41</v>
+      </c>
+      <c r="AK191">
+        <v>1.5</v>
+      </c>
+      <c r="AL191">
+        <v>0</v>
+      </c>
+      <c r="AM191">
+        <v>0</v>
+      </c>
+      <c r="AN191">
+        <v>0</v>
+      </c>
+      <c r="AO191">
+        <v>0</v>
+      </c>
+      <c r="AP191">
+        <v>0</v>
+      </c>
+      <c r="AQ191">
+        <v>0.83</v>
+      </c>
+      <c r="AR191">
+        <v>1.83</v>
+      </c>
+      <c r="AS191">
+        <v>0.86</v>
+      </c>
+      <c r="AT191">
+        <v>1.71</v>
+      </c>
+      <c r="AU191">
+        <v>1.36</v>
+      </c>
+      <c r="AV191">
+        <v>1.26</v>
+      </c>
+      <c r="AW191">
+        <v>2.62</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>0</v>
+      </c>
+      <c r="AZ191">
+        <v>0</v>
+      </c>
+      <c r="BA191">
+        <v>0</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
+      <c r="BC191">
+        <v>0</v>
+      </c>
+      <c r="BD191">
+        <v>0</v>
+      </c>
+      <c r="BE191">
+        <v>0</v>
+      </c>
+      <c r="BF191">
+        <v>2</v>
+      </c>
+      <c r="BG191">
+        <v>12</v>
+      </c>
+      <c r="BH191">
+        <v>6</v>
+      </c>
+      <c r="BI191">
+        <v>5</v>
+      </c>
+      <c r="BJ191">
+        <v>8</v>
+      </c>
+      <c r="BK191">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>4470736</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44997.40625</v>
+      </c>
+      <c r="F192">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s">
+        <v>70</v>
+      </c>
+      <c r="H192" t="s">
+        <v>91</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>113</v>
+      </c>
+      <c r="P192" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q192">
+        <v>2</v>
+      </c>
+      <c r="R192">
+        <v>7</v>
+      </c>
+      <c r="S192">
+        <v>9</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+      <c r="AB192">
+        <v>0</v>
+      </c>
+      <c r="AC192">
+        <v>1.58</v>
+      </c>
+      <c r="AD192">
+        <v>3.68</v>
+      </c>
+      <c r="AE192">
+        <v>6</v>
+      </c>
+      <c r="AF192">
+        <v>0</v>
+      </c>
+      <c r="AG192">
+        <v>0</v>
+      </c>
+      <c r="AH192">
+        <v>1.53</v>
+      </c>
+      <c r="AI192">
+        <v>2.35</v>
+      </c>
+      <c r="AJ192">
+        <v>2.59</v>
+      </c>
+      <c r="AK192">
+        <v>1.38</v>
+      </c>
+      <c r="AL192">
+        <v>0</v>
+      </c>
+      <c r="AM192">
+        <v>0</v>
+      </c>
+      <c r="AN192">
+        <v>0</v>
+      </c>
+      <c r="AO192">
+        <v>0</v>
+      </c>
+      <c r="AP192">
+        <v>0</v>
+      </c>
+      <c r="AQ192">
+        <v>1.67</v>
+      </c>
+      <c r="AR192">
+        <v>0.67</v>
+      </c>
+      <c r="AS192">
+        <v>1.57</v>
+      </c>
+      <c r="AT192">
+        <v>0.71</v>
+      </c>
+      <c r="AU192">
+        <v>1.32</v>
+      </c>
+      <c r="AV192">
+        <v>0.98</v>
+      </c>
+      <c r="AW192">
+        <v>2.3</v>
+      </c>
+      <c r="AX192">
+        <v>0</v>
+      </c>
+      <c r="AY192">
+        <v>0</v>
+      </c>
+      <c r="AZ192">
+        <v>0</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>0</v>
+      </c>
+      <c r="BC192">
+        <v>0</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>4</v>
+      </c>
+      <c r="BG192">
+        <v>0</v>
+      </c>
+      <c r="BH192">
+        <v>2</v>
+      </c>
+      <c r="BI192">
+        <v>5</v>
+      </c>
+      <c r="BJ192">
+        <v>6</v>
+      </c>
+      <c r="BK192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>4470743</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44997.40625</v>
+      </c>
+      <c r="F193">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s">
+        <v>71</v>
+      </c>
+      <c r="H193" t="s">
+        <v>86</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193" t="s">
+        <v>100</v>
+      </c>
+      <c r="P193" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q193">
+        <v>6</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>6</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <v>1.18</v>
+      </c>
+      <c r="AD193">
+        <v>6.25</v>
+      </c>
+      <c r="AE193">
+        <v>14.25</v>
+      </c>
+      <c r="AF193">
+        <v>0</v>
+      </c>
+      <c r="AG193">
+        <v>0</v>
+      </c>
+      <c r="AH193">
+        <v>0</v>
+      </c>
+      <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
+        <v>1.68</v>
+      </c>
+      <c r="AK193">
+        <v>2.06</v>
+      </c>
+      <c r="AL193">
+        <v>0</v>
+      </c>
+      <c r="AM193">
+        <v>0</v>
+      </c>
+      <c r="AN193">
+        <v>0</v>
+      </c>
+      <c r="AO193">
+        <v>0</v>
+      </c>
+      <c r="AP193">
+        <v>0</v>
+      </c>
+      <c r="AQ193">
+        <v>2.17</v>
+      </c>
+      <c r="AR193">
+        <v>0.5</v>
+      </c>
+      <c r="AS193">
+        <v>2</v>
+      </c>
+      <c r="AT193">
+        <v>0.57</v>
+      </c>
+      <c r="AU193">
+        <v>0.95</v>
+      </c>
+      <c r="AV193">
+        <v>0.77</v>
+      </c>
+      <c r="AW193">
+        <v>1.72</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>0</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>6</v>
+      </c>
+      <c r="BG193">
+        <v>2</v>
+      </c>
+      <c r="BH193">
+        <v>7</v>
+      </c>
+      <c r="BI193">
+        <v>1</v>
+      </c>
+      <c r="BJ193">
+        <v>13</v>
+      </c>
+      <c r="BK193">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT17" t="n">
         <v>1.29</v>
@@ -4151,7 +4151,7 @@
         <v>0.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>0.83</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT24" t="n">
         <v>1.17</v>
@@ -6993,7 +6993,7 @@
         <v>0.57</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>1.83</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU42" t="n">
         <v>1.44</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT43" t="n">
         <v>1.43</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT45" t="n">
         <v>1.33</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT47" t="n">
         <v>1.71</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU48" t="n">
         <v>1.24</v>
@@ -10444,7 +10444,7 @@
         <v>0.83</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU49" t="n">
         <v>1.23</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT50" t="n">
         <v>1.17</v>
@@ -12271,7 +12271,7 @@
         <v>1.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.54</v>
@@ -15113,7 +15113,7 @@
         <v>1.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.11</v>
@@ -16331,7 +16331,7 @@
         <v>2.29</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT80" t="n">
         <v>1.71</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT84" t="n">
         <v>0</v>
@@ -17955,7 +17955,7 @@
         <v>1.57</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU86" t="n">
         <v>1.15</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>0.86</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -21606,7 +21606,7 @@
         <v>2.33</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT104" t="n">
         <v>1.86</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT109" t="n">
         <v>0.71</v>
@@ -23233,7 +23233,7 @@
         <v>1.14</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU112" t="n">
         <v>1.52</v>
@@ -23636,7 +23636,7 @@
         <v>1.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT114" t="n">
         <v>1</v>
@@ -24248,7 +24248,7 @@
         <v>1.86</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU117" t="n">
         <v>1.7</v>
@@ -25666,7 +25666,7 @@
         <v>0.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT124" t="n">
         <v>0.29</v>
@@ -25872,7 +25872,7 @@
         <v>3</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.29</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU127" t="n">
         <v>0.97</v>
@@ -26681,7 +26681,7 @@
         <v>3</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT129" t="n">
         <v>2.71</v>
@@ -29729,7 +29729,7 @@
         <v>2.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU144" t="n">
         <v>1.33</v>
@@ -29932,7 +29932,7 @@
         <v>1.86</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU145" t="n">
         <v>1.64</v>
@@ -30132,7 +30132,7 @@
         <v>0.2</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT146" t="n">
         <v>0.29</v>
@@ -30335,7 +30335,7 @@
         <v>1.2</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT147" t="n">
         <v>1.43</v>
@@ -30538,7 +30538,7 @@
         <v>1.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT148" t="n">
         <v>1.5</v>
@@ -30947,7 +30947,7 @@
         <v>2.67</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.44</v>
@@ -31556,7 +31556,7 @@
         <v>0.43</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU153" t="n">
         <v>1.05</v>
@@ -34801,7 +34801,7 @@
         <v>0.6</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT169" t="n">
         <v>0.57</v>
@@ -35007,7 +35007,7 @@
         <v>1.14</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU170" t="n">
         <v>1.37</v>
@@ -35207,7 +35207,7 @@
         <v>3</v>
       </c>
       <c r="AS171" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT171" t="n">
         <v>3</v>
@@ -35410,10 +35410,10 @@
         <v>1.8</v>
       </c>
       <c r="AS172" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU172" t="n">
         <v>1.31</v>
@@ -36425,7 +36425,7 @@
         <v>1.8</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT177" t="n">
         <v>1.5</v>
@@ -37037,7 +37037,7 @@
         <v>2.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU180" t="n">
         <v>1.71</v>
@@ -37240,7 +37240,7 @@
         <v>0.83</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU181" t="n">
         <v>1.12</v>
@@ -40404,10 +40404,10 @@
         <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T197" t="n">
         <v>0</v>
@@ -40524,22 +40524,834 @@
         <v>0</v>
       </c>
       <c r="BF197" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ197" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BK197" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4470755</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45003.36458333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>15</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>PAOK II</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Makedonikos Neapolis FC</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>5</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['6', '53', '90+3']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['36', '81']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2</v>
+      </c>
+      <c r="S198" t="n">
+        <v>2</v>
+      </c>
+      <c r="T198" t="n">
+        <v>0</v>
+      </c>
+      <c r="U198" t="n">
+        <v>0</v>
+      </c>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0</v>
+      </c>
+      <c r="X198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4470753</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45003.40625</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Panathinaikos II</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>4</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" t="n">
+        <v>4</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0</v>
+      </c>
+      <c r="V199" t="n">
+        <v>0</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4470757</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45003.40625</v>
+      </c>
+      <c r="F200" t="n">
+        <v>15</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Iraklis Larissa</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Veria</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>2</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>3</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['28', '45+2']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>4</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2</v>
+      </c>
+      <c r="S200" t="n">
+        <v>6</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0</v>
+      </c>
+      <c r="V200" t="n">
+        <v>0</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4470763</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45003.40625</v>
+      </c>
+      <c r="F201" t="n">
+        <v>15</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus II</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>AOX Kissamikos</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['57', '85']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>4</v>
+      </c>
+      <c r="R201" t="n">
+        <v>5</v>
+      </c>
+      <c r="S201" t="n">
+        <v>9</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" t="n">
+        <v>0</v>
+      </c>
+      <c r="V201" t="n">
+        <v>0</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,10 +568,10 @@
     <t>['66', '90+4']</t>
   </si>
   <si>
-    <t>['46', '67']</t>
+    <t>['9']</t>
   </si>
   <si>
-    <t>['9']</t>
+    <t>['46', '67']</t>
   </si>
   <si>
     <t>['16', '43', '58']</t>
@@ -586,19 +586,19 @@
     <t>['24', '45+2', '51', '78']</t>
   </si>
   <si>
-    <t>['21', '29', '34']</t>
+    <t>['12', '42', '63', '80']</t>
+  </si>
+  <si>
+    <t>['51', '74', '81', '88']</t>
   </si>
   <si>
     <t>['28', '38']</t>
   </si>
   <si>
-    <t>['51', '74', '81', '88']</t>
+    <t>['85', '90+4']</t>
   </si>
   <si>
-    <t>['12', '42', '63', '80']</t>
-  </si>
-  <si>
-    <t>['85', '90+4']</t>
+    <t>['21', '29', '34']</t>
   </si>
   <si>
     <t>['7', '47', '77', '85', '87', '90+3']</t>
@@ -625,13 +625,13 @@
     <t>['21', '64']</t>
   </si>
   <si>
-    <t>['12', '17', '29', '33', '35', '40']</t>
+    <t>['90+4']</t>
   </si>
   <si>
     <t>['10', '39']</t>
   </si>
   <si>
-    <t>['90+4']</t>
+    <t>['12', '17', '29', '33', '35', '40']</t>
   </si>
   <si>
     <t>['7', '11']</t>
@@ -640,19 +640,19 @@
     <t>['6', '53', '90+3']</t>
   </si>
   <si>
+    <t>['57', '85']</t>
+  </si>
+  <si>
     <t>['28', '45+2']</t>
   </si>
   <si>
-    <t>['57', '85']</t>
-  </si>
-  <si>
-    <t>['2', '6', '85']</t>
+    <t>['35', '61']</t>
   </si>
   <si>
     <t>['33']</t>
   </si>
   <si>
-    <t>['35', '61']</t>
+    <t>['2', '6', '85']</t>
   </si>
   <si>
     <t>['23', '64']</t>
@@ -850,22 +850,22 @@
     <t>['4']</t>
   </si>
   <si>
-    <t>['68', '77', '90+2']</t>
+    <t>['60', '65']</t>
   </si>
   <si>
     <t>['14', '78']</t>
   </si>
   <si>
-    <t>['60', '65']</t>
+    <t>['68', '77', '90+2']</t>
+  </si>
+  <si>
+    <t>['49', '78', '79']</t>
   </si>
   <si>
     <t>['9', '36', '42']</t>
   </si>
   <si>
     <t>['38', '83']</t>
-  </si>
-  <si>
-    <t>['49', '78', '79']</t>
   </si>
   <si>
     <t>['10', '24', '27']</t>
@@ -880,13 +880,13 @@
     <t>['68']</t>
   </si>
   <si>
-    <t>['54', '61']</t>
+    <t>['13']</t>
   </si>
   <si>
     <t>['3', '62', '81']</t>
   </si>
   <si>
-    <t>['13']</t>
+    <t>['54', '61']</t>
   </si>
   <si>
     <t>['36', '65', '81']</t>
@@ -895,13 +895,13 @@
     <t>['4', '22']</t>
   </si>
   <si>
-    <t>['30']</t>
+    <t>['6', '8', '18', '59']</t>
   </si>
   <si>
     <t>['72']</t>
   </si>
   <si>
-    <t>['6', '8', '18', '59']</t>
+    <t>['30']</t>
   </si>
   <si>
     <t>['3', '36', '77']</t>
@@ -1266,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT18">
         <v>0.86</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT44">
         <v>1.71</v>
@@ -16686,7 +16686,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT81">
         <v>1.43</v>
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -27000,7 +27000,7 @@
         <v>0.75</v>
       </c>
       <c r="AS135">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT135">
         <v>1</v>
@@ -27253,7 +27253,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>4470627</v>
+        <v>4470613</v>
       </c>
       <c r="C137" t="s">
         <v>63</v>
@@ -27268,175 +27268,175 @@
         <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H137" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O137" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="P137" t="s">
         <v>100</v>
       </c>
       <c r="Q137">
+        <v>4</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>1.58</v>
+      </c>
+      <c r="AD137">
+        <v>3.35</v>
+      </c>
+      <c r="AE137">
+        <v>5.3</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>2.19</v>
+      </c>
+      <c r="AK137">
+        <v>1.61</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>2</v>
+      </c>
+      <c r="AR137">
+        <v>1.5</v>
+      </c>
+      <c r="AS137">
+        <v>2.43</v>
+      </c>
+      <c r="AT137">
+        <v>1.43</v>
+      </c>
+      <c r="AU137">
+        <v>1.64</v>
+      </c>
+      <c r="AV137">
+        <v>0.8</v>
+      </c>
+      <c r="AW137">
+        <v>2.44</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
         <v>5</v>
       </c>
-      <c r="R137">
-        <v>4</v>
-      </c>
-      <c r="S137">
-        <v>9</v>
-      </c>
-      <c r="T137">
-        <v>0</v>
-      </c>
-      <c r="U137">
-        <v>0</v>
-      </c>
-      <c r="V137">
-        <v>0</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
-      </c>
-      <c r="Y137">
-        <v>0</v>
-      </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-      <c r="AA137">
-        <v>0</v>
-      </c>
-      <c r="AB137">
-        <v>0</v>
-      </c>
-      <c r="AC137">
-        <v>1.44</v>
-      </c>
-      <c r="AD137">
-        <v>3.87</v>
-      </c>
-      <c r="AE137">
-        <v>6</v>
-      </c>
-      <c r="AF137">
-        <v>0</v>
-      </c>
-      <c r="AG137">
-        <v>0</v>
-      </c>
-      <c r="AH137">
-        <v>1.61</v>
-      </c>
-      <c r="AI137">
-        <v>2.18</v>
-      </c>
-      <c r="AJ137">
-        <v>2.7</v>
-      </c>
-      <c r="AK137">
-        <v>1.35</v>
-      </c>
-      <c r="AL137">
-        <v>0</v>
-      </c>
-      <c r="AM137">
-        <v>0</v>
-      </c>
-      <c r="AN137">
-        <v>0</v>
-      </c>
-      <c r="AO137">
-        <v>0</v>
-      </c>
-      <c r="AP137">
-        <v>0</v>
-      </c>
-      <c r="AQ137">
-        <v>1</v>
-      </c>
-      <c r="AR137">
-        <v>0.75</v>
-      </c>
-      <c r="AS137">
-        <v>1</v>
-      </c>
-      <c r="AT137">
-        <v>1</v>
-      </c>
-      <c r="AU137">
-        <v>1.45</v>
-      </c>
-      <c r="AV137">
-        <v>0.93</v>
-      </c>
-      <c r="AW137">
-        <v>2.38</v>
-      </c>
-      <c r="AX137">
-        <v>0</v>
-      </c>
-      <c r="AY137">
-        <v>0</v>
-      </c>
-      <c r="AZ137">
-        <v>0</v>
-      </c>
-      <c r="BA137">
-        <v>0</v>
-      </c>
-      <c r="BB137">
-        <v>0</v>
-      </c>
-      <c r="BC137">
-        <v>0</v>
-      </c>
-      <c r="BD137">
-        <v>0</v>
-      </c>
-      <c r="BE137">
-        <v>0</v>
-      </c>
-      <c r="BF137">
-        <v>4</v>
-      </c>
       <c r="BG137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH137">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI137">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BJ137">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK137">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:63">
@@ -27635,7 +27635,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>4470613</v>
+        <v>4470627</v>
       </c>
       <c r="C139" t="s">
         <v>63</v>
@@ -27650,175 +27650,175 @@
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H139" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O139" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="P139" t="s">
         <v>100</v>
       </c>
       <c r="Q139">
+        <v>5</v>
+      </c>
+      <c r="R139">
         <v>4</v>
       </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
       <c r="S139">
+        <v>9</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>1.44</v>
+      </c>
+      <c r="AD139">
+        <v>3.87</v>
+      </c>
+      <c r="AE139">
+        <v>6</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>1.61</v>
+      </c>
+      <c r="AI139">
+        <v>2.18</v>
+      </c>
+      <c r="AJ139">
+        <v>2.7</v>
+      </c>
+      <c r="AK139">
+        <v>1.35</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
+      <c r="AQ139">
+        <v>1</v>
+      </c>
+      <c r="AR139">
+        <v>0.75</v>
+      </c>
+      <c r="AS139">
+        <v>1</v>
+      </c>
+      <c r="AT139">
+        <v>1</v>
+      </c>
+      <c r="AU139">
+        <v>1.45</v>
+      </c>
+      <c r="AV139">
+        <v>0.93</v>
+      </c>
+      <c r="AW139">
+        <v>2.38</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
         <v>4</v>
       </c>
-      <c r="T139">
-        <v>0</v>
-      </c>
-      <c r="U139">
-        <v>0</v>
-      </c>
-      <c r="V139">
-        <v>0</v>
-      </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
-      </c>
-      <c r="Y139">
-        <v>0</v>
-      </c>
-      <c r="Z139">
-        <v>0</v>
-      </c>
-      <c r="AA139">
-        <v>0</v>
-      </c>
-      <c r="AB139">
-        <v>0</v>
-      </c>
-      <c r="AC139">
-        <v>1.58</v>
-      </c>
-      <c r="AD139">
-        <v>3.35</v>
-      </c>
-      <c r="AE139">
-        <v>5.3</v>
-      </c>
-      <c r="AF139">
-        <v>0</v>
-      </c>
-      <c r="AG139">
-        <v>0</v>
-      </c>
-      <c r="AH139">
-        <v>0</v>
-      </c>
-      <c r="AI139">
-        <v>0</v>
-      </c>
-      <c r="AJ139">
-        <v>2.19</v>
-      </c>
-      <c r="AK139">
-        <v>1.61</v>
-      </c>
-      <c r="AL139">
-        <v>0</v>
-      </c>
-      <c r="AM139">
-        <v>0</v>
-      </c>
-      <c r="AN139">
-        <v>0</v>
-      </c>
-      <c r="AO139">
-        <v>0</v>
-      </c>
-      <c r="AP139">
-        <v>0</v>
-      </c>
-      <c r="AQ139">
-        <v>2</v>
-      </c>
-      <c r="AR139">
-        <v>1.5</v>
-      </c>
-      <c r="AS139">
-        <v>2.43</v>
-      </c>
-      <c r="AT139">
-        <v>1.43</v>
-      </c>
-      <c r="AU139">
-        <v>1.64</v>
-      </c>
-      <c r="AV139">
-        <v>0.8</v>
-      </c>
-      <c r="AW139">
-        <v>2.44</v>
-      </c>
-      <c r="AX139">
-        <v>0</v>
-      </c>
-      <c r="AY139">
-        <v>0</v>
-      </c>
-      <c r="AZ139">
-        <v>0</v>
-      </c>
-      <c r="BA139">
-        <v>0</v>
-      </c>
-      <c r="BB139">
-        <v>0</v>
-      </c>
-      <c r="BC139">
-        <v>0</v>
-      </c>
-      <c r="BD139">
-        <v>0</v>
-      </c>
-      <c r="BE139">
-        <v>0</v>
-      </c>
-      <c r="BF139">
-        <v>5</v>
-      </c>
       <c r="BG139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH139">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI139">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ139">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK139">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:63">
@@ -29736,7 +29736,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>4470661</v>
+        <v>4470653</v>
       </c>
       <c r="C150" t="s">
         <v>63</v>
@@ -29751,43 +29751,43 @@
         <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H150" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O150" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="Q150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S150">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T150">
         <v>0</v>
@@ -29817,13 +29817,13 @@
         <v>0</v>
       </c>
       <c r="AC150">
-        <v>2.39</v>
+        <v>11.64</v>
       </c>
       <c r="AD150">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="AE150">
-        <v>2.55</v>
+        <v>1.09</v>
       </c>
       <c r="AF150">
         <v>0</v>
@@ -29832,16 +29832,16 @@
         <v>0</v>
       </c>
       <c r="AH150">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AI150">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AJ150">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="AK150">
-        <v>1.57</v>
+        <v>2.01</v>
       </c>
       <c r="AL150">
         <v>0</v>
@@ -29859,25 +29859,25 @@
         <v>0</v>
       </c>
       <c r="AQ150">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="AR150">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AS150">
-        <v>2.43</v>
+        <v>0.43</v>
       </c>
       <c r="AT150">
-        <v>1</v>
+        <v>2.71</v>
       </c>
       <c r="AU150">
         <v>1.44</v>
       </c>
       <c r="AV150">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AW150">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="AX150">
         <v>0</v>
@@ -29907,19 +29907,19 @@
         <v>2</v>
       </c>
       <c r="BG150">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH150">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BK150">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:63">
@@ -29927,7 +29927,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>4470653</v>
+        <v>4470655</v>
       </c>
       <c r="C151" t="s">
         <v>63</v>
@@ -29942,10 +29942,10 @@
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H151" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -29960,25 +29960,25 @@
         <v>1</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N151">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O151" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T151">
         <v>0</v>
@@ -30008,13 +30008,13 @@
         <v>0</v>
       </c>
       <c r="AC151">
-        <v>11.64</v>
+        <v>2.08</v>
       </c>
       <c r="AD151">
-        <v>5.4</v>
+        <v>2.59</v>
       </c>
       <c r="AE151">
-        <v>1.09</v>
+        <v>3.09</v>
       </c>
       <c r="AF151">
         <v>0</v>
@@ -30023,16 +30023,16 @@
         <v>0</v>
       </c>
       <c r="AH151">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AI151">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AJ151">
-        <v>1.63</v>
+        <v>2.7</v>
       </c>
       <c r="AK151">
-        <v>2.01</v>
+        <v>1.35</v>
       </c>
       <c r="AL151">
         <v>0</v>
@@ -30050,25 +30050,25 @@
         <v>0</v>
       </c>
       <c r="AQ151">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AS151">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AT151">
-        <v>2.71</v>
+        <v>1.29</v>
       </c>
       <c r="AU151">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AV151">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="AW151">
-        <v>3.08</v>
+        <v>2.6</v>
       </c>
       <c r="AX151">
         <v>0</v>
@@ -30095,22 +30095,22 @@
         <v>0</v>
       </c>
       <c r="BF151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG151">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI151">
         <v>2</v>
       </c>
       <c r="BJ151">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BK151">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:63">
@@ -30118,7 +30118,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>4470655</v>
+        <v>4470661</v>
       </c>
       <c r="C152" t="s">
         <v>63</v>
@@ -30133,25 +30133,25 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H152" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152">
         <v>2</v>
@@ -30160,13 +30160,13 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="Q152">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S152">
         <v>8</v>
@@ -30199,13 +30199,13 @@
         <v>0</v>
       </c>
       <c r="AC152">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="AD152">
-        <v>2.59</v>
+        <v>3.05</v>
       </c>
       <c r="AE152">
-        <v>3.09</v>
+        <v>2.55</v>
       </c>
       <c r="AF152">
         <v>0</v>
@@ -30214,16 +30214,16 @@
         <v>0</v>
       </c>
       <c r="AH152">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AI152">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AJ152">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="AK152">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AL152">
         <v>0</v>
@@ -30241,25 +30241,25 @@
         <v>0</v>
       </c>
       <c r="AQ152">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="AR152">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AS152">
-        <v>0.86</v>
+        <v>2.43</v>
       </c>
       <c r="AT152">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AU152">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AV152">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AW152">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AX152">
         <v>0</v>
@@ -30286,22 +30286,22 @@
         <v>0</v>
       </c>
       <c r="BF152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG152">
+        <v>4</v>
+      </c>
+      <c r="BH152">
+        <v>4</v>
+      </c>
+      <c r="BI152">
         <v>6</v>
-      </c>
-      <c r="BH152">
-        <v>3</v>
-      </c>
-      <c r="BI152">
-        <v>2</v>
       </c>
       <c r="BJ152">
         <v>6</v>
       </c>
       <c r="BK152">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:63">
@@ -31264,7 +31264,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>4470686</v>
+        <v>4470681</v>
       </c>
       <c r="C158" t="s">
         <v>63</v>
@@ -31279,175 +31279,175 @@
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H158" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158">
         <v>2</v>
       </c>
       <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>160</v>
+      </c>
+      <c r="P158" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>7</v>
+      </c>
+      <c r="S158">
+        <v>7</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+      <c r="AC158">
+        <v>1.23</v>
+      </c>
+      <c r="AD158">
+        <v>5.4</v>
+      </c>
+      <c r="AE158">
+        <v>12</v>
+      </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>0</v>
+      </c>
+      <c r="AH158">
+        <v>0</v>
+      </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>1.72</v>
+      </c>
+      <c r="AK158">
+        <v>2.02</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>0</v>
+      </c>
+      <c r="AO158">
+        <v>0</v>
+      </c>
+      <c r="AP158">
+        <v>0</v>
+      </c>
+      <c r="AQ158">
+        <v>2</v>
+      </c>
+      <c r="AR158">
+        <v>0.6</v>
+      </c>
+      <c r="AS158">
+        <v>1.57</v>
+      </c>
+      <c r="AT158">
+        <v>0.71</v>
+      </c>
+      <c r="AU158">
+        <v>1.8</v>
+      </c>
+      <c r="AV158">
+        <v>0.89</v>
+      </c>
+      <c r="AW158">
+        <v>2.69</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="AZ158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>2</v>
+      </c>
+      <c r="BG158">
+        <v>6</v>
+      </c>
+      <c r="BH158">
         <v>4</v>
       </c>
-      <c r="M158">
-        <v>0</v>
-      </c>
-      <c r="N158">
-        <v>4</v>
-      </c>
-      <c r="O158" t="s">
-        <v>189</v>
-      </c>
-      <c r="P158" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q158">
-        <v>9</v>
-      </c>
-      <c r="R158">
-        <v>1</v>
-      </c>
-      <c r="S158">
-        <v>10</v>
-      </c>
-      <c r="T158">
-        <v>0</v>
-      </c>
-      <c r="U158">
-        <v>0</v>
-      </c>
-      <c r="V158">
-        <v>0</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
-        <v>0</v>
-      </c>
-      <c r="AB158">
-        <v>0</v>
-      </c>
-      <c r="AC158">
-        <v>1.5</v>
-      </c>
-      <c r="AD158">
-        <v>3.8</v>
-      </c>
-      <c r="AE158">
-        <v>8</v>
-      </c>
-      <c r="AF158">
-        <v>0</v>
-      </c>
-      <c r="AG158">
-        <v>0</v>
-      </c>
-      <c r="AH158">
-        <v>0</v>
-      </c>
-      <c r="AI158">
-        <v>0</v>
-      </c>
-      <c r="AJ158">
-        <v>2.22</v>
-      </c>
-      <c r="AK158">
-        <v>1.6</v>
-      </c>
-      <c r="AL158">
-        <v>0</v>
-      </c>
-      <c r="AM158">
-        <v>0</v>
-      </c>
-      <c r="AN158">
-        <v>0</v>
-      </c>
-      <c r="AO158">
-        <v>0</v>
-      </c>
-      <c r="AP158">
-        <v>0</v>
-      </c>
-      <c r="AQ158">
-        <v>2.2</v>
-      </c>
-      <c r="AR158">
-        <v>0.8</v>
-      </c>
-      <c r="AS158">
-        <v>2.43</v>
-      </c>
-      <c r="AT158">
-        <v>0.57</v>
-      </c>
-      <c r="AU158">
-        <v>1.59</v>
-      </c>
-      <c r="AV158">
-        <v>1.55</v>
-      </c>
-      <c r="AW158">
-        <v>3.14</v>
-      </c>
-      <c r="AX158">
-        <v>0</v>
-      </c>
-      <c r="AY158">
-        <v>0</v>
-      </c>
-      <c r="AZ158">
-        <v>0</v>
-      </c>
-      <c r="BA158">
-        <v>0</v>
-      </c>
-      <c r="BB158">
-        <v>0</v>
-      </c>
-      <c r="BC158">
-        <v>0</v>
-      </c>
-      <c r="BD158">
-        <v>0</v>
-      </c>
-      <c r="BE158">
-        <v>0</v>
-      </c>
-      <c r="BF158">
-        <v>9</v>
-      </c>
-      <c r="BG158">
-        <v>3</v>
-      </c>
-      <c r="BH158">
-        <v>8</v>
-      </c>
       <c r="BI158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ158">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BK158">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:63">
@@ -31455,7 +31455,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>4470681</v>
+        <v>4470686</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -31470,43 +31470,43 @@
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H159" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>2</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O159" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R159">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S159">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T159">
         <v>0</v>
@@ -31536,13 +31536,13 @@
         <v>0</v>
       </c>
       <c r="AC159">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="AD159">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="AE159">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF159">
         <v>0</v>
@@ -31557,10 +31557,10 @@
         <v>0</v>
       </c>
       <c r="AJ159">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="AK159">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="AL159">
         <v>0</v>
@@ -31578,25 +31578,25 @@
         <v>0</v>
       </c>
       <c r="AQ159">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR159">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AS159">
-        <v>1.57</v>
+        <v>2.43</v>
       </c>
       <c r="AT159">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU159">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="AV159">
-        <v>0.89</v>
+        <v>1.55</v>
       </c>
       <c r="AW159">
-        <v>2.69</v>
+        <v>3.14</v>
       </c>
       <c r="AX159">
         <v>0</v>
@@ -31623,22 +31623,22 @@
         <v>0</v>
       </c>
       <c r="BF159">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BG159">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH159">
+        <v>8</v>
+      </c>
+      <c r="BI159">
+        <v>1</v>
+      </c>
+      <c r="BJ159">
+        <v>17</v>
+      </c>
+      <c r="BK159">
         <v>4</v>
-      </c>
-      <c r="BI159">
-        <v>5</v>
-      </c>
-      <c r="BJ159">
-        <v>6</v>
-      </c>
-      <c r="BK159">
-        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:63">
@@ -31646,7 +31646,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>4470684</v>
+        <v>4470666</v>
       </c>
       <c r="C160" t="s">
         <v>63</v>
@@ -31661,43 +31661,43 @@
         <v>12</v>
       </c>
       <c r="G160" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H160" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L160">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N160">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O160" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R160">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S160">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T160">
         <v>0</v>
@@ -31727,13 +31727,13 @@
         <v>0</v>
       </c>
       <c r="AC160">
-        <v>3.7</v>
+        <v>1.53</v>
       </c>
       <c r="AD160">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="AE160">
-        <v>2.05</v>
+        <v>5.9</v>
       </c>
       <c r="AF160">
         <v>0</v>
@@ -31748,10 +31748,10 @@
         <v>0</v>
       </c>
       <c r="AJ160">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="AK160">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="AL160">
         <v>0</v>
@@ -31769,25 +31769,25 @@
         <v>0</v>
       </c>
       <c r="AQ160">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AR160">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AT160">
-        <v>2.71</v>
+        <v>1.71</v>
       </c>
       <c r="AU160">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="AV160">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AW160">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="AX160">
         <v>0</v>
@@ -31814,22 +31814,22 @@
         <v>0</v>
       </c>
       <c r="BF160">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG160">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH160">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI160">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ160">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK160">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:63">
@@ -31837,7 +31837,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>4470682</v>
+        <v>4470668</v>
       </c>
       <c r="C161" t="s">
         <v>63</v>
@@ -31852,10 +31852,10 @@
         <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H161" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -31867,160 +31867,160 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O161" t="s">
+        <v>191</v>
+      </c>
+      <c r="P161" t="s">
         <v>100</v>
       </c>
-      <c r="P161" t="s">
-        <v>278</v>
-      </c>
       <c r="Q161">
+        <v>4</v>
+      </c>
+      <c r="R161">
+        <v>3</v>
+      </c>
+      <c r="S161">
+        <v>7</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <v>1.1</v>
+      </c>
+      <c r="AD161">
+        <v>8.25</v>
+      </c>
+      <c r="AE161">
+        <v>17.5</v>
+      </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
+      <c r="AG161">
+        <v>0</v>
+      </c>
+      <c r="AH161">
+        <v>0</v>
+      </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>1.61</v>
+      </c>
+      <c r="AK161">
+        <v>2.2</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>0</v>
+      </c>
+      <c r="AO161">
+        <v>0</v>
+      </c>
+      <c r="AP161">
+        <v>0</v>
+      </c>
+      <c r="AQ161">
+        <v>2</v>
+      </c>
+      <c r="AR161">
+        <v>0.8</v>
+      </c>
+      <c r="AS161">
+        <v>2.29</v>
+      </c>
+      <c r="AT161">
+        <v>1</v>
+      </c>
+      <c r="AU161">
+        <v>1.12</v>
+      </c>
+      <c r="AV161">
+        <v>0.97</v>
+      </c>
+      <c r="AW161">
+        <v>2.09</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="AZ161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
         <v>6</v>
       </c>
-      <c r="R161">
-        <v>5</v>
-      </c>
-      <c r="S161">
-        <v>11</v>
-      </c>
-      <c r="T161">
-        <v>0</v>
-      </c>
-      <c r="U161">
-        <v>0</v>
-      </c>
-      <c r="V161">
-        <v>0</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <v>0</v>
-      </c>
-      <c r="Y161">
-        <v>0</v>
-      </c>
-      <c r="Z161">
-        <v>0</v>
-      </c>
-      <c r="AA161">
-        <v>0</v>
-      </c>
-      <c r="AB161">
-        <v>0</v>
-      </c>
-      <c r="AC161">
-        <v>3.95</v>
-      </c>
-      <c r="AD161">
-        <v>3.25</v>
-      </c>
-      <c r="AE161">
-        <v>1.9</v>
-      </c>
-      <c r="AF161">
-        <v>0</v>
-      </c>
-      <c r="AG161">
-        <v>0</v>
-      </c>
-      <c r="AH161">
-        <v>1.49</v>
-      </c>
-      <c r="AI161">
-        <v>2.43</v>
-      </c>
-      <c r="AJ161">
-        <v>2.08</v>
-      </c>
-      <c r="AK161">
-        <v>1.65</v>
-      </c>
-      <c r="AL161">
-        <v>0</v>
-      </c>
-      <c r="AM161">
-        <v>0</v>
-      </c>
-      <c r="AN161">
-        <v>0</v>
-      </c>
-      <c r="AO161">
-        <v>0</v>
-      </c>
-      <c r="AP161">
-        <v>0</v>
-      </c>
-      <c r="AQ161">
-        <v>0.2</v>
-      </c>
-      <c r="AR161">
-        <v>1.2</v>
-      </c>
-      <c r="AS161">
-        <v>0.57</v>
-      </c>
-      <c r="AT161">
-        <v>1.43</v>
-      </c>
-      <c r="AU161">
-        <v>1.16</v>
-      </c>
-      <c r="AV161">
-        <v>0.57</v>
-      </c>
-      <c r="AW161">
-        <v>1.73</v>
-      </c>
-      <c r="AX161">
-        <v>0</v>
-      </c>
-      <c r="AY161">
-        <v>0</v>
-      </c>
-      <c r="AZ161">
-        <v>0</v>
-      </c>
-      <c r="BA161">
-        <v>0</v>
-      </c>
-      <c r="BB161">
-        <v>0</v>
-      </c>
-      <c r="BC161">
-        <v>0</v>
-      </c>
-      <c r="BD161">
-        <v>0</v>
-      </c>
-      <c r="BE161">
-        <v>0</v>
-      </c>
-      <c r="BF161">
+      <c r="BG161">
         <v>4</v>
       </c>
-      <c r="BG161">
-        <v>8</v>
-      </c>
       <c r="BH161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ161">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK161">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:63">
@@ -32028,7 +32028,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>4470690</v>
+        <v>4470673</v>
       </c>
       <c r="C162" t="s">
         <v>63</v>
@@ -32043,43 +32043,43 @@
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H162" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162">
         <v>3</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N162">
         <v>4</v>
       </c>
       <c r="O162" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="Q162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T162">
         <v>0</v>
@@ -32109,67 +32109,67 @@
         <v>0</v>
       </c>
       <c r="AC162">
+        <v>3.8</v>
+      </c>
+      <c r="AD162">
+        <v>2.85</v>
+      </c>
+      <c r="AE162">
+        <v>2.1</v>
+      </c>
+      <c r="AF162">
+        <v>0</v>
+      </c>
+      <c r="AG162">
+        <v>0</v>
+      </c>
+      <c r="AH162">
+        <v>1.51</v>
+      </c>
+      <c r="AI162">
+        <v>2.4</v>
+      </c>
+      <c r="AJ162">
+        <v>2.55</v>
+      </c>
+      <c r="AK162">
+        <v>1.45</v>
+      </c>
+      <c r="AL162">
+        <v>0</v>
+      </c>
+      <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>0</v>
+      </c>
+      <c r="AO162">
+        <v>0</v>
+      </c>
+      <c r="AP162">
+        <v>0</v>
+      </c>
+      <c r="AQ162">
+        <v>1</v>
+      </c>
+      <c r="AR162">
         <v>1.2</v>
       </c>
-      <c r="AD162">
-        <v>5.85</v>
-      </c>
-      <c r="AE162">
-        <v>12</v>
-      </c>
-      <c r="AF162">
-        <v>0</v>
-      </c>
-      <c r="AG162">
-        <v>0</v>
-      </c>
-      <c r="AH162">
-        <v>0</v>
-      </c>
-      <c r="AI162">
-        <v>0</v>
-      </c>
-      <c r="AJ162">
-        <v>1.74</v>
-      </c>
-      <c r="AK162">
-        <v>2</v>
-      </c>
-      <c r="AL162">
-        <v>0</v>
-      </c>
-      <c r="AM162">
-        <v>0</v>
-      </c>
-      <c r="AN162">
-        <v>0</v>
-      </c>
-      <c r="AO162">
-        <v>0</v>
-      </c>
-      <c r="AP162">
-        <v>0</v>
-      </c>
-      <c r="AQ162">
-        <v>1.4</v>
-      </c>
-      <c r="AR162">
-        <v>0</v>
-      </c>
       <c r="AS162">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AT162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU162">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AV162">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AW162">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="AX162">
         <v>0</v>
@@ -32196,19 +32196,19 @@
         <v>0</v>
       </c>
       <c r="BF162">
+        <v>2</v>
+      </c>
+      <c r="BG162">
         <v>4</v>
       </c>
-      <c r="BG162">
-        <v>5</v>
-      </c>
       <c r="BH162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI162">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ162">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BK162">
         <v>11</v>
@@ -32219,7 +32219,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>4470673</v>
+        <v>4470677</v>
       </c>
       <c r="C163" t="s">
         <v>63</v>
@@ -32234,175 +32234,175 @@
         <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H163" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L163">
         <v>2</v>
       </c>
       <c r="M163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>193</v>
+      </c>
+      <c r="P163" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q163">
+        <v>5</v>
+      </c>
+      <c r="R163">
+        <v>7</v>
+      </c>
+      <c r="S163">
+        <v>12</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <v>0</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+      <c r="AB163">
+        <v>0</v>
+      </c>
+      <c r="AC163">
+        <v>1.72</v>
+      </c>
+      <c r="AD163">
+        <v>3.45</v>
+      </c>
+      <c r="AE163">
+        <v>4.6</v>
+      </c>
+      <c r="AF163">
+        <v>0</v>
+      </c>
+      <c r="AG163">
+        <v>0</v>
+      </c>
+      <c r="AH163">
+        <v>0</v>
+      </c>
+      <c r="AI163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
+        <v>2.33</v>
+      </c>
+      <c r="AK163">
+        <v>1.55</v>
+      </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
+      <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>0</v>
+      </c>
+      <c r="AO163">
+        <v>0</v>
+      </c>
+      <c r="AP163">
+        <v>0</v>
+      </c>
+      <c r="AQ163">
+        <v>0.8</v>
+      </c>
+      <c r="AR163">
+        <v>1.4</v>
+      </c>
+      <c r="AS163">
+        <v>1</v>
+      </c>
+      <c r="AT163">
+        <v>1</v>
+      </c>
+      <c r="AU163">
+        <v>1.04</v>
+      </c>
+      <c r="AV163">
+        <v>0.75</v>
+      </c>
+      <c r="AW163">
+        <v>1.79</v>
+      </c>
+      <c r="AX163">
+        <v>0</v>
+      </c>
+      <c r="AY163">
+        <v>0</v>
+      </c>
+      <c r="AZ163">
+        <v>0</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>0</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
         <v>4</v>
-      </c>
-      <c r="O163" t="s">
-        <v>191</v>
-      </c>
-      <c r="P163" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q163">
-        <v>1</v>
-      </c>
-      <c r="R163">
-        <v>1</v>
-      </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>0</v>
-      </c>
-      <c r="U163">
-        <v>0</v>
-      </c>
-      <c r="V163">
-        <v>0</v>
-      </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-      <c r="X163">
-        <v>0</v>
-      </c>
-      <c r="Y163">
-        <v>0</v>
-      </c>
-      <c r="Z163">
-        <v>0</v>
-      </c>
-      <c r="AA163">
-        <v>0</v>
-      </c>
-      <c r="AB163">
-        <v>0</v>
-      </c>
-      <c r="AC163">
-        <v>3.8</v>
-      </c>
-      <c r="AD163">
-        <v>2.85</v>
-      </c>
-      <c r="AE163">
-        <v>2.1</v>
-      </c>
-      <c r="AF163">
-        <v>0</v>
-      </c>
-      <c r="AG163">
-        <v>0</v>
-      </c>
-      <c r="AH163">
-        <v>1.51</v>
-      </c>
-      <c r="AI163">
-        <v>2.4</v>
-      </c>
-      <c r="AJ163">
-        <v>2.55</v>
-      </c>
-      <c r="AK163">
-        <v>1.45</v>
-      </c>
-      <c r="AL163">
-        <v>0</v>
-      </c>
-      <c r="AM163">
-        <v>0</v>
-      </c>
-      <c r="AN163">
-        <v>0</v>
-      </c>
-      <c r="AO163">
-        <v>0</v>
-      </c>
-      <c r="AP163">
-        <v>0</v>
-      </c>
-      <c r="AQ163">
-        <v>1</v>
-      </c>
-      <c r="AR163">
-        <v>1.2</v>
-      </c>
-      <c r="AS163">
-        <v>1</v>
-      </c>
-      <c r="AT163">
-        <v>1</v>
-      </c>
-      <c r="AU163">
-        <v>1.5</v>
-      </c>
-      <c r="AV163">
-        <v>1.42</v>
-      </c>
-      <c r="AW163">
-        <v>2.92</v>
-      </c>
-      <c r="AX163">
-        <v>0</v>
-      </c>
-      <c r="AY163">
-        <v>0</v>
-      </c>
-      <c r="AZ163">
-        <v>0</v>
-      </c>
-      <c r="BA163">
-        <v>0</v>
-      </c>
-      <c r="BB163">
-        <v>0</v>
-      </c>
-      <c r="BC163">
-        <v>0</v>
-      </c>
-      <c r="BD163">
-        <v>0</v>
-      </c>
-      <c r="BE163">
-        <v>0</v>
-      </c>
-      <c r="BF163">
-        <v>2</v>
       </c>
       <c r="BG163">
         <v>4</v>
       </c>
       <c r="BH163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
         <v>7</v>
       </c>
-      <c r="BJ163">
-        <v>3</v>
-      </c>
       <c r="BK163">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:63">
@@ -32410,7 +32410,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>4470668</v>
+        <v>4470682</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -32425,10 +32425,10 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H164" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -32440,160 +32440,160 @@
         <v>0</v>
       </c>
       <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>3</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>100</v>
+      </c>
+      <c r="P164" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q164">
+        <v>6</v>
+      </c>
+      <c r="R164">
+        <v>5</v>
+      </c>
+      <c r="S164">
+        <v>11</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+      <c r="AC164">
+        <v>3.95</v>
+      </c>
+      <c r="AD164">
+        <v>3.25</v>
+      </c>
+      <c r="AE164">
+        <v>1.9</v>
+      </c>
+      <c r="AF164">
+        <v>0</v>
+      </c>
+      <c r="AG164">
+        <v>0</v>
+      </c>
+      <c r="AH164">
+        <v>1.49</v>
+      </c>
+      <c r="AI164">
+        <v>2.43</v>
+      </c>
+      <c r="AJ164">
+        <v>2.08</v>
+      </c>
+      <c r="AK164">
+        <v>1.65</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>0</v>
+      </c>
+      <c r="AO164">
+        <v>0</v>
+      </c>
+      <c r="AP164">
+        <v>0</v>
+      </c>
+      <c r="AQ164">
+        <v>0.2</v>
+      </c>
+      <c r="AR164">
+        <v>1.2</v>
+      </c>
+      <c r="AS164">
+        <v>0.57</v>
+      </c>
+      <c r="AT164">
+        <v>1.43</v>
+      </c>
+      <c r="AU164">
+        <v>1.16</v>
+      </c>
+      <c r="AV164">
+        <v>0.57</v>
+      </c>
+      <c r="AW164">
+        <v>1.73</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>0</v>
+      </c>
+      <c r="AZ164">
+        <v>0</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>0</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
         <v>4</v>
       </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-      <c r="N164">
-        <v>4</v>
-      </c>
-      <c r="O164" t="s">
-        <v>192</v>
-      </c>
-      <c r="P164" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q164">
-        <v>4</v>
-      </c>
-      <c r="R164">
-        <v>3</v>
-      </c>
-      <c r="S164">
+      <c r="BG164">
+        <v>8</v>
+      </c>
+      <c r="BH164">
+        <v>3</v>
+      </c>
+      <c r="BI164">
+        <v>3</v>
+      </c>
+      <c r="BJ164">
         <v>7</v>
       </c>
-      <c r="T164">
-        <v>0</v>
-      </c>
-      <c r="U164">
-        <v>0</v>
-      </c>
-      <c r="V164">
-        <v>0</v>
-      </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-      <c r="X164">
-        <v>0</v>
-      </c>
-      <c r="Y164">
-        <v>0</v>
-      </c>
-      <c r="Z164">
-        <v>0</v>
-      </c>
-      <c r="AA164">
-        <v>0</v>
-      </c>
-      <c r="AB164">
-        <v>0</v>
-      </c>
-      <c r="AC164">
-        <v>1.1</v>
-      </c>
-      <c r="AD164">
-        <v>8.25</v>
-      </c>
-      <c r="AE164">
-        <v>17.5</v>
-      </c>
-      <c r="AF164">
-        <v>0</v>
-      </c>
-      <c r="AG164">
-        <v>0</v>
-      </c>
-      <c r="AH164">
-        <v>0</v>
-      </c>
-      <c r="AI164">
-        <v>0</v>
-      </c>
-      <c r="AJ164">
-        <v>1.61</v>
-      </c>
-      <c r="AK164">
-        <v>2.2</v>
-      </c>
-      <c r="AL164">
-        <v>0</v>
-      </c>
-      <c r="AM164">
-        <v>0</v>
-      </c>
-      <c r="AN164">
-        <v>0</v>
-      </c>
-      <c r="AO164">
-        <v>0</v>
-      </c>
-      <c r="AP164">
-        <v>0</v>
-      </c>
-      <c r="AQ164">
-        <v>2</v>
-      </c>
-      <c r="AR164">
-        <v>0.8</v>
-      </c>
-      <c r="AS164">
-        <v>2.29</v>
-      </c>
-      <c r="AT164">
-        <v>1</v>
-      </c>
-      <c r="AU164">
-        <v>1.12</v>
-      </c>
-      <c r="AV164">
-        <v>0.97</v>
-      </c>
-      <c r="AW164">
-        <v>2.09</v>
-      </c>
-      <c r="AX164">
-        <v>0</v>
-      </c>
-      <c r="AY164">
-        <v>0</v>
-      </c>
-      <c r="AZ164">
-        <v>0</v>
-      </c>
-      <c r="BA164">
-        <v>0</v>
-      </c>
-      <c r="BB164">
-        <v>0</v>
-      </c>
-      <c r="BC164">
-        <v>0</v>
-      </c>
-      <c r="BD164">
-        <v>0</v>
-      </c>
-      <c r="BE164">
-        <v>0</v>
-      </c>
-      <c r="BF164">
-        <v>6</v>
-      </c>
-      <c r="BG164">
-        <v>4</v>
-      </c>
-      <c r="BH164">
-        <v>4</v>
-      </c>
-      <c r="BI164">
-        <v>2</v>
-      </c>
-      <c r="BJ164">
-        <v>10</v>
-      </c>
       <c r="BK164">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:63">
@@ -32601,7 +32601,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>4470666</v>
+        <v>4470684</v>
       </c>
       <c r="C165" t="s">
         <v>63</v>
@@ -32616,43 +32616,43 @@
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H165" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N165">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O165" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="P165" t="s">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="Q165">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R165">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="S165">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="T165">
         <v>0</v>
@@ -32682,13 +32682,13 @@
         <v>0</v>
       </c>
       <c r="AC165">
-        <v>1.53</v>
+        <v>3.7</v>
       </c>
       <c r="AD165">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="AE165">
-        <v>5.9</v>
+        <v>2.05</v>
       </c>
       <c r="AF165">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>0</v>
       </c>
       <c r="AJ165">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="AK165">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="AL165">
         <v>0</v>
@@ -32724,25 +32724,25 @@
         <v>0</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="AR165">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AS165">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AT165">
-        <v>1.71</v>
+        <v>2.71</v>
       </c>
       <c r="AU165">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="AV165">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AW165">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="AX165">
         <v>0</v>
@@ -32769,22 +32769,22 @@
         <v>0</v>
       </c>
       <c r="BF165">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH165">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BI165">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BJ165">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BK165">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:63">
@@ -32792,7 +32792,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>4470677</v>
+        <v>4470690</v>
       </c>
       <c r="C166" t="s">
         <v>63</v>
@@ -32807,80 +32807,80 @@
         <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H166" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
       <c r="K166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O166" t="s">
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="Q166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R166">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S166">
+        <v>6</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
+      <c r="AC166">
+        <v>1.2</v>
+      </c>
+      <c r="AD166">
+        <v>5.85</v>
+      </c>
+      <c r="AE166">
         <v>12</v>
       </c>
-      <c r="T166">
-        <v>0</v>
-      </c>
-      <c r="U166">
-        <v>0</v>
-      </c>
-      <c r="V166">
-        <v>0</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
-      <c r="Z166">
-        <v>0</v>
-      </c>
-      <c r="AA166">
-        <v>0</v>
-      </c>
-      <c r="AB166">
-        <v>0</v>
-      </c>
-      <c r="AC166">
-        <v>1.72</v>
-      </c>
-      <c r="AD166">
-        <v>3.45</v>
-      </c>
-      <c r="AE166">
-        <v>4.6</v>
-      </c>
       <c r="AF166">
         <v>0</v>
       </c>
@@ -32894,10 +32894,10 @@
         <v>0</v>
       </c>
       <c r="AJ166">
-        <v>2.33</v>
+        <v>1.74</v>
       </c>
       <c r="AK166">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AL166">
         <v>0</v>
@@ -32915,25 +32915,25 @@
         <v>0</v>
       </c>
       <c r="AQ166">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR166">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AS166">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU166">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="AV166">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="AW166">
-        <v>1.79</v>
+        <v>2.68</v>
       </c>
       <c r="AX166">
         <v>0</v>
@@ -32963,19 +32963,19 @@
         <v>4</v>
       </c>
       <c r="BG166">
+        <v>5</v>
+      </c>
+      <c r="BH166">
         <v>4</v>
       </c>
-      <c r="BH166">
-        <v>3</v>
-      </c>
       <c r="BI166">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ166">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK166">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:63">
@@ -34129,7 +34129,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>4470718</v>
+        <v>4470694</v>
       </c>
       <c r="C173" t="s">
         <v>63</v>
@@ -34144,19 +34144,19 @@
         <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H173" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L173">
         <v>0</v>
@@ -34174,145 +34174,145 @@
         <v>281</v>
       </c>
       <c r="Q173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R173">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S173">
+        <v>10</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>7.84</v>
+      </c>
+      <c r="AD173">
+        <v>3.75</v>
+      </c>
+      <c r="AE173">
+        <v>1.35</v>
+      </c>
+      <c r="AF173">
+        <v>0</v>
+      </c>
+      <c r="AG173">
+        <v>0</v>
+      </c>
+      <c r="AH173">
+        <v>0</v>
+      </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>2.03</v>
+      </c>
+      <c r="AK173">
+        <v>1.62</v>
+      </c>
+      <c r="AL173">
+        <v>0</v>
+      </c>
+      <c r="AM173">
+        <v>0</v>
+      </c>
+      <c r="AN173">
+        <v>0</v>
+      </c>
+      <c r="AO173">
+        <v>0</v>
+      </c>
+      <c r="AP173">
+        <v>0</v>
+      </c>
+      <c r="AQ173">
+        <v>0.5</v>
+      </c>
+      <c r="AR173">
+        <v>1.8</v>
+      </c>
+      <c r="AS173">
+        <v>0.43</v>
+      </c>
+      <c r="AT173">
+        <v>1.71</v>
+      </c>
+      <c r="AU173">
+        <v>1</v>
+      </c>
+      <c r="AV173">
+        <v>1.44</v>
+      </c>
+      <c r="AW173">
+        <v>2.44</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
         <v>6</v>
       </c>
-      <c r="T173">
-        <v>0</v>
-      </c>
-      <c r="U173">
-        <v>0</v>
-      </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
-      <c r="AA173">
-        <v>0</v>
-      </c>
-      <c r="AB173">
-        <v>0</v>
-      </c>
-      <c r="AC173">
-        <v>3.83</v>
-      </c>
-      <c r="AD173">
-        <v>2.95</v>
-      </c>
-      <c r="AE173">
-        <v>1.87</v>
-      </c>
-      <c r="AF173">
-        <v>0</v>
-      </c>
-      <c r="AG173">
-        <v>0</v>
-      </c>
-      <c r="AH173">
-        <v>1.5</v>
-      </c>
-      <c r="AI173">
-        <v>2.45</v>
-      </c>
-      <c r="AJ173">
-        <v>2.3</v>
-      </c>
-      <c r="AK173">
-        <v>1.48</v>
-      </c>
-      <c r="AL173">
-        <v>0</v>
-      </c>
-      <c r="AM173">
-        <v>0</v>
-      </c>
-      <c r="AN173">
-        <v>0</v>
-      </c>
-      <c r="AO173">
-        <v>0</v>
-      </c>
-      <c r="AP173">
-        <v>0</v>
-      </c>
-      <c r="AQ173">
-        <v>1.2</v>
-      </c>
-      <c r="AR173">
-        <v>2.6</v>
-      </c>
-      <c r="AS173">
-        <v>0.86</v>
-      </c>
-      <c r="AT173">
-        <v>2.71</v>
-      </c>
-      <c r="AU173">
-        <v>1.1</v>
-      </c>
-      <c r="AV173">
-        <v>1.35</v>
-      </c>
-      <c r="AW173">
-        <v>2.45</v>
-      </c>
-      <c r="AX173">
-        <v>0</v>
-      </c>
-      <c r="AY173">
-        <v>0</v>
-      </c>
-      <c r="AZ173">
-        <v>0</v>
-      </c>
-      <c r="BA173">
-        <v>0</v>
-      </c>
-      <c r="BB173">
-        <v>0</v>
-      </c>
-      <c r="BC173">
-        <v>0</v>
-      </c>
-      <c r="BD173">
-        <v>0</v>
-      </c>
-      <c r="BE173">
-        <v>0</v>
-      </c>
-      <c r="BF173">
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
         <v>7</v>
       </c>
-      <c r="BG173">
-        <v>2</v>
-      </c>
-      <c r="BH173">
-        <v>4</v>
-      </c>
-      <c r="BI173">
-        <v>4</v>
-      </c>
       <c r="BJ173">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BK173">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:63">
@@ -34320,7 +34320,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>4470716</v>
+        <v>4470718</v>
       </c>
       <c r="C174" t="s">
         <v>63</v>
@@ -34335,40 +34335,40 @@
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H174" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L174">
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O174" t="s">
         <v>100</v>
       </c>
       <c r="P174" t="s">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="Q174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S174">
         <v>6</v>
@@ -34401,13 +34401,13 @@
         <v>0</v>
       </c>
       <c r="AC174">
-        <v>2.15</v>
+        <v>3.83</v>
       </c>
       <c r="AD174">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="AE174">
-        <v>3.13</v>
+        <v>1.87</v>
       </c>
       <c r="AF174">
         <v>0</v>
@@ -34416,16 +34416,16 @@
         <v>0</v>
       </c>
       <c r="AH174">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI174">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AJ174">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="AK174">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AL174">
         <v>0</v>
@@ -34443,25 +34443,25 @@
         <v>0</v>
       </c>
       <c r="AQ174">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AR174">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="AS174">
-        <v>2.43</v>
+        <v>0.86</v>
       </c>
       <c r="AT174">
-        <v>1.29</v>
+        <v>2.71</v>
       </c>
       <c r="AU174">
+        <v>1.1</v>
+      </c>
+      <c r="AV174">
         <v>1.35</v>
       </c>
-      <c r="AV174">
-        <v>1.16</v>
-      </c>
       <c r="AW174">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="AX174">
         <v>0</v>
@@ -34488,22 +34488,22 @@
         <v>0</v>
       </c>
       <c r="BF174">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ174">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BK174">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:63">
@@ -34511,7 +34511,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>4470710</v>
+        <v>4470716</v>
       </c>
       <c r="C175" t="s">
         <v>63</v>
@@ -34526,43 +34526,43 @@
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H175" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175">
         <v>0</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O175" t="s">
         <v>100</v>
       </c>
       <c r="P175" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S175">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T175">
         <v>0</v>
@@ -34592,13 +34592,13 @@
         <v>0</v>
       </c>
       <c r="AC175">
-        <v>4.99</v>
+        <v>2.15</v>
       </c>
       <c r="AD175">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AE175">
-        <v>1.63</v>
+        <v>3.13</v>
       </c>
       <c r="AF175">
         <v>0</v>
@@ -34613,10 +34613,10 @@
         <v>0</v>
       </c>
       <c r="AJ175">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK175">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AL175">
         <v>0</v>
@@ -34634,25 +34634,25 @@
         <v>0</v>
       </c>
       <c r="AQ175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR175">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AS175">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AT175">
-        <v>1.86</v>
+        <v>1.29</v>
       </c>
       <c r="AU175">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AV175">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AW175">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="AX175">
         <v>0</v>
@@ -34679,22 +34679,22 @@
         <v>0</v>
       </c>
       <c r="BF175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ175">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BK175">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:63">
@@ -34893,7 +34893,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>4470698</v>
+        <v>4470692</v>
       </c>
       <c r="C177" t="s">
         <v>63</v>
@@ -34908,10 +34908,10 @@
         <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H177" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -34932,19 +34932,19 @@
         <v>1</v>
       </c>
       <c r="O177" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="P177" t="s">
         <v>100</v>
       </c>
       <c r="Q177">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S177">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T177">
         <v>0</v>
@@ -34974,13 +34974,13 @@
         <v>0</v>
       </c>
       <c r="AC177">
-        <v>2.53</v>
+        <v>1.62</v>
       </c>
       <c r="AD177">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AE177">
-        <v>2.53</v>
+        <v>5</v>
       </c>
       <c r="AF177">
         <v>0</v>
@@ -34995,10 +34995,10 @@
         <v>0</v>
       </c>
       <c r="AJ177">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AK177">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AL177">
         <v>0</v>
@@ -35016,25 +35016,25 @@
         <v>0</v>
       </c>
       <c r="AQ177">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AR177">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AS177">
-        <v>2.43</v>
+        <v>2.57</v>
       </c>
       <c r="AT177">
+        <v>0.86</v>
+      </c>
+      <c r="AU177">
         <v>1.71</v>
       </c>
-      <c r="AU177">
-        <v>1.79</v>
-      </c>
       <c r="AV177">
-        <v>1.43</v>
+        <v>0.84</v>
       </c>
       <c r="AW177">
-        <v>3.22</v>
+        <v>2.55</v>
       </c>
       <c r="AX177">
         <v>0</v>
@@ -35061,22 +35061,22 @@
         <v>0</v>
       </c>
       <c r="BF177">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG177">
         <v>4</v>
       </c>
       <c r="BH177">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ177">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK177">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:63">
@@ -35084,7 +35084,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>4470696</v>
+        <v>4470710</v>
       </c>
       <c r="C178" t="s">
         <v>63</v>
@@ -35099,43 +35099,43 @@
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H178" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L178">
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O178" t="s">
         <v>100</v>
       </c>
       <c r="P178" t="s">
-        <v>100</v>
+        <v>283</v>
       </c>
       <c r="Q178">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="S178">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="T178">
         <v>0</v>
@@ -35165,13 +35165,13 @@
         <v>0</v>
       </c>
       <c r="AC178">
-        <v>6.5</v>
+        <v>4.99</v>
       </c>
       <c r="AD178">
-        <v>4.33</v>
+        <v>2.96</v>
       </c>
       <c r="AE178">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AF178">
         <v>0</v>
@@ -35207,25 +35207,25 @@
         <v>0</v>
       </c>
       <c r="AQ178">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AR178">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AS178">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AT178">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AU178">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AV178">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AW178">
-        <v>2.53</v>
+        <v>2.48</v>
       </c>
       <c r="AX178">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="BF178">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG178">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BH178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BI178">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BJ178">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BK178">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:63">
@@ -35275,7 +35275,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>4470694</v>
+        <v>4470704</v>
       </c>
       <c r="C179" t="s">
         <v>63</v>
@@ -35290,10 +35290,10 @@
         <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H179" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -35308,157 +35308,157 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O179" t="s">
         <v>100</v>
       </c>
       <c r="P179" t="s">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="Q179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R179">
+        <v>3</v>
+      </c>
+      <c r="S179">
+        <v>5</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>2.23</v>
+      </c>
+      <c r="AD179">
+        <v>1.4</v>
+      </c>
+      <c r="AE179">
+        <v>2.48</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>0</v>
+      </c>
+      <c r="AH179">
+        <v>0</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>2.45</v>
+      </c>
+      <c r="AK179">
+        <v>1.5</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>0</v>
+      </c>
+      <c r="AO179">
+        <v>0</v>
+      </c>
+      <c r="AP179">
+        <v>0</v>
+      </c>
+      <c r="AQ179">
+        <v>0.8</v>
+      </c>
+      <c r="AR179">
+        <v>0.8</v>
+      </c>
+      <c r="AS179">
+        <v>1.14</v>
+      </c>
+      <c r="AT179">
+        <v>0.86</v>
+      </c>
+      <c r="AU179">
+        <v>1.12</v>
+      </c>
+      <c r="AV179">
+        <v>0.98</v>
+      </c>
+      <c r="AW179">
+        <v>2.1</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
         <v>7</v>
       </c>
-      <c r="S179">
-        <v>10</v>
-      </c>
-      <c r="T179">
-        <v>0</v>
-      </c>
-      <c r="U179">
-        <v>0</v>
-      </c>
-      <c r="V179">
-        <v>0</v>
-      </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-      <c r="AA179">
-        <v>0</v>
-      </c>
-      <c r="AB179">
-        <v>0</v>
-      </c>
-      <c r="AC179">
-        <v>7.84</v>
-      </c>
-      <c r="AD179">
-        <v>3.75</v>
-      </c>
-      <c r="AE179">
-        <v>1.35</v>
-      </c>
-      <c r="AF179">
-        <v>0</v>
-      </c>
-      <c r="AG179">
-        <v>0</v>
-      </c>
-      <c r="AH179">
-        <v>0</v>
-      </c>
-      <c r="AI179">
-        <v>0</v>
-      </c>
-      <c r="AJ179">
-        <v>2.03</v>
-      </c>
-      <c r="AK179">
-        <v>1.62</v>
-      </c>
-      <c r="AL179">
-        <v>0</v>
-      </c>
-      <c r="AM179">
-        <v>0</v>
-      </c>
-      <c r="AN179">
-        <v>0</v>
-      </c>
-      <c r="AO179">
-        <v>0</v>
-      </c>
-      <c r="AP179">
-        <v>0</v>
-      </c>
-      <c r="AQ179">
-        <v>0.5</v>
-      </c>
-      <c r="AR179">
-        <v>1.8</v>
-      </c>
-      <c r="AS179">
-        <v>0.43</v>
-      </c>
-      <c r="AT179">
-        <v>1.71</v>
-      </c>
-      <c r="AU179">
-        <v>1</v>
-      </c>
-      <c r="AV179">
-        <v>1.44</v>
-      </c>
-      <c r="AW179">
-        <v>2.44</v>
-      </c>
-      <c r="AX179">
-        <v>0</v>
-      </c>
-      <c r="AY179">
-        <v>0</v>
-      </c>
-      <c r="AZ179">
-        <v>0</v>
-      </c>
-      <c r="BA179">
-        <v>0</v>
-      </c>
-      <c r="BB179">
-        <v>0</v>
-      </c>
-      <c r="BC179">
-        <v>0</v>
-      </c>
-      <c r="BD179">
-        <v>0</v>
-      </c>
-      <c r="BE179">
-        <v>0</v>
-      </c>
-      <c r="BF179">
-        <v>0</v>
-      </c>
       <c r="BG179">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI179">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ179">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BK179">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:63">
@@ -35466,7 +35466,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>4470692</v>
+        <v>4470698</v>
       </c>
       <c r="C180" t="s">
         <v>63</v>
@@ -35481,10 +35481,10 @@
         <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H180" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -35505,19 +35505,19 @@
         <v>1</v>
       </c>
       <c r="O180" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="P180" t="s">
         <v>100</v>
       </c>
       <c r="Q180">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S180">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T180">
         <v>0</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="AC180">
-        <v>1.62</v>
+        <v>2.53</v>
       </c>
       <c r="AD180">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AE180">
-        <v>5</v>
+        <v>2.53</v>
       </c>
       <c r="AF180">
         <v>0</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="AJ180">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AK180">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AL180">
         <v>0</v>
@@ -35589,25 +35589,25 @@
         <v>0</v>
       </c>
       <c r="AQ180">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AR180">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AS180">
-        <v>2.57</v>
+        <v>2.43</v>
       </c>
       <c r="AT180">
-        <v>0.86</v>
+        <v>1.71</v>
       </c>
       <c r="AU180">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AV180">
-        <v>0.84</v>
+        <v>1.43</v>
       </c>
       <c r="AW180">
-        <v>2.55</v>
+        <v>3.22</v>
       </c>
       <c r="AX180">
         <v>0</v>
@@ -35634,22 +35634,22 @@
         <v>0</v>
       </c>
       <c r="BF180">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG180">
         <v>4</v>
       </c>
       <c r="BH180">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ180">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK180">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:63">
@@ -35657,7 +35657,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>4470704</v>
+        <v>4470696</v>
       </c>
       <c r="C181" t="s">
         <v>63</v>
@@ -35672,10 +35672,10 @@
         <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H181" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -35705,10 +35705,10 @@
         <v>2</v>
       </c>
       <c r="R181">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S181">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T181">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="AC181">
-        <v>2.23</v>
+        <v>6.5</v>
       </c>
       <c r="AD181">
-        <v>1.4</v>
+        <v>4.33</v>
       </c>
       <c r="AE181">
-        <v>2.48</v>
+        <v>1.42</v>
       </c>
       <c r="AF181">
         <v>0</v>
@@ -35759,46 +35759,46 @@
         <v>0</v>
       </c>
       <c r="AJ181">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>0</v>
+      </c>
+      <c r="AO181">
+        <v>0</v>
+      </c>
+      <c r="AP181">
+        <v>0</v>
+      </c>
+      <c r="AQ181">
+        <v>0.6</v>
+      </c>
+      <c r="AR181">
         <v>1.5</v>
       </c>
-      <c r="AL181">
-        <v>0</v>
-      </c>
-      <c r="AM181">
-        <v>0</v>
-      </c>
-      <c r="AN181">
-        <v>0</v>
-      </c>
-      <c r="AO181">
-        <v>0</v>
-      </c>
-      <c r="AP181">
-        <v>0</v>
-      </c>
-      <c r="AQ181">
-        <v>0.8</v>
-      </c>
-      <c r="AR181">
-        <v>0.8</v>
-      </c>
       <c r="AS181">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AT181">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="AU181">
-        <v>1.12</v>
+        <v>1.49</v>
       </c>
       <c r="AV181">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="AW181">
-        <v>2.1</v>
+        <v>2.53</v>
       </c>
       <c r="AX181">
         <v>0</v>
@@ -35825,22 +35825,22 @@
         <v>0</v>
       </c>
       <c r="BF181">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BG181">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI181">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ181">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BK181">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:63">
@@ -36803,7 +36803,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>4470741</v>
+        <v>4470745</v>
       </c>
       <c r="C187" t="s">
         <v>63</v>
@@ -36818,175 +36818,175 @@
         <v>14</v>
       </c>
       <c r="G187" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H187" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O187" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="P187" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>1</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
+        <v>1.65</v>
+      </c>
+      <c r="AD187">
+        <v>3.3</v>
+      </c>
+      <c r="AE187">
+        <v>5.5</v>
+      </c>
+      <c r="AF187">
+        <v>0</v>
+      </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>0</v>
+      </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>2.25</v>
+      </c>
+      <c r="AK187">
+        <v>1.57</v>
+      </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
+      <c r="AM187">
+        <v>0</v>
+      </c>
+      <c r="AN187">
+        <v>0</v>
+      </c>
+      <c r="AO187">
+        <v>0</v>
+      </c>
+      <c r="AP187">
+        <v>0</v>
+      </c>
+      <c r="AQ187">
+        <v>2.33</v>
+      </c>
+      <c r="AR187">
+        <v>0.83</v>
+      </c>
+      <c r="AS187">
+        <v>2.43</v>
+      </c>
+      <c r="AT187">
+        <v>0.71</v>
+      </c>
+      <c r="AU187">
+        <v>1.68</v>
+      </c>
+      <c r="AV187">
+        <v>1.06</v>
+      </c>
+      <c r="AW187">
+        <v>2.74</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>0</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>2</v>
+      </c>
+      <c r="BG187">
+        <v>3</v>
+      </c>
+      <c r="BH187">
+        <v>4</v>
+      </c>
+      <c r="BI187">
+        <v>3</v>
+      </c>
+      <c r="BJ187">
         <v>6</v>
       </c>
-      <c r="S187">
-        <v>7</v>
-      </c>
-      <c r="T187">
-        <v>0</v>
-      </c>
-      <c r="U187">
-        <v>0</v>
-      </c>
-      <c r="V187">
-        <v>0</v>
-      </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-      <c r="X187">
-        <v>0</v>
-      </c>
-      <c r="Y187">
-        <v>0</v>
-      </c>
-      <c r="Z187">
-        <v>0</v>
-      </c>
-      <c r="AA187">
-        <v>0</v>
-      </c>
-      <c r="AB187">
-        <v>0</v>
-      </c>
-      <c r="AC187">
-        <v>3.25</v>
-      </c>
-      <c r="AD187">
-        <v>2.95</v>
-      </c>
-      <c r="AE187">
-        <v>2.2</v>
-      </c>
-      <c r="AF187">
-        <v>0</v>
-      </c>
-      <c r="AG187">
-        <v>0</v>
-      </c>
-      <c r="AH187">
-        <v>0</v>
-      </c>
-      <c r="AI187">
-        <v>0</v>
-      </c>
-      <c r="AJ187">
-        <v>2.38</v>
-      </c>
-      <c r="AK187">
-        <v>1.51</v>
-      </c>
-      <c r="AL187">
-        <v>0</v>
-      </c>
-      <c r="AM187">
-        <v>0</v>
-      </c>
-      <c r="AN187">
-        <v>0</v>
-      </c>
-      <c r="AO187">
-        <v>0</v>
-      </c>
-      <c r="AP187">
-        <v>0</v>
-      </c>
-      <c r="AQ187">
-        <v>0.17</v>
-      </c>
-      <c r="AR187">
-        <v>0.67</v>
-      </c>
-      <c r="AS187">
-        <v>0.57</v>
-      </c>
-      <c r="AT187">
-        <v>0.57</v>
-      </c>
-      <c r="AU187">
-        <v>1.15</v>
-      </c>
-      <c r="AV187">
-        <v>1.38</v>
-      </c>
-      <c r="AW187">
-        <v>2.53</v>
-      </c>
-      <c r="AX187">
-        <v>0</v>
-      </c>
-      <c r="AY187">
-        <v>0</v>
-      </c>
-      <c r="AZ187">
-        <v>0</v>
-      </c>
-      <c r="BA187">
-        <v>0</v>
-      </c>
-      <c r="BB187">
-        <v>0</v>
-      </c>
-      <c r="BC187">
-        <v>0</v>
-      </c>
-      <c r="BD187">
-        <v>0</v>
-      </c>
-      <c r="BE187">
-        <v>0</v>
-      </c>
-      <c r="BF187">
-        <v>2</v>
-      </c>
-      <c r="BG187">
-        <v>3</v>
-      </c>
-      <c r="BH187">
-        <v>1</v>
-      </c>
-      <c r="BI187">
-        <v>7</v>
-      </c>
-      <c r="BJ187">
-        <v>3</v>
-      </c>
       <c r="BK187">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:63">
@@ -36994,7 +36994,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4470745</v>
+        <v>4470741</v>
       </c>
       <c r="C188" t="s">
         <v>63</v>
@@ -37009,43 +37009,43 @@
         <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H188" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O188" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="P188" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R188">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S188">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T188">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>0</v>
       </c>
       <c r="AC188">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="AD188">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AE188">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="AF188">
         <v>0</v>
@@ -37096,10 +37096,10 @@
         <v>0</v>
       </c>
       <c r="AJ188">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AK188">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AL188">
         <v>0</v>
@@ -37117,25 +37117,25 @@
         <v>0</v>
       </c>
       <c r="AQ188">
-        <v>2.33</v>
+        <v>0.17</v>
       </c>
       <c r="AR188">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AS188">
-        <v>2.43</v>
+        <v>0.57</v>
       </c>
       <c r="AT188">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU188">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="AV188">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AW188">
-        <v>2.74</v>
+        <v>2.53</v>
       </c>
       <c r="AX188">
         <v>0</v>
@@ -37168,16 +37168,16 @@
         <v>3</v>
       </c>
       <c r="BH188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI188">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ188">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK188">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:63">
@@ -37185,7 +37185,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>4470722</v>
+        <v>4470743</v>
       </c>
       <c r="C189" t="s">
         <v>63</v>
@@ -37200,10 +37200,10 @@
         <v>14</v>
       </c>
       <c r="G189" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H189" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -37218,25 +37218,25 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O189" t="s">
         <v>100</v>
       </c>
       <c r="P189" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="Q189">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S189">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T189">
         <v>0</v>
@@ -37266,13 +37266,13 @@
         <v>0</v>
       </c>
       <c r="AC189">
-        <v>1.87</v>
+        <v>1.18</v>
       </c>
       <c r="AD189">
-        <v>3.34</v>
+        <v>6.25</v>
       </c>
       <c r="AE189">
-        <v>4.22</v>
+        <v>14.25</v>
       </c>
       <c r="AF189">
         <v>0</v>
@@ -37287,10 +37287,10 @@
         <v>0</v>
       </c>
       <c r="AJ189">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="AK189">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="AL189">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="AQ189">
-        <v>1.17</v>
+        <v>2.17</v>
       </c>
       <c r="AR189">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AS189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT189">
-        <v>1.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU189">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AV189">
-        <v>1.13</v>
+        <v>0.77</v>
       </c>
       <c r="AW189">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="AX189">
         <v>0</v>
@@ -37353,22 +37353,22 @@
         <v>0</v>
       </c>
       <c r="BF189">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH189">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI189">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BJ189">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK189">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:63">
@@ -37376,7 +37376,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>4470728</v>
+        <v>4470736</v>
       </c>
       <c r="C190" t="s">
         <v>63</v>
@@ -37391,175 +37391,175 @@
         <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H190" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>113</v>
+      </c>
+      <c r="P190" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q190">
+        <v>2</v>
+      </c>
+      <c r="R190">
+        <v>7</v>
+      </c>
+      <c r="S190">
+        <v>9</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>1.58</v>
+      </c>
+      <c r="AD190">
+        <v>3.68</v>
+      </c>
+      <c r="AE190">
         <v>6</v>
       </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190">
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190">
+        <v>1.53</v>
+      </c>
+      <c r="AI190">
+        <v>2.35</v>
+      </c>
+      <c r="AJ190">
+        <v>2.59</v>
+      </c>
+      <c r="AK190">
+        <v>1.38</v>
+      </c>
+      <c r="AL190">
+        <v>0</v>
+      </c>
+      <c r="AM190">
+        <v>0</v>
+      </c>
+      <c r="AN190">
+        <v>0</v>
+      </c>
+      <c r="AO190">
+        <v>0</v>
+      </c>
+      <c r="AP190">
+        <v>0</v>
+      </c>
+      <c r="AQ190">
+        <v>1.67</v>
+      </c>
+      <c r="AR190">
+        <v>0.67</v>
+      </c>
+      <c r="AS190">
+        <v>1.57</v>
+      </c>
+      <c r="AT190">
+        <v>0.71</v>
+      </c>
+      <c r="AU190">
+        <v>1.32</v>
+      </c>
+      <c r="AV190">
+        <v>0.98</v>
+      </c>
+      <c r="AW190">
+        <v>2.3</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>0</v>
+      </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>0</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>4</v>
+      </c>
+      <c r="BG190">
+        <v>0</v>
+      </c>
+      <c r="BH190">
+        <v>2</v>
+      </c>
+      <c r="BI190">
+        <v>5</v>
+      </c>
+      <c r="BJ190">
         <v>6</v>
       </c>
-      <c r="L190">
-        <v>6</v>
-      </c>
-      <c r="M190">
-        <v>0</v>
-      </c>
-      <c r="N190">
-        <v>6</v>
-      </c>
-      <c r="O190" t="s">
-        <v>203</v>
-      </c>
-      <c r="P190" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q190">
-        <v>6</v>
-      </c>
-      <c r="R190">
-        <v>0</v>
-      </c>
-      <c r="S190">
-        <v>6</v>
-      </c>
-      <c r="T190">
-        <v>0</v>
-      </c>
-      <c r="U190">
-        <v>0</v>
-      </c>
-      <c r="V190">
-        <v>0</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-      <c r="AA190">
-        <v>0</v>
-      </c>
-      <c r="AB190">
-        <v>0</v>
-      </c>
-      <c r="AC190">
-        <v>0</v>
-      </c>
-      <c r="AD190">
-        <v>0</v>
-      </c>
-      <c r="AE190">
-        <v>0</v>
-      </c>
-      <c r="AF190">
-        <v>0</v>
-      </c>
-      <c r="AG190">
-        <v>0</v>
-      </c>
-      <c r="AH190">
-        <v>0</v>
-      </c>
-      <c r="AI190">
-        <v>0</v>
-      </c>
-      <c r="AJ190">
-        <v>0</v>
-      </c>
-      <c r="AK190">
-        <v>0</v>
-      </c>
-      <c r="AL190">
-        <v>0</v>
-      </c>
-      <c r="AM190">
-        <v>0</v>
-      </c>
-      <c r="AN190">
-        <v>0</v>
-      </c>
-      <c r="AO190">
-        <v>0</v>
-      </c>
-      <c r="AP190">
-        <v>0</v>
-      </c>
-      <c r="AQ190">
-        <v>1.83</v>
-      </c>
-      <c r="AR190">
-        <v>1</v>
-      </c>
-      <c r="AS190">
-        <v>2</v>
-      </c>
-      <c r="AT190">
-        <v>0.86</v>
-      </c>
-      <c r="AU190">
-        <v>1.37</v>
-      </c>
-      <c r="AV190">
-        <v>1.03</v>
-      </c>
-      <c r="AW190">
-        <v>2.4</v>
-      </c>
-      <c r="AX190">
-        <v>0</v>
-      </c>
-      <c r="AY190">
-        <v>0</v>
-      </c>
-      <c r="AZ190">
-        <v>0</v>
-      </c>
-      <c r="BA190">
-        <v>0</v>
-      </c>
-      <c r="BB190">
-        <v>0</v>
-      </c>
-      <c r="BC190">
-        <v>0</v>
-      </c>
-      <c r="BD190">
-        <v>0</v>
-      </c>
-      <c r="BE190">
-        <v>0</v>
-      </c>
-      <c r="BF190">
-        <v>6</v>
-      </c>
-      <c r="BG190">
-        <v>0</v>
-      </c>
-      <c r="BH190">
-        <v>7</v>
-      </c>
-      <c r="BI190">
-        <v>0</v>
-      </c>
-      <c r="BJ190">
-        <v>13</v>
-      </c>
       <c r="BK190">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:63">
@@ -37567,7 +37567,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>4470730</v>
+        <v>4470734</v>
       </c>
       <c r="C191" t="s">
         <v>63</v>
@@ -37582,19 +37582,19 @@
         <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H191" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191">
         <v>1</v>
@@ -37606,139 +37606,139 @@
         <v>2</v>
       </c>
       <c r="O191" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="P191" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="Q191">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R191">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S191">
+        <v>14</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+      <c r="V191">
+        <v>0</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <v>0</v>
+      </c>
+      <c r="AC191">
+        <v>5.6</v>
+      </c>
+      <c r="AD191">
+        <v>3.28</v>
+      </c>
+      <c r="AE191">
+        <v>1.7</v>
+      </c>
+      <c r="AF191">
+        <v>0</v>
+      </c>
+      <c r="AG191">
+        <v>0</v>
+      </c>
+      <c r="AH191">
+        <v>0</v>
+      </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>2.41</v>
+      </c>
+      <c r="AK191">
+        <v>1.5</v>
+      </c>
+      <c r="AL191">
+        <v>0</v>
+      </c>
+      <c r="AM191">
+        <v>0</v>
+      </c>
+      <c r="AN191">
+        <v>0</v>
+      </c>
+      <c r="AO191">
+        <v>0</v>
+      </c>
+      <c r="AP191">
+        <v>0</v>
+      </c>
+      <c r="AQ191">
+        <v>0.83</v>
+      </c>
+      <c r="AR191">
+        <v>1.83</v>
+      </c>
+      <c r="AS191">
+        <v>0.86</v>
+      </c>
+      <c r="AT191">
+        <v>1.71</v>
+      </c>
+      <c r="AU191">
+        <v>1.36</v>
+      </c>
+      <c r="AV191">
+        <v>1.26</v>
+      </c>
+      <c r="AW191">
+        <v>2.62</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>0</v>
+      </c>
+      <c r="AZ191">
+        <v>0</v>
+      </c>
+      <c r="BA191">
+        <v>0</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
+      <c r="BC191">
+        <v>0</v>
+      </c>
+      <c r="BD191">
+        <v>0</v>
+      </c>
+      <c r="BE191">
+        <v>0</v>
+      </c>
+      <c r="BF191">
+        <v>2</v>
+      </c>
+      <c r="BG191">
         <v>12</v>
-      </c>
-      <c r="T191">
-        <v>0</v>
-      </c>
-      <c r="U191">
-        <v>0</v>
-      </c>
-      <c r="V191">
-        <v>0</v>
-      </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <v>0</v>
-      </c>
-      <c r="Y191">
-        <v>0</v>
-      </c>
-      <c r="Z191">
-        <v>0</v>
-      </c>
-      <c r="AA191">
-        <v>0</v>
-      </c>
-      <c r="AB191">
-        <v>0</v>
-      </c>
-      <c r="AC191">
-        <v>1.7</v>
-      </c>
-      <c r="AD191">
-        <v>3.44</v>
-      </c>
-      <c r="AE191">
-        <v>5.2</v>
-      </c>
-      <c r="AF191">
-        <v>0</v>
-      </c>
-      <c r="AG191">
-        <v>0</v>
-      </c>
-      <c r="AH191">
-        <v>0</v>
-      </c>
-      <c r="AI191">
-        <v>0</v>
-      </c>
-      <c r="AJ191">
-        <v>2.29</v>
-      </c>
-      <c r="AK191">
-        <v>1.55</v>
-      </c>
-      <c r="AL191">
-        <v>0</v>
-      </c>
-      <c r="AM191">
-        <v>0</v>
-      </c>
-      <c r="AN191">
-        <v>0</v>
-      </c>
-      <c r="AO191">
-        <v>0</v>
-      </c>
-      <c r="AP191">
-        <v>0</v>
-      </c>
-      <c r="AQ191">
-        <v>1</v>
-      </c>
-      <c r="AR191">
-        <v>0.17</v>
-      </c>
-      <c r="AS191">
-        <v>1</v>
-      </c>
-      <c r="AT191">
-        <v>0.29</v>
-      </c>
-      <c r="AU191">
-        <v>1.32</v>
-      </c>
-      <c r="AV191">
-        <v>0.8</v>
-      </c>
-      <c r="AW191">
-        <v>2.12</v>
-      </c>
-      <c r="AX191">
-        <v>0</v>
-      </c>
-      <c r="AY191">
-        <v>0</v>
-      </c>
-      <c r="AZ191">
-        <v>0</v>
-      </c>
-      <c r="BA191">
-        <v>0</v>
-      </c>
-      <c r="BB191">
-        <v>0</v>
-      </c>
-      <c r="BC191">
-        <v>0</v>
-      </c>
-      <c r="BD191">
-        <v>0</v>
-      </c>
-      <c r="BE191">
-        <v>0</v>
-      </c>
-      <c r="BF191">
-        <v>0</v>
-      </c>
-      <c r="BG191">
-        <v>0</v>
       </c>
       <c r="BH191">
         <v>6</v>
@@ -37747,10 +37747,10 @@
         <v>5</v>
       </c>
       <c r="BJ191">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK191">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:63">
@@ -37949,7 +37949,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>4470734</v>
+        <v>4470730</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -37964,19 +37964,19 @@
         <v>14</v>
       </c>
       <c r="G193" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H193" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193">
         <v>1</v>
@@ -37988,19 +37988,19 @@
         <v>2</v>
       </c>
       <c r="O193" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="P193" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="Q193">
+        <v>7</v>
+      </c>
+      <c r="R193">
         <v>5</v>
       </c>
-      <c r="R193">
-        <v>9</v>
-      </c>
       <c r="S193">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T193">
         <v>0</v>
@@ -38030,13 +38030,13 @@
         <v>0</v>
       </c>
       <c r="AC193">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD193">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="AE193">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="AF193">
         <v>0</v>
@@ -38051,10 +38051,10 @@
         <v>0</v>
       </c>
       <c r="AJ193">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="AK193">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AL193">
         <v>0</v>
@@ -38072,25 +38072,25 @@
         <v>0</v>
       </c>
       <c r="AQ193">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR193">
-        <v>1.83</v>
+        <v>0.17</v>
       </c>
       <c r="AS193">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT193">
-        <v>1.71</v>
+        <v>0.29</v>
       </c>
       <c r="AU193">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AV193">
-        <v>1.26</v>
+        <v>0.8</v>
       </c>
       <c r="AW193">
-        <v>2.62</v>
+        <v>2.12</v>
       </c>
       <c r="AX193">
         <v>0</v>
@@ -38117,10 +38117,10 @@
         <v>0</v>
       </c>
       <c r="BF193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG193">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BH193">
         <v>6</v>
@@ -38129,10 +38129,10 @@
         <v>5</v>
       </c>
       <c r="BJ193">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BK193">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:63">
@@ -38140,7 +38140,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>4470736</v>
+        <v>4470728</v>
       </c>
       <c r="C194" t="s">
         <v>63</v>
@@ -38155,175 +38155,175 @@
         <v>14</v>
       </c>
       <c r="G194" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H194" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L194">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O194" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="Q194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>6</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>0</v>
+      </c>
+      <c r="AC194">
+        <v>0</v>
+      </c>
+      <c r="AD194">
+        <v>0</v>
+      </c>
+      <c r="AE194">
+        <v>0</v>
+      </c>
+      <c r="AF194">
+        <v>0</v>
+      </c>
+      <c r="AG194">
+        <v>0</v>
+      </c>
+      <c r="AH194">
+        <v>0</v>
+      </c>
+      <c r="AI194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
+        <v>0</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AL194">
+        <v>0</v>
+      </c>
+      <c r="AM194">
+        <v>0</v>
+      </c>
+      <c r="AN194">
+        <v>0</v>
+      </c>
+      <c r="AO194">
+        <v>0</v>
+      </c>
+      <c r="AP194">
+        <v>0</v>
+      </c>
+      <c r="AQ194">
+        <v>1.83</v>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+      <c r="AS194">
+        <v>2</v>
+      </c>
+      <c r="AT194">
+        <v>0.86</v>
+      </c>
+      <c r="AU194">
+        <v>1.37</v>
+      </c>
+      <c r="AV194">
+        <v>1.03</v>
+      </c>
+      <c r="AW194">
+        <v>2.4</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>6</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
+      </c>
+      <c r="BH194">
         <v>7</v>
       </c>
-      <c r="S194">
-        <v>9</v>
-      </c>
-      <c r="T194">
-        <v>0</v>
-      </c>
-      <c r="U194">
-        <v>0</v>
-      </c>
-      <c r="V194">
-        <v>0</v>
-      </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-      <c r="X194">
-        <v>0</v>
-      </c>
-      <c r="Y194">
-        <v>0</v>
-      </c>
-      <c r="Z194">
-        <v>0</v>
-      </c>
-      <c r="AA194">
-        <v>0</v>
-      </c>
-      <c r="AB194">
-        <v>0</v>
-      </c>
-      <c r="AC194">
-        <v>1.58</v>
-      </c>
-      <c r="AD194">
-        <v>3.68</v>
-      </c>
-      <c r="AE194">
-        <v>6</v>
-      </c>
-      <c r="AF194">
-        <v>0</v>
-      </c>
-      <c r="AG194">
-        <v>0</v>
-      </c>
-      <c r="AH194">
-        <v>1.53</v>
-      </c>
-      <c r="AI194">
-        <v>2.35</v>
-      </c>
-      <c r="AJ194">
-        <v>2.59</v>
-      </c>
-      <c r="AK194">
-        <v>1.38</v>
-      </c>
-      <c r="AL194">
-        <v>0</v>
-      </c>
-      <c r="AM194">
-        <v>0</v>
-      </c>
-      <c r="AN194">
-        <v>0</v>
-      </c>
-      <c r="AO194">
-        <v>0</v>
-      </c>
-      <c r="AP194">
-        <v>0</v>
-      </c>
-      <c r="AQ194">
-        <v>1.67</v>
-      </c>
-      <c r="AR194">
-        <v>0.67</v>
-      </c>
-      <c r="AS194">
-        <v>1.57</v>
-      </c>
-      <c r="AT194">
-        <v>0.71</v>
-      </c>
-      <c r="AU194">
-        <v>1.32</v>
-      </c>
-      <c r="AV194">
-        <v>0.98</v>
-      </c>
-      <c r="AW194">
-        <v>2.3</v>
-      </c>
-      <c r="AX194">
-        <v>0</v>
-      </c>
-      <c r="AY194">
-        <v>0</v>
-      </c>
-      <c r="AZ194">
-        <v>0</v>
-      </c>
-      <c r="BA194">
-        <v>0</v>
-      </c>
-      <c r="BB194">
-        <v>0</v>
-      </c>
-      <c r="BC194">
-        <v>0</v>
-      </c>
-      <c r="BD194">
-        <v>0</v>
-      </c>
-      <c r="BE194">
-        <v>0</v>
-      </c>
-      <c r="BF194">
-        <v>4</v>
-      </c>
-      <c r="BG194">
-        <v>0</v>
-      </c>
-      <c r="BH194">
-        <v>2</v>
-      </c>
       <c r="BI194">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ194">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK194">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:63">
@@ -38331,7 +38331,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>4470743</v>
+        <v>4470722</v>
       </c>
       <c r="C195" t="s">
         <v>63</v>
@@ -38346,10 +38346,10 @@
         <v>14</v>
       </c>
       <c r="G195" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H195" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -38364,157 +38364,157 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O195" t="s">
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="Q195">
+        <v>5</v>
+      </c>
+      <c r="R195">
+        <v>3</v>
+      </c>
+      <c r="S195">
+        <v>8</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+      <c r="AB195">
+        <v>0</v>
+      </c>
+      <c r="AC195">
+        <v>1.87</v>
+      </c>
+      <c r="AD195">
+        <v>3.34</v>
+      </c>
+      <c r="AE195">
+        <v>4.22</v>
+      </c>
+      <c r="AF195">
+        <v>0</v>
+      </c>
+      <c r="AG195">
+        <v>0</v>
+      </c>
+      <c r="AH195">
+        <v>0</v>
+      </c>
+      <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AJ195">
+        <v>2.2</v>
+      </c>
+      <c r="AK195">
+        <v>1.6</v>
+      </c>
+      <c r="AL195">
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <v>0</v>
+      </c>
+      <c r="AO195">
+        <v>0</v>
+      </c>
+      <c r="AP195">
+        <v>0</v>
+      </c>
+      <c r="AQ195">
+        <v>1.17</v>
+      </c>
+      <c r="AR195">
+        <v>1.5</v>
+      </c>
+      <c r="AS195">
+        <v>1</v>
+      </c>
+      <c r="AT195">
+        <v>1.71</v>
+      </c>
+      <c r="AU195">
+        <v>1.02</v>
+      </c>
+      <c r="AV195">
+        <v>1.13</v>
+      </c>
+      <c r="AW195">
+        <v>2.15</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>4</v>
+      </c>
+      <c r="BG195">
+        <v>3</v>
+      </c>
+      <c r="BH195">
         <v>6</v>
       </c>
-      <c r="R195">
-        <v>0</v>
-      </c>
-      <c r="S195">
-        <v>6</v>
-      </c>
-      <c r="T195">
-        <v>0</v>
-      </c>
-      <c r="U195">
-        <v>0</v>
-      </c>
-      <c r="V195">
-        <v>0</v>
-      </c>
-      <c r="W195">
-        <v>0</v>
-      </c>
-      <c r="X195">
-        <v>0</v>
-      </c>
-      <c r="Y195">
-        <v>0</v>
-      </c>
-      <c r="Z195">
-        <v>0</v>
-      </c>
-      <c r="AA195">
-        <v>0</v>
-      </c>
-      <c r="AB195">
-        <v>0</v>
-      </c>
-      <c r="AC195">
-        <v>1.18</v>
-      </c>
-      <c r="AD195">
-        <v>6.25</v>
-      </c>
-      <c r="AE195">
-        <v>14.25</v>
-      </c>
-      <c r="AF195">
-        <v>0</v>
-      </c>
-      <c r="AG195">
-        <v>0</v>
-      </c>
-      <c r="AH195">
-        <v>0</v>
-      </c>
-      <c r="AI195">
-        <v>0</v>
-      </c>
-      <c r="AJ195">
-        <v>1.68</v>
-      </c>
-      <c r="AK195">
-        <v>2.06</v>
-      </c>
-      <c r="AL195">
-        <v>0</v>
-      </c>
-      <c r="AM195">
-        <v>0</v>
-      </c>
-      <c r="AN195">
-        <v>0</v>
-      </c>
-      <c r="AO195">
-        <v>0</v>
-      </c>
-      <c r="AP195">
-        <v>0</v>
-      </c>
-      <c r="AQ195">
-        <v>2.17</v>
-      </c>
-      <c r="AR195">
-        <v>0.5</v>
-      </c>
-      <c r="AS195">
-        <v>2</v>
-      </c>
-      <c r="AT195">
-        <v>0.57</v>
-      </c>
-      <c r="AU195">
-        <v>0.95</v>
-      </c>
-      <c r="AV195">
-        <v>0.77</v>
-      </c>
-      <c r="AW195">
-        <v>1.72</v>
-      </c>
-      <c r="AX195">
-        <v>0</v>
-      </c>
-      <c r="AY195">
-        <v>0</v>
-      </c>
-      <c r="AZ195">
-        <v>0</v>
-      </c>
-      <c r="BA195">
-        <v>0</v>
-      </c>
-      <c r="BB195">
-        <v>0</v>
-      </c>
-      <c r="BC195">
-        <v>0</v>
-      </c>
-      <c r="BD195">
-        <v>0</v>
-      </c>
-      <c r="BE195">
-        <v>0</v>
-      </c>
-      <c r="BF195">
-        <v>6</v>
-      </c>
-      <c r="BG195">
-        <v>2</v>
-      </c>
-      <c r="BH195">
+      <c r="BI195">
         <v>7</v>
       </c>
-      <c r="BI195">
-        <v>1</v>
-      </c>
       <c r="BJ195">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK195">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:63">
@@ -39286,7 +39286,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>4470753</v>
+        <v>4470763</v>
       </c>
       <c r="C200" t="s">
         <v>63</v>
@@ -39301,10 +39301,10 @@
         <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H200" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -39316,160 +39316,160 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M200">
         <v>0</v>
       </c>
       <c r="N200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O200" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="P200" t="s">
         <v>100</v>
       </c>
       <c r="Q200">
+        <v>13</v>
+      </c>
+      <c r="R200">
+        <v>8</v>
+      </c>
+      <c r="S200">
+        <v>21</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+      <c r="AC200">
+        <v>0</v>
+      </c>
+      <c r="AD200">
+        <v>0</v>
+      </c>
+      <c r="AE200">
+        <v>0</v>
+      </c>
+      <c r="AF200">
+        <v>0</v>
+      </c>
+      <c r="AG200">
+        <v>0</v>
+      </c>
+      <c r="AH200">
+        <v>0</v>
+      </c>
+      <c r="AI200">
+        <v>0</v>
+      </c>
+      <c r="AJ200">
+        <v>0</v>
+      </c>
+      <c r="AK200">
+        <v>0</v>
+      </c>
+      <c r="AL200">
+        <v>0</v>
+      </c>
+      <c r="AM200">
+        <v>0</v>
+      </c>
+      <c r="AN200">
+        <v>0</v>
+      </c>
+      <c r="AO200">
+        <v>0</v>
+      </c>
+      <c r="AP200">
+        <v>0</v>
+      </c>
+      <c r="AQ200">
+        <v>1.5</v>
+      </c>
+      <c r="AR200">
+        <v>1.17</v>
+      </c>
+      <c r="AS200">
+        <v>1.71</v>
+      </c>
+      <c r="AT200">
+        <v>1</v>
+      </c>
+      <c r="AU200">
+        <v>1.54</v>
+      </c>
+      <c r="AV200">
+        <v>1.31</v>
+      </c>
+      <c r="AW200">
+        <v>2.85</v>
+      </c>
+      <c r="AX200">
+        <v>0</v>
+      </c>
+      <c r="AY200">
+        <v>0</v>
+      </c>
+      <c r="AZ200">
+        <v>0</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>0</v>
+      </c>
+      <c r="BC200">
+        <v>0</v>
+      </c>
+      <c r="BD200">
+        <v>0</v>
+      </c>
+      <c r="BE200">
+        <v>0</v>
+      </c>
+      <c r="BF200">
         <v>11</v>
       </c>
-      <c r="R200">
-        <v>0</v>
-      </c>
-      <c r="S200">
-        <v>11</v>
-      </c>
-      <c r="T200">
-        <v>0</v>
-      </c>
-      <c r="U200">
-        <v>0</v>
-      </c>
-      <c r="V200">
-        <v>0</v>
-      </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-      <c r="X200">
-        <v>0</v>
-      </c>
-      <c r="Y200">
-        <v>0</v>
-      </c>
-      <c r="Z200">
-        <v>0</v>
-      </c>
-      <c r="AA200">
-        <v>0</v>
-      </c>
-      <c r="AB200">
-        <v>0</v>
-      </c>
-      <c r="AC200">
-        <v>1.55</v>
-      </c>
-      <c r="AD200">
-        <v>3.45</v>
-      </c>
-      <c r="AE200">
-        <v>6.25</v>
-      </c>
-      <c r="AF200">
-        <v>0</v>
-      </c>
-      <c r="AG200">
-        <v>0</v>
-      </c>
-      <c r="AH200">
-        <v>0</v>
-      </c>
-      <c r="AI200">
-        <v>0</v>
-      </c>
-      <c r="AJ200">
-        <v>2.15</v>
-      </c>
-      <c r="AK200">
-        <v>1.55</v>
-      </c>
-      <c r="AL200">
-        <v>0</v>
-      </c>
-      <c r="AM200">
-        <v>0</v>
-      </c>
-      <c r="AN200">
-        <v>0</v>
-      </c>
-      <c r="AO200">
-        <v>0</v>
-      </c>
-      <c r="AP200">
-        <v>0</v>
-      </c>
-      <c r="AQ200">
-        <v>2.67</v>
-      </c>
-      <c r="AR200">
-        <v>1.5</v>
-      </c>
-      <c r="AS200">
-        <v>2.43</v>
-      </c>
-      <c r="AT200">
-        <v>1.43</v>
-      </c>
-      <c r="AU200">
-        <v>1.71</v>
-      </c>
-      <c r="AV200">
-        <v>1.34</v>
-      </c>
-      <c r="AW200">
-        <v>3.05</v>
-      </c>
-      <c r="AX200">
-        <v>0</v>
-      </c>
-      <c r="AY200">
-        <v>0</v>
-      </c>
-      <c r="AZ200">
-        <v>0</v>
-      </c>
-      <c r="BA200">
-        <v>0</v>
-      </c>
-      <c r="BB200">
-        <v>0</v>
-      </c>
-      <c r="BC200">
-        <v>0</v>
-      </c>
-      <c r="BD200">
-        <v>0</v>
-      </c>
-      <c r="BE200">
-        <v>0</v>
-      </c>
-      <c r="BF200">
-        <v>7</v>
-      </c>
       <c r="BG200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH200">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BI200">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ200">
         <v>17</v>
       </c>
       <c r="BK200">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:63">
@@ -39516,7 +39516,7 @@
         <v>3</v>
       </c>
       <c r="O201" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P201" t="s">
         <v>175</v>
@@ -39668,7 +39668,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>4470763</v>
+        <v>4470753</v>
       </c>
       <c r="C202" t="s">
         <v>63</v>
@@ -39683,10 +39683,10 @@
         <v>15</v>
       </c>
       <c r="G202" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H202" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -39698,28 +39698,28 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M202">
         <v>0</v>
       </c>
       <c r="N202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O202" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="P202" t="s">
         <v>100</v>
       </c>
       <c r="Q202">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R202">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S202">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="T202">
         <v>0</v>
@@ -39749,13 +39749,13 @@
         <v>0</v>
       </c>
       <c r="AC202">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AD202">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AE202">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AF202">
         <v>0</v>
@@ -39770,10 +39770,10 @@
         <v>0</v>
       </c>
       <c r="AJ202">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AK202">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AL202">
         <v>0</v>
@@ -39791,25 +39791,25 @@
         <v>0</v>
       </c>
       <c r="AQ202">
+        <v>2.67</v>
+      </c>
+      <c r="AR202">
         <v>1.5</v>
       </c>
-      <c r="AR202">
-        <v>1.17</v>
-      </c>
       <c r="AS202">
+        <v>2.43</v>
+      </c>
+      <c r="AT202">
+        <v>1.43</v>
+      </c>
+      <c r="AU202">
         <v>1.71</v>
       </c>
-      <c r="AT202">
-        <v>1</v>
-      </c>
-      <c r="AU202">
-        <v>1.54</v>
-      </c>
       <c r="AV202">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AW202">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AX202">
         <v>0</v>
@@ -39836,22 +39836,22 @@
         <v>0</v>
       </c>
       <c r="BF202">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BG202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH202">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BI202">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ202">
         <v>17</v>
       </c>
       <c r="BK202">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:63">
@@ -40050,7 +40050,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>4470771</v>
+        <v>4470747</v>
       </c>
       <c r="C204" t="s">
         <v>63</v>
@@ -40065,43 +40065,43 @@
         <v>15</v>
       </c>
       <c r="G204" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H204" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204">
         <v>1</v>
       </c>
       <c r="L204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204">
         <v>2</v>
       </c>
       <c r="O204" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="P204" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="Q204">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S204">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="T204">
         <v>0</v>
@@ -40131,13 +40131,13 @@
         <v>0</v>
       </c>
       <c r="AC204">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="AD204">
-        <v>3.3</v>
+        <v>4.56</v>
       </c>
       <c r="AE204">
-        <v>4.75</v>
+        <v>6.4</v>
       </c>
       <c r="AF204">
         <v>0</v>
@@ -40152,10 +40152,10 @@
         <v>0</v>
       </c>
       <c r="AJ204">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="AK204">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AL204">
         <v>0</v>
@@ -40173,25 +40173,25 @@
         <v>0</v>
       </c>
       <c r="AQ204">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AR204">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AS204">
-        <v>2.43</v>
+        <v>2.57</v>
       </c>
       <c r="AT204">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AU204">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="AV204">
-        <v>1.14</v>
+        <v>0.74</v>
       </c>
       <c r="AW204">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AX204">
         <v>0</v>
@@ -40218,22 +40218,22 @@
         <v>0</v>
       </c>
       <c r="BF204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH204">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BI204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BJ204">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BK204">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:63">
@@ -40241,7 +40241,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>4470765</v>
+        <v>4470749</v>
       </c>
       <c r="C205" t="s">
         <v>63</v>
@@ -40256,43 +40256,43 @@
         <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H205" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O205" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="P205" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R205">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S205">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T205">
         <v>0</v>
@@ -40322,13 +40322,13 @@
         <v>0</v>
       </c>
       <c r="AC205">
-        <v>2.38</v>
+        <v>5.67</v>
       </c>
       <c r="AD205">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="AE205">
-        <v>2.68</v>
+        <v>1.45</v>
       </c>
       <c r="AF205">
         <v>0</v>
@@ -40337,16 +40337,16 @@
         <v>0</v>
       </c>
       <c r="AH205">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AI205">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AJ205">
-        <v>2.49</v>
+        <v>2.14</v>
       </c>
       <c r="AK205">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AL205">
         <v>0</v>
@@ -40364,25 +40364,25 @@
         <v>0</v>
       </c>
       <c r="AQ205">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AR205">
-        <v>0.17</v>
+        <v>1.5</v>
       </c>
       <c r="AS205">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AT205">
-        <v>0.57</v>
+        <v>1.71</v>
       </c>
       <c r="AU205">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="AV205">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AW205">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="AX205">
         <v>0</v>
@@ -40409,22 +40409,22 @@
         <v>0</v>
       </c>
       <c r="BF205">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG205">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH205">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI205">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ205">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK205">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:63">
@@ -40432,7 +40432,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>4470761</v>
+        <v>4470751</v>
       </c>
       <c r="C206" t="s">
         <v>63</v>
@@ -40447,43 +40447,43 @@
         <v>15</v>
       </c>
       <c r="G206" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H206" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206">
         <v>0</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O206" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>294</v>
+        <v>166</v>
       </c>
       <c r="Q206">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S206">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T206">
         <v>0</v>
@@ -40513,13 +40513,13 @@
         <v>0</v>
       </c>
       <c r="AC206">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AD206">
-        <v>7.39</v>
+        <v>0</v>
       </c>
       <c r="AE206">
-        <v>15.71</v>
+        <v>0</v>
       </c>
       <c r="AF206">
         <v>0</v>
@@ -40534,10 +40534,10 @@
         <v>0</v>
       </c>
       <c r="AJ206">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AK206">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="AL206">
         <v>0</v>
@@ -40555,25 +40555,25 @@
         <v>0</v>
       </c>
       <c r="AQ206">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AR206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS206">
-        <v>3</v>
+        <v>0.57</v>
       </c>
       <c r="AT206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU206">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AV206">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AW206">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AX206">
         <v>0</v>
@@ -40600,22 +40600,22 @@
         <v>0</v>
       </c>
       <c r="BF206">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG206">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH206">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BI206">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BJ206">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BK206">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:63">
@@ -40814,7 +40814,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>4470749</v>
+        <v>4470761</v>
       </c>
       <c r="C208" t="s">
         <v>63</v>
@@ -40829,175 +40829,175 @@
         <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H208" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
         <v>4</v>
       </c>
-      <c r="L208">
-        <v>1</v>
-      </c>
-      <c r="M208">
-        <v>4</v>
-      </c>
-      <c r="N208">
+      <c r="O208" t="s">
+        <v>212</v>
+      </c>
+      <c r="P208" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q208">
+        <v>3</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>3</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>1.07</v>
+      </c>
+      <c r="AD208">
+        <v>7.39</v>
+      </c>
+      <c r="AE208">
+        <v>15.71</v>
+      </c>
+      <c r="AF208">
+        <v>0</v>
+      </c>
+      <c r="AG208">
+        <v>0</v>
+      </c>
+      <c r="AH208">
+        <v>0</v>
+      </c>
+      <c r="AI208">
+        <v>0</v>
+      </c>
+      <c r="AJ208">
+        <v>1.36</v>
+      </c>
+      <c r="AK208">
+        <v>2.66</v>
+      </c>
+      <c r="AL208">
+        <v>0</v>
+      </c>
+      <c r="AM208">
+        <v>0</v>
+      </c>
+      <c r="AN208">
+        <v>0</v>
+      </c>
+      <c r="AO208">
+        <v>0</v>
+      </c>
+      <c r="AP208">
+        <v>0</v>
+      </c>
+      <c r="AQ208">
+        <v>3</v>
+      </c>
+      <c r="AR208">
+        <v>0</v>
+      </c>
+      <c r="AS208">
+        <v>3</v>
+      </c>
+      <c r="AT208">
+        <v>0</v>
+      </c>
+      <c r="AU208">
+        <v>1.44</v>
+      </c>
+      <c r="AV208">
+        <v>1.36</v>
+      </c>
+      <c r="AW208">
+        <v>2.8</v>
+      </c>
+      <c r="AX208">
+        <v>0</v>
+      </c>
+      <c r="AY208">
+        <v>0</v>
+      </c>
+      <c r="AZ208">
+        <v>0</v>
+      </c>
+      <c r="BA208">
+        <v>0</v>
+      </c>
+      <c r="BB208">
+        <v>0</v>
+      </c>
+      <c r="BC208">
+        <v>0</v>
+      </c>
+      <c r="BD208">
+        <v>0</v>
+      </c>
+      <c r="BE208">
+        <v>0</v>
+      </c>
+      <c r="BF208">
         <v>5</v>
       </c>
-      <c r="O208" t="s">
-        <v>172</v>
-      </c>
-      <c r="P208" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q208">
-        <v>9</v>
-      </c>
-      <c r="R208">
-        <v>4</v>
-      </c>
-      <c r="S208">
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>8</v>
+      </c>
+      <c r="BI208">
+        <v>8</v>
+      </c>
+      <c r="BJ208">
         <v>13</v>
       </c>
-      <c r="T208">
-        <v>0</v>
-      </c>
-      <c r="U208">
-        <v>0</v>
-      </c>
-      <c r="V208">
-        <v>0</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
-        <v>0</v>
-      </c>
-      <c r="AB208">
-        <v>0</v>
-      </c>
-      <c r="AC208">
-        <v>5.67</v>
-      </c>
-      <c r="AD208">
-        <v>3.28</v>
-      </c>
-      <c r="AE208">
-        <v>1.45</v>
-      </c>
-      <c r="AF208">
-        <v>0</v>
-      </c>
-      <c r="AG208">
-        <v>0</v>
-      </c>
-      <c r="AH208">
-        <v>0</v>
-      </c>
-      <c r="AI208">
-        <v>0</v>
-      </c>
-      <c r="AJ208">
-        <v>2.14</v>
-      </c>
-      <c r="AK208">
-        <v>1.56</v>
-      </c>
-      <c r="AL208">
-        <v>0</v>
-      </c>
-      <c r="AM208">
-        <v>0</v>
-      </c>
-      <c r="AN208">
-        <v>0</v>
-      </c>
-      <c r="AO208">
-        <v>0</v>
-      </c>
-      <c r="AP208">
-        <v>0</v>
-      </c>
-      <c r="AQ208">
-        <v>0.83</v>
-      </c>
-      <c r="AR208">
-        <v>1.5</v>
-      </c>
-      <c r="AS208">
-        <v>0.71</v>
-      </c>
-      <c r="AT208">
-        <v>1.71</v>
-      </c>
-      <c r="AU208">
-        <v>1.05</v>
-      </c>
-      <c r="AV208">
-        <v>1.42</v>
-      </c>
-      <c r="AW208">
-        <v>2.47</v>
-      </c>
-      <c r="AX208">
-        <v>0</v>
-      </c>
-      <c r="AY208">
-        <v>0</v>
-      </c>
-      <c r="AZ208">
-        <v>0</v>
-      </c>
-      <c r="BA208">
-        <v>0</v>
-      </c>
-      <c r="BB208">
-        <v>0</v>
-      </c>
-      <c r="BC208">
-        <v>0</v>
-      </c>
-      <c r="BD208">
-        <v>0</v>
-      </c>
-      <c r="BE208">
-        <v>0</v>
-      </c>
-      <c r="BF208">
-        <v>4</v>
-      </c>
-      <c r="BG208">
-        <v>5</v>
-      </c>
-      <c r="BH208">
-        <v>3</v>
-      </c>
-      <c r="BI208">
-        <v>7</v>
-      </c>
-      <c r="BJ208">
-        <v>7</v>
-      </c>
       <c r="BK208">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:63">
@@ -41005,7 +41005,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>4470747</v>
+        <v>4470765</v>
       </c>
       <c r="C209" t="s">
         <v>63</v>
@@ -41020,34 +41020,34 @@
         <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H209" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O209" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="P209" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q209">
         <v>-1</v>
@@ -41086,13 +41086,13 @@
         <v>0</v>
       </c>
       <c r="AC209">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="AD209">
-        <v>4.56</v>
+        <v>3.15</v>
       </c>
       <c r="AE209">
-        <v>6.4</v>
+        <v>2.68</v>
       </c>
       <c r="AF209">
         <v>0</v>
@@ -41101,16 +41101,16 @@
         <v>0</v>
       </c>
       <c r="AH209">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AI209">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AJ209">
-        <v>2.04</v>
+        <v>2.49</v>
       </c>
       <c r="AK209">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="AL209">
         <v>0</v>
@@ -41128,25 +41128,25 @@
         <v>0</v>
       </c>
       <c r="AQ209">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AR209">
+        <v>0.17</v>
+      </c>
+      <c r="AS209">
+        <v>0</v>
+      </c>
+      <c r="AT209">
+        <v>0.57</v>
+      </c>
+      <c r="AU209">
+        <v>1.31</v>
+      </c>
+      <c r="AV209">
         <v>1.17</v>
       </c>
-      <c r="AS209">
-        <v>2.57</v>
-      </c>
-      <c r="AT209">
-        <v>1</v>
-      </c>
-      <c r="AU209">
-        <v>1.63</v>
-      </c>
-      <c r="AV209">
-        <v>0.74</v>
-      </c>
       <c r="AW209">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="AX209">
         <v>0</v>
@@ -41196,7 +41196,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>4470769</v>
+        <v>4470771</v>
       </c>
       <c r="C210" t="s">
         <v>63</v>
@@ -41205,49 +41205,49 @@
         <v>64</v>
       </c>
       <c r="E210" s="2">
-        <v>45005.42708333334</v>
+        <v>45004.40625</v>
       </c>
       <c r="F210">
         <v>15</v>
       </c>
       <c r="G210" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H210" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O210" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="P210" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q210">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T210">
         <v>0</v>
@@ -41277,13 +41277,13 @@
         <v>0</v>
       </c>
       <c r="AC210">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="AD210">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="AE210">
-        <v>4.02</v>
+        <v>4.75</v>
       </c>
       <c r="AF210">
         <v>0</v>
@@ -41298,7 +41298,7 @@
         <v>0</v>
       </c>
       <c r="AJ210">
-        <v>2.32</v>
+        <v>2.17</v>
       </c>
       <c r="AK210">
         <v>1.54</v>
@@ -41319,66 +41319,257 @@
         <v>0</v>
       </c>
       <c r="AQ210">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR210">
+        <v>1.33</v>
+      </c>
+      <c r="AS210">
+        <v>2.43</v>
+      </c>
+      <c r="AT210">
+        <v>1.29</v>
+      </c>
+      <c r="AU210">
+        <v>1.28</v>
+      </c>
+      <c r="AV210">
+        <v>1.14</v>
+      </c>
+      <c r="AW210">
+        <v>2.42</v>
+      </c>
+      <c r="AX210">
+        <v>0</v>
+      </c>
+      <c r="AY210">
+        <v>0</v>
+      </c>
+      <c r="AZ210">
+        <v>0</v>
+      </c>
+      <c r="BA210">
+        <v>0</v>
+      </c>
+      <c r="BB210">
+        <v>0</v>
+      </c>
+      <c r="BC210">
+        <v>0</v>
+      </c>
+      <c r="BD210">
+        <v>0</v>
+      </c>
+      <c r="BE210">
+        <v>0</v>
+      </c>
+      <c r="BF210">
+        <v>2</v>
+      </c>
+      <c r="BG210">
+        <v>2</v>
+      </c>
+      <c r="BH210">
+        <v>6</v>
+      </c>
+      <c r="BI210">
+        <v>1</v>
+      </c>
+      <c r="BJ210">
+        <v>8</v>
+      </c>
+      <c r="BK210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>4470769</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45005.42708333334</v>
+      </c>
+      <c r="F211">
+        <v>15</v>
+      </c>
+      <c r="G211" t="s">
+        <v>89</v>
+      </c>
+      <c r="H211" t="s">
+        <v>66</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>2</v>
+      </c>
+      <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
+        <v>5</v>
+      </c>
+      <c r="O211" t="s">
+        <v>213</v>
+      </c>
+      <c r="P211" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q211">
+        <v>8</v>
+      </c>
+      <c r="R211">
+        <v>4</v>
+      </c>
+      <c r="S211">
+        <v>12</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+      <c r="AB211">
+        <v>0</v>
+      </c>
+      <c r="AC211">
+        <v>1.94</v>
+      </c>
+      <c r="AD211">
+        <v>3.07</v>
+      </c>
+      <c r="AE211">
+        <v>4.02</v>
+      </c>
+      <c r="AF211">
+        <v>0</v>
+      </c>
+      <c r="AG211">
+        <v>0</v>
+      </c>
+      <c r="AH211">
+        <v>0</v>
+      </c>
+      <c r="AI211">
+        <v>0</v>
+      </c>
+      <c r="AJ211">
+        <v>2.32</v>
+      </c>
+      <c r="AK211">
+        <v>1.54</v>
+      </c>
+      <c r="AL211">
+        <v>0</v>
+      </c>
+      <c r="AM211">
+        <v>0</v>
+      </c>
+      <c r="AN211">
+        <v>0</v>
+      </c>
+      <c r="AO211">
+        <v>0</v>
+      </c>
+      <c r="AP211">
+        <v>0</v>
+      </c>
+      <c r="AQ211">
+        <v>3</v>
+      </c>
+      <c r="AR211">
         <v>2.67</v>
       </c>
-      <c r="AS210">
+      <c r="AS211">
         <v>2.57</v>
       </c>
-      <c r="AT210">
+      <c r="AT211">
         <v>2.71</v>
       </c>
-      <c r="AU210">
+      <c r="AU211">
         <v>1.45</v>
       </c>
-      <c r="AV210">
+      <c r="AV211">
         <v>1.29</v>
       </c>
-      <c r="AW210">
+      <c r="AW211">
         <v>2.74</v>
       </c>
-      <c r="AX210">
-        <v>0</v>
-      </c>
-      <c r="AY210">
-        <v>0</v>
-      </c>
-      <c r="AZ210">
-        <v>0</v>
-      </c>
-      <c r="BA210">
-        <v>0</v>
-      </c>
-      <c r="BB210">
-        <v>0</v>
-      </c>
-      <c r="BC210">
-        <v>0</v>
-      </c>
-      <c r="BD210">
-        <v>0</v>
-      </c>
-      <c r="BE210">
-        <v>0</v>
-      </c>
-      <c r="BF210">
+      <c r="AX211">
+        <v>0</v>
+      </c>
+      <c r="AY211">
+        <v>0</v>
+      </c>
+      <c r="AZ211">
+        <v>0</v>
+      </c>
+      <c r="BA211">
+        <v>0</v>
+      </c>
+      <c r="BB211">
+        <v>0</v>
+      </c>
+      <c r="BC211">
+        <v>0</v>
+      </c>
+      <c r="BD211">
+        <v>0</v>
+      </c>
+      <c r="BE211">
+        <v>0</v>
+      </c>
+      <c r="BF211">
         <v>6</v>
       </c>
-      <c r="BG210">
-        <v>3</v>
-      </c>
-      <c r="BH210">
+      <c r="BG211">
+        <v>3</v>
+      </c>
+      <c r="BH211">
         <v>5</v>
       </c>
-      <c r="BI210">
+      <c r="BI211">
         <v>7</v>
       </c>
-      <c r="BJ210">
+      <c r="BJ211">
         <v>11</v>
       </c>
-      <c r="BK210">
+      <c r="BK211">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,12 @@
     <t>['23', '64']</t>
   </si>
   <si>
+    <t>['2', '90+4']</t>
+  </si>
+  <si>
+    <t>['28', '88']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -1266,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1516,7 @@
         <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -2083,7 +2089,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2465,7 +2471,7 @@
         <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2656,7 +2662,7 @@
         <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2847,7 +2853,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3038,7 +3044,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -3611,7 +3617,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3802,7 +3808,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3993,7 +3999,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4375,7 +4381,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4948,7 +4954,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5330,7 +5336,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5521,7 +5527,7 @@
         <v>111</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -5712,7 +5718,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5903,7 +5909,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6372,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT27">
         <v>3</v>
@@ -6476,7 +6482,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6563,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT28">
         <v>1.71</v>
@@ -6858,7 +6864,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6948,7 +6954,7 @@
         <v>2.29</v>
       </c>
       <c r="AT30">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU30">
         <v>1.21</v>
@@ -7240,7 +7246,7 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7431,7 +7437,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7813,7 +7819,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q35">
         <v>11</v>
@@ -8195,7 +8201,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8386,7 +8392,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8768,7 +8774,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9150,7 +9156,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9532,7 +9538,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -10383,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>0.86</v>
@@ -10487,7 +10493,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11442,7 +11448,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11824,7 +11830,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12015,7 +12021,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12487,7 +12493,7 @@
         <v>1.57</v>
       </c>
       <c r="AT59">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU59">
         <v>1.1</v>
@@ -13543,7 +13549,7 @@
         <v>100</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13734,7 +13740,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13925,7 +13931,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14012,7 +14018,7 @@
         <v>3</v>
       </c>
       <c r="AS67">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT67">
         <v>2.71</v>
@@ -14116,7 +14122,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14498,7 +14504,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14880,7 +14886,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15262,7 +15268,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15835,7 +15841,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16599,7 +16605,7 @@
         <v>100</v>
       </c>
       <c r="P81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>-1</v>
@@ -16790,7 +16796,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16877,7 +16883,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT82">
         <v>1.71</v>
@@ -17745,7 +17751,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17936,7 +17942,7 @@
         <v>100</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -18214,7 +18220,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT89">
         <v>0.57</v>
@@ -18318,7 +18324,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18408,7 +18414,7 @@
         <v>1.86</v>
       </c>
       <c r="AT90">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU90">
         <v>1.72</v>
@@ -18891,7 +18897,7 @@
         <v>100</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19464,7 +19470,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20228,7 +20234,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20506,7 +20512,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT101">
         <v>1.43</v>
@@ -20610,7 +20616,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20801,7 +20807,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -22138,7 +22144,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>-1</v>
@@ -22520,7 +22526,7 @@
         <v>160</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22711,7 +22717,7 @@
         <v>100</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22902,7 +22908,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23093,7 +23099,7 @@
         <v>100</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -23374,7 +23380,7 @@
         <v>2.57</v>
       </c>
       <c r="AT116">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>1.39</v>
@@ -23475,7 +23481,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23753,7 +23759,7 @@
         <v>1.75</v>
       </c>
       <c r="AS118">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT118">
         <v>1.86</v>
@@ -24048,7 +24054,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24621,7 +24627,7 @@
         <v>168</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -25003,7 +25009,7 @@
         <v>170</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25194,7 +25200,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25385,7 +25391,7 @@
         <v>172</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -26722,7 +26728,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26913,7 +26919,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27104,7 +27110,7 @@
         <v>100</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27764,7 +27770,7 @@
         <v>0.75</v>
       </c>
       <c r="AS139">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -28059,7 +28065,7 @@
         <v>179</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28250,7 +28256,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28632,7 +28638,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29396,7 +29402,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29486,7 +29492,7 @@
         <v>1.29</v>
       </c>
       <c r="AT148">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU148">
         <v>1.47</v>
@@ -29587,7 +29593,7 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29778,7 +29784,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -30542,7 +30548,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30820,7 +30826,7 @@
         <v>0.25</v>
       </c>
       <c r="AS155">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT155">
         <v>0.57</v>
@@ -31306,7 +31312,7 @@
         <v>160</v>
       </c>
       <c r="P158" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -31688,7 +31694,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -32070,7 +32076,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -32157,7 +32163,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT162">
         <v>1</v>
@@ -32452,7 +32458,7 @@
         <v>100</v>
       </c>
       <c r="P164" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33598,7 +33604,7 @@
         <v>100</v>
       </c>
       <c r="P170" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -34171,7 +34177,7 @@
         <v>100</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34362,7 +34368,7 @@
         <v>100</v>
       </c>
       <c r="P174" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34449,7 +34455,7 @@
         <v>2.6</v>
       </c>
       <c r="AS174">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT174">
         <v>2.71</v>
@@ -35126,7 +35132,7 @@
         <v>100</v>
       </c>
       <c r="P178" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q178">
         <v>-1</v>
@@ -35598,7 +35604,7 @@
         <v>2.43</v>
       </c>
       <c r="AT180">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU180">
         <v>1.79</v>
@@ -35890,7 +35896,7 @@
         <v>198</v>
       </c>
       <c r="P182" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36272,7 +36278,7 @@
         <v>200</v>
       </c>
       <c r="P184" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36463,7 +36469,7 @@
         <v>201</v>
       </c>
       <c r="P185" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36654,7 +36660,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36845,7 +36851,7 @@
         <v>202</v>
       </c>
       <c r="P187" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -37418,7 +37424,7 @@
         <v>113</v>
       </c>
       <c r="P190" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37800,7 +37806,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -37991,7 +37997,7 @@
         <v>117</v>
       </c>
       <c r="P193" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38078,7 +38084,7 @@
         <v>0.17</v>
       </c>
       <c r="AS193">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT193">
         <v>0.29</v>
@@ -38373,7 +38379,7 @@
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38564,7 +38570,7 @@
         <v>169</v>
       </c>
       <c r="P196" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -39137,7 +39143,7 @@
         <v>207</v>
       </c>
       <c r="P199" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39901,7 +39907,7 @@
         <v>100</v>
       </c>
       <c r="P203" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -39988,7 +39994,7 @@
         <v>1.67</v>
       </c>
       <c r="AS203">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT203">
         <v>1.86</v>
@@ -40283,7 +40289,7 @@
         <v>172</v>
       </c>
       <c r="P205" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q205">
         <v>9</v>
@@ -40373,7 +40379,7 @@
         <v>0.71</v>
       </c>
       <c r="AT205">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU205">
         <v>1.05</v>
@@ -40856,7 +40862,7 @@
         <v>212</v>
       </c>
       <c r="P208" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41238,7 +41244,7 @@
         <v>171</v>
       </c>
       <c r="P210" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41429,7 +41435,7 @@
         <v>213</v>
       </c>
       <c r="P211" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q211">
         <v>8</v>
@@ -41571,6 +41577,388 @@
       </c>
       <c r="BK211">
         <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>4470788</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45009.40625</v>
+      </c>
+      <c r="F212">
+        <v>16</v>
+      </c>
+      <c r="G212" t="s">
+        <v>91</v>
+      </c>
+      <c r="H212" t="s">
+        <v>94</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>214</v>
+      </c>
+      <c r="P212" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>1.31</v>
+      </c>
+      <c r="AD212">
+        <v>3.97</v>
+      </c>
+      <c r="AE212">
+        <v>6.33</v>
+      </c>
+      <c r="AF212">
+        <v>0</v>
+      </c>
+      <c r="AG212">
+        <v>0</v>
+      </c>
+      <c r="AH212">
+        <v>0</v>
+      </c>
+      <c r="AI212">
+        <v>0</v>
+      </c>
+      <c r="AJ212">
+        <v>1.78</v>
+      </c>
+      <c r="AK212">
+        <v>1.82</v>
+      </c>
+      <c r="AL212">
+        <v>0</v>
+      </c>
+      <c r="AM212">
+        <v>0</v>
+      </c>
+      <c r="AN212">
+        <v>0</v>
+      </c>
+      <c r="AO212">
+        <v>0</v>
+      </c>
+      <c r="AP212">
+        <v>0</v>
+      </c>
+      <c r="AQ212">
+        <v>0.86</v>
+      </c>
+      <c r="AR212">
+        <v>0</v>
+      </c>
+      <c r="AS212">
+        <v>1.13</v>
+      </c>
+      <c r="AT212">
+        <v>0</v>
+      </c>
+      <c r="AU212">
+        <v>1.16</v>
+      </c>
+      <c r="AV212">
+        <v>1.33</v>
+      </c>
+      <c r="AW212">
+        <v>2.49</v>
+      </c>
+      <c r="AX212">
+        <v>0</v>
+      </c>
+      <c r="AY212">
+        <v>0</v>
+      </c>
+      <c r="AZ212">
+        <v>0</v>
+      </c>
+      <c r="BA212">
+        <v>0</v>
+      </c>
+      <c r="BB212">
+        <v>0</v>
+      </c>
+      <c r="BC212">
+        <v>0</v>
+      </c>
+      <c r="BD212">
+        <v>0</v>
+      </c>
+      <c r="BE212">
+        <v>0</v>
+      </c>
+      <c r="BF212">
+        <v>5</v>
+      </c>
+      <c r="BG212">
+        <v>2</v>
+      </c>
+      <c r="BH212">
+        <v>2</v>
+      </c>
+      <c r="BI212">
+        <v>3</v>
+      </c>
+      <c r="BJ212">
+        <v>7</v>
+      </c>
+      <c r="BK212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>4470787</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45009.42708333334</v>
+      </c>
+      <c r="F213">
+        <v>16</v>
+      </c>
+      <c r="G213" t="s">
+        <v>90</v>
+      </c>
+      <c r="H213" t="s">
+        <v>73</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>215</v>
+      </c>
+      <c r="P213" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q213">
+        <v>4</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>6</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
+        <v>4.77</v>
+      </c>
+      <c r="AD213">
+        <v>2.95</v>
+      </c>
+      <c r="AE213">
+        <v>1.66</v>
+      </c>
+      <c r="AF213">
+        <v>0</v>
+      </c>
+      <c r="AG213">
+        <v>0</v>
+      </c>
+      <c r="AH213">
+        <v>1.53</v>
+      </c>
+      <c r="AI213">
+        <v>2.35</v>
+      </c>
+      <c r="AJ213">
+        <v>2.46</v>
+      </c>
+      <c r="AK213">
+        <v>1.42</v>
+      </c>
+      <c r="AL213">
+        <v>0</v>
+      </c>
+      <c r="AM213">
+        <v>0</v>
+      </c>
+      <c r="AN213">
+        <v>0</v>
+      </c>
+      <c r="AO213">
+        <v>0</v>
+      </c>
+      <c r="AP213">
+        <v>0</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>1.71</v>
+      </c>
+      <c r="AS213">
+        <v>1.25</v>
+      </c>
+      <c r="AT213">
+        <v>1.5</v>
+      </c>
+      <c r="AU213">
+        <v>1.21</v>
+      </c>
+      <c r="AV213">
+        <v>1.45</v>
+      </c>
+      <c r="AW213">
+        <v>2.66</v>
+      </c>
+      <c r="AX213">
+        <v>0</v>
+      </c>
+      <c r="AY213">
+        <v>0</v>
+      </c>
+      <c r="AZ213">
+        <v>0</v>
+      </c>
+      <c r="BA213">
+        <v>0</v>
+      </c>
+      <c r="BB213">
+        <v>0</v>
+      </c>
+      <c r="BC213">
+        <v>0</v>
+      </c>
+      <c r="BD213">
+        <v>0</v>
+      </c>
+      <c r="BE213">
+        <v>0</v>
+      </c>
+      <c r="BF213">
+        <v>2</v>
+      </c>
+      <c r="BG213">
+        <v>3</v>
+      </c>
+      <c r="BH213">
+        <v>2</v>
+      </c>
+      <c r="BI213">
+        <v>2</v>
+      </c>
+      <c r="BJ213">
+        <v>4</v>
+      </c>
+      <c r="BK213">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,9 @@
     <t>['28', '88']</t>
   </si>
   <si>
+    <t>['52', '62']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -911,6 +914,18 @@
   </si>
   <si>
     <t>['3', '36', '77']</t>
+  </si>
+  <si>
+    <t>['15', '47']</t>
+  </si>
+  <si>
+    <t>['32', '45+1', '78']</t>
+  </si>
+  <si>
+    <t>['38', '90+6']</t>
+  </si>
+  <si>
+    <t>['22', '84']</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK213"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1531,7 @@
         <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -2089,7 +2104,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2471,7 +2486,7 @@
         <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2662,7 +2677,7 @@
         <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2853,7 +2868,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3044,7 +3059,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -3617,7 +3632,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3808,7 +3823,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3999,7 +4014,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4086,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT15">
         <v>0.86</v>
@@ -4280,7 +4295,7 @@
         <v>1.86</v>
       </c>
       <c r="AT16">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4381,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4471,7 +4486,7 @@
         <v>1.71</v>
       </c>
       <c r="AT17">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4662,7 +4677,7 @@
         <v>0.57</v>
       </c>
       <c r="AT18">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4850,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>1.29</v>
@@ -4954,7 +4969,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5044,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AT20">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5232,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -5336,7 +5351,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5423,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
         <v>0.57</v>
@@ -5527,7 +5542,7 @@
         <v>111</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -5614,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT23">
         <v>1.43</v>
@@ -5718,7 +5733,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5805,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5909,7 +5924,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5996,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT25">
         <v>1.43</v>
@@ -6190,7 +6205,7 @@
         <v>2.57</v>
       </c>
       <c r="AT26">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6482,7 +6497,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6864,7 +6879,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7246,7 +7261,7 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7437,7 +7452,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7819,7 +7834,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>11</v>
@@ -8201,7 +8216,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8392,7 +8407,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8774,7 +8789,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9156,7 +9171,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9538,7 +9553,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9628,7 +9643,7 @@
         <v>0.57</v>
       </c>
       <c r="AT44">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU44">
         <v>1.41</v>
@@ -10007,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT46">
         <v>0</v>
@@ -10198,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT47">
         <v>1.71</v>
@@ -10392,7 +10407,7 @@
         <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU48">
         <v>1.24</v>
@@ -10493,7 +10508,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10580,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT49">
         <v>0.86</v>
@@ -10771,10 +10786,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU50">
         <v>2.18</v>
@@ -10965,7 +10980,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>0.55</v>
@@ -11153,10 +11168,10 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT52">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU52">
         <v>1.7</v>
@@ -11347,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="AT53">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU53">
         <v>1.31</v>
@@ -11448,7 +11463,7 @@
         <v>125</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11535,7 +11550,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT54">
         <v>0.71</v>
@@ -11830,7 +11845,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12021,7 +12036,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -13549,7 +13564,7 @@
         <v>100</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13740,7 +13755,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13827,7 +13842,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>1.86</v>
@@ -13931,7 +13946,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14122,7 +14137,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14504,7 +14519,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14886,7 +14901,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15268,7 +15283,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15546,10 +15561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT75">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU75">
         <v>1.54</v>
@@ -15841,7 +15856,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15928,10 +15943,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.06</v>
@@ -16122,7 +16137,7 @@
         <v>2.29</v>
       </c>
       <c r="AT78">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16501,7 +16516,7 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT80">
         <v>1.71</v>
@@ -16605,7 +16620,7 @@
         <v>100</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>-1</v>
@@ -16796,7 +16811,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16886,7 +16901,7 @@
         <v>1.25</v>
       </c>
       <c r="AT82">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -17077,7 +17092,7 @@
         <v>0.57</v>
       </c>
       <c r="AT83">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU83">
         <v>0.54</v>
@@ -17456,7 +17471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT85">
         <v>0.71</v>
@@ -17751,7 +17766,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17838,7 +17853,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT87">
         <v>0.57</v>
@@ -17942,7 +17957,7 @@
         <v>100</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -18029,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -18324,7 +18339,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18897,7 +18912,7 @@
         <v>100</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18987,7 +19002,7 @@
         <v>1.71</v>
       </c>
       <c r="AT93">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU93">
         <v>1.26</v>
@@ -19175,7 +19190,7 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT94">
         <v>0.86</v>
@@ -19470,7 +19485,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20234,7 +20249,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20324,7 +20339,7 @@
         <v>0.57</v>
       </c>
       <c r="AT100">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU100">
         <v>0.87</v>
@@ -20616,7 +20631,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20703,7 +20718,7 @@
         <v>2</v>
       </c>
       <c r="AS102">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT102">
         <v>1.71</v>
@@ -20807,7 +20822,7 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21085,7 +21100,7 @@
         <v>2.33</v>
       </c>
       <c r="AS104">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT104">
         <v>1.86</v>
@@ -21470,7 +21485,7 @@
         <v>2.29</v>
       </c>
       <c r="AT106">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU106">
         <v>1.31</v>
@@ -21661,7 +21676,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU107">
         <v>1.24</v>
@@ -21849,7 +21864,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT108">
         <v>1.71</v>
@@ -22144,7 +22159,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>-1</v>
@@ -22526,7 +22541,7 @@
         <v>160</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22717,7 +22732,7 @@
         <v>100</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22804,7 +22819,7 @@
         <v>3</v>
       </c>
       <c r="AS113">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT113">
         <v>2.71</v>
@@ -22908,7 +22923,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23099,7 +23114,7 @@
         <v>100</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -23481,7 +23496,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -24054,7 +24069,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24144,7 +24159,7 @@
         <v>1.57</v>
       </c>
       <c r="AT120">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU120">
         <v>1.37</v>
@@ -24523,7 +24538,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT122">
         <v>0.71</v>
@@ -24627,7 +24642,7 @@
         <v>168</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24714,7 +24729,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT123">
         <v>1.43</v>
@@ -24905,7 +24920,7 @@
         <v>0.25</v>
       </c>
       <c r="AS124">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT124">
         <v>0.29</v>
@@ -25009,7 +25024,7 @@
         <v>170</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25200,7 +25215,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25290,7 +25305,7 @@
         <v>0.86</v>
       </c>
       <c r="AT126">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -25391,7 +25406,7 @@
         <v>172</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25481,7 +25496,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU127">
         <v>0.97</v>
@@ -26245,7 +26260,7 @@
         <v>1.14</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU131">
         <v>1.45</v>
@@ -26728,7 +26743,7 @@
         <v>175</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26818,7 +26833,7 @@
         <v>1.57</v>
       </c>
       <c r="AT134">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU134">
         <v>1.21</v>
@@ -26919,7 +26934,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27110,7 +27125,7 @@
         <v>100</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27197,7 +27212,7 @@
         <v>1.75</v>
       </c>
       <c r="AS136">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT136">
         <v>1.86</v>
@@ -27388,7 +27403,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT137">
         <v>1.43</v>
@@ -27582,7 +27597,7 @@
         <v>1.71</v>
       </c>
       <c r="AT138">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU138">
         <v>1.26</v>
@@ -28065,7 +28080,7 @@
         <v>179</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28256,7 +28271,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28343,7 +28358,7 @@
         <v>0.4</v>
       </c>
       <c r="AS142">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT142">
         <v>0.71</v>
@@ -28638,7 +28653,7 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>4</v>
@@ -29107,7 +29122,7 @@
         <v>0.2</v>
       </c>
       <c r="AS146">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT146">
         <v>0.29</v>
@@ -29402,7 +29417,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29489,7 +29504,7 @@
         <v>1.5</v>
       </c>
       <c r="AS148">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT148">
         <v>1.5</v>
@@ -29593,7 +29608,7 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29680,7 +29695,7 @@
         <v>3</v>
       </c>
       <c r="AS149">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT149">
         <v>3</v>
@@ -29784,7 +29799,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -29874,7 +29889,7 @@
         <v>0.43</v>
       </c>
       <c r="AT150">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU150">
         <v>1.44</v>
@@ -30253,7 +30268,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30447,7 +30462,7 @@
         <v>0.43</v>
       </c>
       <c r="AT153">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU153">
         <v>1.05</v>
@@ -30548,7 +30563,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30638,7 +30653,7 @@
         <v>3</v>
       </c>
       <c r="AT154">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU154">
         <v>1.47</v>
@@ -31312,7 +31327,7 @@
         <v>160</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -31590,7 +31605,7 @@
         <v>0.8</v>
       </c>
       <c r="AS159">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT159">
         <v>0.57</v>
@@ -31694,7 +31709,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -32076,7 +32091,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -32357,7 +32372,7 @@
         <v>1</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU163">
         <v>1.04</v>
@@ -32458,7 +32473,7 @@
         <v>100</v>
       </c>
       <c r="P164" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33118,7 +33133,7 @@
         <v>1.2</v>
       </c>
       <c r="AS167">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT167">
         <v>0.86</v>
@@ -33604,7 +33619,7 @@
         <v>100</v>
       </c>
       <c r="P170" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -33691,7 +33706,7 @@
         <v>0.8</v>
       </c>
       <c r="AS170">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT170">
         <v>1</v>
@@ -34073,7 +34088,7 @@
         <v>1.8</v>
       </c>
       <c r="AS172">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT172">
         <v>1.43</v>
@@ -34177,7 +34192,7 @@
         <v>100</v>
       </c>
       <c r="P173" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34267,7 +34282,7 @@
         <v>0.43</v>
       </c>
       <c r="AT173">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU173">
         <v>1</v>
@@ -34368,7 +34383,7 @@
         <v>100</v>
       </c>
       <c r="P174" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34458,7 +34473,7 @@
         <v>1.13</v>
       </c>
       <c r="AT174">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU174">
         <v>1.1</v>
@@ -34646,10 +34661,10 @@
         <v>1.4</v>
       </c>
       <c r="AS175">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT175">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU175">
         <v>1.35</v>
@@ -35132,7 +35147,7 @@
         <v>100</v>
       </c>
       <c r="P178" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q178">
         <v>-1</v>
@@ -35410,10 +35425,10 @@
         <v>0.8</v>
       </c>
       <c r="AS179">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT179">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU179">
         <v>1.12</v>
@@ -35601,7 +35616,7 @@
         <v>1.8</v>
       </c>
       <c r="AS180">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT180">
         <v>1.5</v>
@@ -35896,7 +35911,7 @@
         <v>198</v>
       </c>
       <c r="P182" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -35986,7 +36001,7 @@
         <v>0.43</v>
       </c>
       <c r="AT182">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU182">
         <v>1.21</v>
@@ -36278,7 +36293,7 @@
         <v>200</v>
       </c>
       <c r="P184" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36469,7 +36484,7 @@
         <v>201</v>
       </c>
       <c r="P185" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36660,7 +36675,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36851,7 +36866,7 @@
         <v>202</v>
       </c>
       <c r="P187" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -36938,7 +36953,7 @@
         <v>0.83</v>
       </c>
       <c r="AS187">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT187">
         <v>0.71</v>
@@ -37424,7 +37439,7 @@
         <v>113</v>
       </c>
       <c r="P190" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37806,7 +37821,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -37997,7 +38012,7 @@
         <v>117</v>
       </c>
       <c r="P193" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38379,7 +38394,7 @@
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38570,7 +38585,7 @@
         <v>169</v>
       </c>
       <c r="P196" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -39039,10 +39054,10 @@
         <v>1.33</v>
       </c>
       <c r="AS198">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT198">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU198">
         <v>1.4</v>
@@ -39143,7 +39158,7 @@
         <v>207</v>
       </c>
       <c r="P199" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q199">
         <v>2</v>
@@ -39233,7 +39248,7 @@
         <v>1.86</v>
       </c>
       <c r="AT199">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU199">
         <v>1.13</v>
@@ -39612,7 +39627,7 @@
         <v>1</v>
       </c>
       <c r="AS201">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT201">
         <v>0.86</v>
@@ -39803,7 +39818,7 @@
         <v>1.5</v>
       </c>
       <c r="AS202">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT202">
         <v>1.43</v>
@@ -39907,7 +39922,7 @@
         <v>100</v>
       </c>
       <c r="P203" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -39997,7 +40012,7 @@
         <v>1.13</v>
       </c>
       <c r="AT203">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU203">
         <v>1.2</v>
@@ -40188,7 +40203,7 @@
         <v>2.57</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU204">
         <v>1.63</v>
@@ -40289,7 +40304,7 @@
         <v>172</v>
       </c>
       <c r="P205" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q205">
         <v>9</v>
@@ -40376,7 +40391,7 @@
         <v>1.5</v>
       </c>
       <c r="AS205">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT205">
         <v>1.5</v>
@@ -40758,10 +40773,10 @@
         <v>2</v>
       </c>
       <c r="AS207">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT207">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU207">
         <v>1.17</v>
@@ -40862,7 +40877,7 @@
         <v>212</v>
       </c>
       <c r="P208" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41244,7 +41259,7 @@
         <v>171</v>
       </c>
       <c r="P210" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41331,7 +41346,7 @@
         <v>1.33</v>
       </c>
       <c r="AS210">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT210">
         <v>1.29</v>
@@ -41435,7 +41450,7 @@
         <v>213</v>
       </c>
       <c r="P211" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q211">
         <v>8</v>
@@ -41525,7 +41540,7 @@
         <v>2.57</v>
       </c>
       <c r="AT211">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU211">
         <v>1.45</v>
@@ -41626,16 +41641,16 @@
         <v>214</v>
       </c>
       <c r="P212" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R212">
         <v>2</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T212">
         <v>0</v>
@@ -41752,22 +41767,22 @@
         <v>0</v>
       </c>
       <c r="BF212">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI212">
         <v>3</v>
       </c>
       <c r="BJ212">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK212">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:63">
@@ -41823,10 +41838,10 @@
         <v>4</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S213">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T213">
         <v>0</v>
@@ -41943,22 +41958,1550 @@
         <v>0</v>
       </c>
       <c r="BF213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH213">
         <v>2</v>
       </c>
       <c r="BI213">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ213">
+        <v>5</v>
+      </c>
+      <c r="BK213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>4470794</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45010.36458333334</v>
+      </c>
+      <c r="F214">
+        <v>16</v>
+      </c>
+      <c r="G214" t="s">
+        <v>82</v>
+      </c>
+      <c r="H214" t="s">
+        <v>66</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>100</v>
+      </c>
+      <c r="P214" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q214">
+        <v>6</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>6</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>5.26</v>
+      </c>
+      <c r="AD214">
+        <v>2.88</v>
+      </c>
+      <c r="AE214">
+        <v>1.75</v>
+      </c>
+      <c r="AF214">
+        <v>0</v>
+      </c>
+      <c r="AG214">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <v>0</v>
+      </c>
+      <c r="AJ214">
+        <v>2.35</v>
+      </c>
+      <c r="AK214">
+        <v>1.55</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>0</v>
+      </c>
+      <c r="AN214">
+        <v>0</v>
+      </c>
+      <c r="AO214">
+        <v>0</v>
+      </c>
+      <c r="AP214">
+        <v>0</v>
+      </c>
+      <c r="AQ214">
+        <v>1.14</v>
+      </c>
+      <c r="AR214">
+        <v>2.71</v>
+      </c>
+      <c r="AS214">
+        <v>1</v>
+      </c>
+      <c r="AT214">
+        <v>2.75</v>
+      </c>
+      <c r="AU214">
+        <v>1.37</v>
+      </c>
+      <c r="AV214">
+        <v>1.31</v>
+      </c>
+      <c r="AW214">
+        <v>2.68</v>
+      </c>
+      <c r="AX214">
+        <v>0</v>
+      </c>
+      <c r="AY214">
+        <v>0</v>
+      </c>
+      <c r="AZ214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>0</v>
+      </c>
+      <c r="BB214">
+        <v>0</v>
+      </c>
+      <c r="BC214">
+        <v>0</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>0</v>
+      </c>
+      <c r="BF214">
         <v>4</v>
       </c>
-      <c r="BK213">
+      <c r="BG214">
+        <v>0</v>
+      </c>
+      <c r="BH214">
+        <v>4</v>
+      </c>
+      <c r="BI214">
+        <v>4</v>
+      </c>
+      <c r="BJ214">
+        <v>8</v>
+      </c>
+      <c r="BK214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>4470800</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45011.36458333334</v>
+      </c>
+      <c r="F215">
+        <v>16</v>
+      </c>
+      <c r="G215" t="s">
+        <v>85</v>
+      </c>
+      <c r="H215" t="s">
+        <v>71</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215" t="s">
+        <v>100</v>
+      </c>
+      <c r="P215" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q215">
+        <v>4</v>
+      </c>
+      <c r="R215">
+        <v>1</v>
+      </c>
+      <c r="S215">
         <v>5</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>1.83</v>
+      </c>
+      <c r="AD215">
+        <v>2.85</v>
+      </c>
+      <c r="AE215">
+        <v>3.99</v>
+      </c>
+      <c r="AF215">
+        <v>0</v>
+      </c>
+      <c r="AG215">
+        <v>0</v>
+      </c>
+      <c r="AH215">
+        <v>0</v>
+      </c>
+      <c r="AI215">
+        <v>0</v>
+      </c>
+      <c r="AJ215">
+        <v>2.41</v>
+      </c>
+      <c r="AK215">
+        <v>1.5</v>
+      </c>
+      <c r="AL215">
+        <v>0</v>
+      </c>
+      <c r="AM215">
+        <v>0</v>
+      </c>
+      <c r="AN215">
+        <v>0</v>
+      </c>
+      <c r="AO215">
+        <v>0</v>
+      </c>
+      <c r="AP215">
+        <v>0</v>
+      </c>
+      <c r="AQ215">
+        <v>2.43</v>
+      </c>
+      <c r="AR215">
+        <v>1</v>
+      </c>
+      <c r="AS215">
+        <v>2.25</v>
+      </c>
+      <c r="AT215">
+        <v>1</v>
+      </c>
+      <c r="AU215">
+        <v>1.55</v>
+      </c>
+      <c r="AV215">
+        <v>1.31</v>
+      </c>
+      <c r="AW215">
+        <v>2.86</v>
+      </c>
+      <c r="AX215">
+        <v>0</v>
+      </c>
+      <c r="AY215">
+        <v>0</v>
+      </c>
+      <c r="AZ215">
+        <v>0</v>
+      </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>0</v>
+      </c>
+      <c r="BD215">
+        <v>0</v>
+      </c>
+      <c r="BE215">
+        <v>0</v>
+      </c>
+      <c r="BF215">
+        <v>4</v>
+      </c>
+      <c r="BG215">
+        <v>3</v>
+      </c>
+      <c r="BH215">
+        <v>1</v>
+      </c>
+      <c r="BI215">
+        <v>1</v>
+      </c>
+      <c r="BJ215">
+        <v>5</v>
+      </c>
+      <c r="BK215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>4470775</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45011.36458333334</v>
+      </c>
+      <c r="F216">
+        <v>16</v>
+      </c>
+      <c r="G216" t="s">
+        <v>88</v>
+      </c>
+      <c r="H216" t="s">
+        <v>72</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="O216" t="s">
+        <v>100</v>
+      </c>
+      <c r="P216" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q216">
+        <v>6</v>
+      </c>
+      <c r="R216">
+        <v>1</v>
+      </c>
+      <c r="S216">
+        <v>7</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+      <c r="AB216">
+        <v>0</v>
+      </c>
+      <c r="AC216">
+        <v>1.73</v>
+      </c>
+      <c r="AD216">
+        <v>3.25</v>
+      </c>
+      <c r="AE216">
+        <v>4.33</v>
+      </c>
+      <c r="AF216">
+        <v>0</v>
+      </c>
+      <c r="AG216">
+        <v>0</v>
+      </c>
+      <c r="AH216">
+        <v>0</v>
+      </c>
+      <c r="AI216">
+        <v>0</v>
+      </c>
+      <c r="AJ216">
+        <v>2.2</v>
+      </c>
+      <c r="AK216">
+        <v>1.53</v>
+      </c>
+      <c r="AL216">
+        <v>0</v>
+      </c>
+      <c r="AM216">
+        <v>0</v>
+      </c>
+      <c r="AN216">
+        <v>0</v>
+      </c>
+      <c r="AO216">
+        <v>0</v>
+      </c>
+      <c r="AP216">
+        <v>0</v>
+      </c>
+      <c r="AQ216">
+        <v>1.14</v>
+      </c>
+      <c r="AR216">
+        <v>1</v>
+      </c>
+      <c r="AS216">
+        <v>1</v>
+      </c>
+      <c r="AT216">
+        <v>1.25</v>
+      </c>
+      <c r="AU216">
+        <v>1.26</v>
+      </c>
+      <c r="AV216">
+        <v>0.74</v>
+      </c>
+      <c r="AW216">
+        <v>2</v>
+      </c>
+      <c r="AX216">
+        <v>0</v>
+      </c>
+      <c r="AY216">
+        <v>0</v>
+      </c>
+      <c r="AZ216">
+        <v>0</v>
+      </c>
+      <c r="BA216">
+        <v>0</v>
+      </c>
+      <c r="BB216">
+        <v>0</v>
+      </c>
+      <c r="BC216">
+        <v>0</v>
+      </c>
+      <c r="BD216">
+        <v>0</v>
+      </c>
+      <c r="BE216">
+        <v>0</v>
+      </c>
+      <c r="BF216">
+        <v>3</v>
+      </c>
+      <c r="BG216">
+        <v>2</v>
+      </c>
+      <c r="BH216">
+        <v>8</v>
+      </c>
+      <c r="BI216">
+        <v>1</v>
+      </c>
+      <c r="BJ216">
+        <v>11</v>
+      </c>
+      <c r="BK216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>4470777</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45011.36458333334</v>
+      </c>
+      <c r="F217">
+        <v>16</v>
+      </c>
+      <c r="G217" t="s">
+        <v>87</v>
+      </c>
+      <c r="H217" t="s">
+        <v>74</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>2</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>3</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>100</v>
+      </c>
+      <c r="P217" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q217">
+        <v>4</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>6</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <v>0</v>
+      </c>
+      <c r="AC217">
+        <v>6.89</v>
+      </c>
+      <c r="AD217">
+        <v>3.83</v>
+      </c>
+      <c r="AE217">
+        <v>1.34</v>
+      </c>
+      <c r="AF217">
+        <v>0</v>
+      </c>
+      <c r="AG217">
+        <v>0</v>
+      </c>
+      <c r="AH217">
+        <v>0</v>
+      </c>
+      <c r="AI217">
+        <v>0</v>
+      </c>
+      <c r="AJ217">
+        <v>2.23</v>
+      </c>
+      <c r="AK217">
+        <v>1.58</v>
+      </c>
+      <c r="AL217">
+        <v>0</v>
+      </c>
+      <c r="AM217">
+        <v>0</v>
+      </c>
+      <c r="AN217">
+        <v>0</v>
+      </c>
+      <c r="AO217">
+        <v>0</v>
+      </c>
+      <c r="AP217">
+        <v>0</v>
+      </c>
+      <c r="AQ217">
+        <v>1.29</v>
+      </c>
+      <c r="AR217">
+        <v>1.71</v>
+      </c>
+      <c r="AS217">
+        <v>1.13</v>
+      </c>
+      <c r="AT217">
+        <v>1.88</v>
+      </c>
+      <c r="AU217">
+        <v>1.29</v>
+      </c>
+      <c r="AV217">
+        <v>1.43</v>
+      </c>
+      <c r="AW217">
+        <v>2.72</v>
+      </c>
+      <c r="AX217">
+        <v>0</v>
+      </c>
+      <c r="AY217">
+        <v>0</v>
+      </c>
+      <c r="AZ217">
+        <v>0</v>
+      </c>
+      <c r="BA217">
+        <v>0</v>
+      </c>
+      <c r="BB217">
+        <v>0</v>
+      </c>
+      <c r="BC217">
+        <v>0</v>
+      </c>
+      <c r="BD217">
+        <v>0</v>
+      </c>
+      <c r="BE217">
+        <v>0</v>
+      </c>
+      <c r="BF217">
+        <v>3</v>
+      </c>
+      <c r="BG217">
+        <v>6</v>
+      </c>
+      <c r="BH217">
+        <v>1</v>
+      </c>
+      <c r="BI217">
+        <v>6</v>
+      </c>
+      <c r="BJ217">
+        <v>4</v>
+      </c>
+      <c r="BK217">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>4470780</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45011.36458333334</v>
+      </c>
+      <c r="F218">
+        <v>16</v>
+      </c>
+      <c r="G218" t="s">
+        <v>78</v>
+      </c>
+      <c r="H218" t="s">
+        <v>75</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>216</v>
+      </c>
+      <c r="P218" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q218">
+        <v>3</v>
+      </c>
+      <c r="R218">
+        <v>1</v>
+      </c>
+      <c r="S218">
+        <v>4</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+      <c r="AB218">
+        <v>0</v>
+      </c>
+      <c r="AC218">
+        <v>1.75</v>
+      </c>
+      <c r="AD218">
+        <v>3.3</v>
+      </c>
+      <c r="AE218">
+        <v>4.2</v>
+      </c>
+      <c r="AF218">
+        <v>0</v>
+      </c>
+      <c r="AG218">
+        <v>0</v>
+      </c>
+      <c r="AH218">
+        <v>1.44</v>
+      </c>
+      <c r="AI218">
+        <v>2.4</v>
+      </c>
+      <c r="AJ218">
+        <v>2.33</v>
+      </c>
+      <c r="AK218">
+        <v>1.54</v>
+      </c>
+      <c r="AL218">
+        <v>0</v>
+      </c>
+      <c r="AM218">
+        <v>0</v>
+      </c>
+      <c r="AN218">
+        <v>0</v>
+      </c>
+      <c r="AO218">
+        <v>0</v>
+      </c>
+      <c r="AP218">
+        <v>0</v>
+      </c>
+      <c r="AQ218">
+        <v>2.43</v>
+      </c>
+      <c r="AR218">
+        <v>0.86</v>
+      </c>
+      <c r="AS218">
+        <v>2.5</v>
+      </c>
+      <c r="AT218">
+        <v>0.75</v>
+      </c>
+      <c r="AU218">
+        <v>1.77</v>
+      </c>
+      <c r="AV218">
+        <v>1.02</v>
+      </c>
+      <c r="AW218">
+        <v>2.79</v>
+      </c>
+      <c r="AX218">
+        <v>0</v>
+      </c>
+      <c r="AY218">
+        <v>0</v>
+      </c>
+      <c r="AZ218">
+        <v>0</v>
+      </c>
+      <c r="BA218">
+        <v>0</v>
+      </c>
+      <c r="BB218">
+        <v>0</v>
+      </c>
+      <c r="BC218">
+        <v>0</v>
+      </c>
+      <c r="BD218">
+        <v>0</v>
+      </c>
+      <c r="BE218">
+        <v>0</v>
+      </c>
+      <c r="BF218">
+        <v>5</v>
+      </c>
+      <c r="BG218">
+        <v>2</v>
+      </c>
+      <c r="BH218">
+        <v>1</v>
+      </c>
+      <c r="BI218">
+        <v>1</v>
+      </c>
+      <c r="BJ218">
+        <v>6</v>
+      </c>
+      <c r="BK218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>4470784</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45011.36458333334</v>
+      </c>
+      <c r="F219">
+        <v>16</v>
+      </c>
+      <c r="G219" t="s">
+        <v>86</v>
+      </c>
+      <c r="H219" t="s">
+        <v>68</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>100</v>
+      </c>
+      <c r="P219" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q219">
+        <v>1</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>3</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+      <c r="AC219">
+        <v>11</v>
+      </c>
+      <c r="AD219">
+        <v>4.5</v>
+      </c>
+      <c r="AE219">
+        <v>1.25</v>
+      </c>
+      <c r="AF219">
+        <v>0</v>
+      </c>
+      <c r="AG219">
+        <v>0</v>
+      </c>
+      <c r="AH219">
+        <v>0</v>
+      </c>
+      <c r="AI219">
+        <v>0</v>
+      </c>
+      <c r="AJ219">
+        <v>1.71</v>
+      </c>
+      <c r="AK219">
+        <v>1.8</v>
+      </c>
+      <c r="AL219">
+        <v>0</v>
+      </c>
+      <c r="AM219">
+        <v>0</v>
+      </c>
+      <c r="AN219">
+        <v>0</v>
+      </c>
+      <c r="AO219">
+        <v>0</v>
+      </c>
+      <c r="AP219">
+        <v>0</v>
+      </c>
+      <c r="AQ219">
+        <v>0.71</v>
+      </c>
+      <c r="AR219">
+        <v>3</v>
+      </c>
+      <c r="AS219">
+        <v>0.63</v>
+      </c>
+      <c r="AT219">
+        <v>3</v>
+      </c>
+      <c r="AU219">
+        <v>1.08</v>
+      </c>
+      <c r="AV219">
+        <v>1.48</v>
+      </c>
+      <c r="AW219">
+        <v>2.56</v>
+      </c>
+      <c r="AX219">
+        <v>0</v>
+      </c>
+      <c r="AY219">
+        <v>0</v>
+      </c>
+      <c r="AZ219">
+        <v>0</v>
+      </c>
+      <c r="BA219">
+        <v>0</v>
+      </c>
+      <c r="BB219">
+        <v>0</v>
+      </c>
+      <c r="BC219">
+        <v>0</v>
+      </c>
+      <c r="BD219">
+        <v>0</v>
+      </c>
+      <c r="BE219">
+        <v>0</v>
+      </c>
+      <c r="BF219">
+        <v>0</v>
+      </c>
+      <c r="BG219">
+        <v>4</v>
+      </c>
+      <c r="BH219">
+        <v>6</v>
+      </c>
+      <c r="BI219">
+        <v>1</v>
+      </c>
+      <c r="BJ219">
+        <v>6</v>
+      </c>
+      <c r="BK219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>4470790</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45011.36458333334</v>
+      </c>
+      <c r="F220">
+        <v>16</v>
+      </c>
+      <c r="G220" t="s">
+        <v>84</v>
+      </c>
+      <c r="H220" t="s">
+        <v>76</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220" t="s">
+        <v>100</v>
+      </c>
+      <c r="P220" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q220">
+        <v>6</v>
+      </c>
+      <c r="R220">
+        <v>5</v>
+      </c>
+      <c r="S220">
+        <v>11</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+      <c r="AC220">
+        <v>1.82</v>
+      </c>
+      <c r="AD220">
+        <v>3.15</v>
+      </c>
+      <c r="AE220">
+        <v>3.95</v>
+      </c>
+      <c r="AF220">
+        <v>0</v>
+      </c>
+      <c r="AG220">
+        <v>0</v>
+      </c>
+      <c r="AH220">
+        <v>0</v>
+      </c>
+      <c r="AI220">
+        <v>0</v>
+      </c>
+      <c r="AJ220">
+        <v>2.32</v>
+      </c>
+      <c r="AK220">
+        <v>1.54</v>
+      </c>
+      <c r="AL220">
+        <v>0</v>
+      </c>
+      <c r="AM220">
+        <v>0</v>
+      </c>
+      <c r="AN220">
+        <v>0</v>
+      </c>
+      <c r="AO220">
+        <v>0</v>
+      </c>
+      <c r="AP220">
+        <v>0</v>
+      </c>
+      <c r="AQ220">
+        <v>2.43</v>
+      </c>
+      <c r="AR220">
+        <v>1.86</v>
+      </c>
+      <c r="AS220">
+        <v>2.25</v>
+      </c>
+      <c r="AT220">
+        <v>1.75</v>
+      </c>
+      <c r="AU220">
+        <v>1.23</v>
+      </c>
+      <c r="AV220">
+        <v>0.96</v>
+      </c>
+      <c r="AW220">
+        <v>2.19</v>
+      </c>
+      <c r="AX220">
+        <v>0</v>
+      </c>
+      <c r="AY220">
+        <v>0</v>
+      </c>
+      <c r="AZ220">
+        <v>0</v>
+      </c>
+      <c r="BA220">
+        <v>0</v>
+      </c>
+      <c r="BB220">
+        <v>0</v>
+      </c>
+      <c r="BC220">
+        <v>0</v>
+      </c>
+      <c r="BD220">
+        <v>0</v>
+      </c>
+      <c r="BE220">
+        <v>0</v>
+      </c>
+      <c r="BF220">
+        <v>6</v>
+      </c>
+      <c r="BG220">
+        <v>3</v>
+      </c>
+      <c r="BH220">
+        <v>1</v>
+      </c>
+      <c r="BI220">
+        <v>4</v>
+      </c>
+      <c r="BJ220">
+        <v>7</v>
+      </c>
+      <c r="BK220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>4470796</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45011.36458333334</v>
+      </c>
+      <c r="F221">
+        <v>16</v>
+      </c>
+      <c r="G221" t="s">
+        <v>83</v>
+      </c>
+      <c r="H221" t="s">
+        <v>69</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>127</v>
+      </c>
+      <c r="P221" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q221">
+        <v>-1</v>
+      </c>
+      <c r="R221">
+        <v>-1</v>
+      </c>
+      <c r="S221">
+        <v>-1</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
+      <c r="AC221">
+        <v>7.5</v>
+      </c>
+      <c r="AD221">
+        <v>4</v>
+      </c>
+      <c r="AE221">
+        <v>1.36</v>
+      </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
+      <c r="AH221">
+        <v>0</v>
+      </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
+      <c r="AJ221">
+        <v>2.14</v>
+      </c>
+      <c r="AK221">
+        <v>1.55</v>
+      </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
+      <c r="AN221">
+        <v>0</v>
+      </c>
+      <c r="AO221">
+        <v>0</v>
+      </c>
+      <c r="AP221">
+        <v>0</v>
+      </c>
+      <c r="AQ221">
+        <v>0</v>
+      </c>
+      <c r="AR221">
+        <v>1.29</v>
+      </c>
+      <c r="AS221">
+        <v>0</v>
+      </c>
+      <c r="AT221">
+        <v>1.5</v>
+      </c>
+      <c r="AU221">
+        <v>1.31</v>
+      </c>
+      <c r="AV221">
+        <v>1.08</v>
+      </c>
+      <c r="AW221">
+        <v>2.39</v>
+      </c>
+      <c r="AX221">
+        <v>0</v>
+      </c>
+      <c r="AY221">
+        <v>0</v>
+      </c>
+      <c r="AZ221">
+        <v>0</v>
+      </c>
+      <c r="BA221">
+        <v>0</v>
+      </c>
+      <c r="BB221">
+        <v>0</v>
+      </c>
+      <c r="BC221">
+        <v>0</v>
+      </c>
+      <c r="BD221">
+        <v>0</v>
+      </c>
+      <c r="BE221">
+        <v>0</v>
+      </c>
+      <c r="BF221">
+        <v>-1</v>
+      </c>
+      <c r="BG221">
+        <v>-1</v>
+      </c>
+      <c r="BH221">
+        <v>-1</v>
+      </c>
+      <c r="BI221">
+        <v>-1</v>
+      </c>
+      <c r="BJ221">
+        <v>-1</v>
+      </c>
+      <c r="BK221">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK250"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>0.5</v>
@@ -1512,7 +1512,7 @@
         <v>0.63</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
@@ -2121,7 +2121,7 @@
         <v>2.13</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.13</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT12" t="n">
         <v>1.25</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU29" t="n">
         <v>1.93</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT32" t="n">
         <v>0.5</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT35" t="n">
         <v>0.38</v>
@@ -8211,7 +8211,7 @@
         <v>1.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU38" t="n">
         <v>1.39</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU56" t="n">
         <v>0.76</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>0.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU60" t="n">
         <v>1.54</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT61" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>0.88</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU65" t="n">
         <v>1.19</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU71" t="n">
         <v>1.12</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT86" t="n">
         <v>1.56</v>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT89" t="n">
         <v>0.5</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
         <v>1.67</v>
@@ -19782,7 +19782,7 @@
         <v>0.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU95" t="n">
         <v>1.54</v>
@@ -19985,7 +19985,7 @@
         <v>0.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU96" t="n">
         <v>1.3</v>
@@ -20594,7 +20594,7 @@
         <v>3</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU99" t="n">
         <v>1.68</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU119" t="n">
         <v>1.46</v>
@@ -25260,7 +25260,7 @@
         <v>2.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT122" t="n">
         <v>2.56</v>
@@ -25669,7 +25669,7 @@
         <v>2</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU124" t="n">
         <v>1.69</v>
@@ -25872,7 +25872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU125" t="n">
         <v>1.01</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>1.56</v>
@@ -28508,7 +28508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT138" t="n">
         <v>1.88</v>
@@ -29120,7 +29120,7 @@
         <v>1.22</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU141" t="n">
         <v>1.35</v>
@@ -29323,7 +29323,7 @@
         <v>2.67</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU142" t="n">
         <v>1.24</v>
@@ -29729,7 +29729,7 @@
         <v>1.75</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -31959,7 +31959,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT155" t="n">
         <v>1.63</v>
@@ -33177,7 +33177,7 @@
         <v>0</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT161" t="n">
         <v>0</v>
@@ -34395,7 +34395,7 @@
         <v>2</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT167" t="n">
         <v>1.88</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU172" t="n">
         <v>1.31</v>
@@ -36022,7 +36022,7 @@
         <v>0.44</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU175" t="n">
         <v>1.49</v>
@@ -37846,7 +37846,7 @@
         <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT184" t="n">
         <v>0.75</v>
@@ -38864,7 +38864,7 @@
         <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU189" t="n">
         <v>1.68</v>
@@ -39673,7 +39673,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT193" t="n">
         <v>0.63</v>
@@ -40079,7 +40079,7 @@
         <v>0.67</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT195" t="n">
         <v>0.88</v>
@@ -40688,7 +40688,7 @@
         <v>1.5</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT198" t="n">
         <v>1.38</v>
@@ -46781,7 +46781,7 @@
         <v>2.38</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU228" t="n">
         <v>1.22</v>
@@ -46981,7 +46981,7 @@
         <v>0.57</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT229" t="n">
         <v>0.5</v>
@@ -47187,7 +47187,7 @@
         <v>1.75</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU230" t="n">
         <v>1.64</v>
@@ -47996,7 +47996,7 @@
         <v>0.57</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT234" t="n">
         <v>0.5</v>
@@ -48405,7 +48405,7 @@
         <v>0.63</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU236" t="n">
         <v>1.07</v>
@@ -50754,13 +50754,13 @@
         </is>
       </c>
       <c r="Q248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R248" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S248" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T248" t="n">
         <v>0</v>
@@ -50880,19 +50880,19 @@
         <v>2</v>
       </c>
       <c r="BG248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH248" t="n">
         <v>3</v>
       </c>
-      <c r="BH248" t="n">
-        <v>2</v>
-      </c>
       <c r="BI248" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK248" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -50957,13 +50957,13 @@
         </is>
       </c>
       <c r="Q249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R249" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S249" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T249" t="n">
         <v>0</v>
@@ -51080,22 +51080,22 @@
         <v>0</v>
       </c>
       <c r="BF249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ249" t="n">
         <v>4</v>
       </c>
-      <c r="BH249" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI249" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ249" t="n">
-        <v>0</v>
-      </c>
       <c r="BK249" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250">
@@ -51160,13 +51160,13 @@
         </is>
       </c>
       <c r="Q250" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R250" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S250" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T250" t="n">
         <v>0</v>
@@ -51283,22 +51283,631 @@
         <v>0</v>
       </c>
       <c r="BF250" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BG250" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH250" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI250" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ250" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="BK250" t="n">
-        <v>-1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4470862</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45023.38541666666</v>
+      </c>
+      <c r="F251" t="n">
+        <v>19</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Makedonikos Neapolis FC</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Almopos</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>7</v>
+      </c>
+      <c r="R251" t="n">
+        <v>3</v>
+      </c>
+      <c r="S251" t="n">
+        <v>10</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0</v>
+      </c>
+      <c r="U251" t="n">
+        <v>0</v>
+      </c>
+      <c r="V251" t="n">
+        <v>0</v>
+      </c>
+      <c r="W251" t="n">
+        <v>0</v>
+      </c>
+      <c r="X251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4470877</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45024.32291666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>19</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Apollon Smirnis</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>1</v>
+      </c>
+      <c r="R252" t="n">
+        <v>4</v>
+      </c>
+      <c r="S252" t="n">
+        <v>5</v>
+      </c>
+      <c r="T252" t="n">
+        <v>0</v>
+      </c>
+      <c r="U252" t="n">
+        <v>0</v>
+      </c>
+      <c r="V252" t="n">
+        <v>0</v>
+      </c>
+      <c r="W252" t="n">
+        <v>0</v>
+      </c>
+      <c r="X252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4470879</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F253" t="n">
+        <v>19</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus II</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>2</v>
+      </c>
+      <c r="R253" t="n">
+        <v>1</v>
+      </c>
+      <c r="S253" t="n">
+        <v>3</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0</v>
+      </c>
+      <c r="W253" t="n">
+        <v>0</v>
+      </c>
+      <c r="X253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT2" t="n">
         <v>1.63</v>
@@ -1309,7 +1309,7 @@
         <v>2.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.75</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>1.88</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
         <v>1.56</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT34" t="n">
         <v>0.75</v>
@@ -7602,7 +7602,7 @@
         <v>1.89</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU35" t="n">
         <v>0.82</v>
@@ -8414,7 +8414,7 @@
         <v>2.63</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5</v>
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>2.75</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT65" t="n">
         <v>1.11</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.53</v>
@@ -15316,7 +15316,7 @@
         <v>2.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU73" t="n">
         <v>1.24</v>
@@ -16534,7 +16534,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU79" t="n">
         <v>1.31</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT88" t="n">
         <v>0.5</v>
@@ -20188,7 +20188,7 @@
         <v>2.63</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU97" t="n">
         <v>1.63</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT98" t="n">
         <v>2.67</v>
@@ -21403,7 +21403,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>1.33</v>
@@ -21609,7 +21609,7 @@
         <v>0</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU104" t="n">
         <v>1.31</v>
@@ -22827,7 +22827,7 @@
         <v>0.44</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU110" t="n">
         <v>1.41</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.37</v>
@@ -25869,7 +25869,7 @@
         <v>1.75</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT125" t="n">
         <v>1.56</v>
@@ -26275,7 +26275,7 @@
         <v>0.33</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT127" t="n">
         <v>0.78</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT131" t="n">
         <v>0</v>
@@ -27902,7 +27902,7 @@
         <v>1.22</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU135" t="n">
         <v>1.45</v>
@@ -28714,7 +28714,7 @@
         <v>2</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU139" t="n">
         <v>1.64</v>
@@ -30947,7 +30947,7 @@
         <v>2.5</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU150" t="n">
         <v>1.62</v>
@@ -31756,7 +31756,7 @@
         <v>0.25</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT154" t="n">
         <v>0.5</v>
@@ -32568,7 +32568,7 @@
         <v>0.6</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT158" t="n">
         <v>0.63</v>
@@ -32977,7 +32977,7 @@
         <v>0.63</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU160" t="n">
         <v>1.16</v>
@@ -33789,7 +33789,7 @@
         <v>2.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU164" t="n">
         <v>1.12</v>
@@ -33989,7 +33989,7 @@
         <v>1.4</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT165" t="n">
         <v>1.22</v>
@@ -36628,7 +36628,7 @@
         <v>2.6</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT178" t="n">
         <v>2.56</v>
@@ -38455,7 +38455,7 @@
         <v>2.67</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT187" t="n">
         <v>2.75</v>
@@ -39470,7 +39470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT192" t="n">
         <v>1.5</v>
@@ -40082,7 +40082,7 @@
         <v>1.89</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU195" t="n">
         <v>1.27</v>
@@ -40285,7 +40285,7 @@
         <v>1.22</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU196" t="n">
         <v>1.32</v>
@@ -40691,7 +40691,7 @@
         <v>2</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU198" t="n">
         <v>1.37</v>
@@ -42312,7 +42312,7 @@
         <v>1.67</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT206" t="n">
         <v>1.56</v>
@@ -42374,7 +42374,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>4470765</v>
+        <v>4470747</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -42394,40 +42394,40 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Irodotos</t>
+          <t>Anagennisi Karditsas</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Episkopi</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
+          <t>['35', '61']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
           <t>[]</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>['87']</t>
         </is>
       </c>
       <c r="Q207" t="n">
@@ -42467,13 +42467,13 @@
         <v>0</v>
       </c>
       <c r="AC207" t="n">
-        <v>2.38</v>
+        <v>1.36</v>
       </c>
       <c r="AD207" t="n">
-        <v>3.15</v>
+        <v>4.56</v>
       </c>
       <c r="AE207" t="n">
-        <v>2.68</v>
+        <v>6.4</v>
       </c>
       <c r="AF207" t="n">
         <v>0</v>
@@ -42482,16 +42482,16 @@
         <v>0</v>
       </c>
       <c r="AH207" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AI207" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AJ207" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="AK207" t="n">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AL207" t="n">
         <v>0</v>
@@ -42509,25 +42509,25 @@
         <v>0</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AR207" t="n">
-        <v>0.17</v>
+        <v>1.17</v>
       </c>
       <c r="AS207" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="AU207" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AV207" t="n">
-        <v>1.17</v>
+        <v>0.74</v>
       </c>
       <c r="AW207" t="n">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="AX207" t="n">
         <v>0</v>
@@ -42780,7 +42780,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>4470749</v>
+        <v>4470765</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -42800,50 +42800,50 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Thesprotos</t>
+          <t>Irodotos</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Episkopi</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N209" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>['39']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>['6', '8', '18', '59']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="R209" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="S209" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="T209" t="n">
         <v>0</v>
@@ -42873,13 +42873,13 @@
         <v>0</v>
       </c>
       <c r="AC209" t="n">
-        <v>5.67</v>
+        <v>2.38</v>
       </c>
       <c r="AD209" t="n">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="AE209" t="n">
-        <v>1.45</v>
+        <v>2.68</v>
       </c>
       <c r="AF209" t="n">
         <v>0</v>
@@ -42888,16 +42888,16 @@
         <v>0</v>
       </c>
       <c r="AH209" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AI209" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AJ209" t="n">
-        <v>2.14</v>
+        <v>2.49</v>
       </c>
       <c r="AK209" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AL209" t="n">
         <v>0</v>
@@ -42915,25 +42915,25 @@
         <v>0</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AR209" t="n">
-        <v>1.5</v>
+        <v>0.17</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AU209" t="n">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="AV209" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AW209" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="AX209" t="n">
         <v>0</v>
@@ -42960,22 +42960,22 @@
         <v>0</v>
       </c>
       <c r="BF209" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG209" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH209" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BI209" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BJ209" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BK209" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -42983,7 +42983,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>4470747</v>
+        <v>4470749</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -43003,50 +43003,50 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Anagennisi Karditsas</t>
+          <t>Thesprotos</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I210" t="n">
         <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N210" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>['35', '61']</t>
+          <t>['39']</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6', '8', '18', '59']</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R210" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S210" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T210" t="n">
         <v>0</v>
@@ -43076,13 +43076,13 @@
         <v>0</v>
       </c>
       <c r="AC210" t="n">
-        <v>1.36</v>
+        <v>5.67</v>
       </c>
       <c r="AD210" t="n">
-        <v>4.56</v>
+        <v>3.28</v>
       </c>
       <c r="AE210" t="n">
-        <v>6.4</v>
+        <v>1.45</v>
       </c>
       <c r="AF210" t="n">
         <v>0</v>
@@ -43097,10 +43097,10 @@
         <v>0</v>
       </c>
       <c r="AJ210" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="AK210" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AL210" t="n">
         <v>0</v>
@@ -43118,25 +43118,25 @@
         <v>0</v>
       </c>
       <c r="AQ210" t="n">
-        <v>2.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR210" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AU210" t="n">
-        <v>1.63</v>
+        <v>1.05</v>
       </c>
       <c r="AV210" t="n">
-        <v>0.74</v>
+        <v>1.42</v>
       </c>
       <c r="AW210" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="AX210" t="n">
         <v>0</v>
@@ -43163,22 +43163,22 @@
         <v>0</v>
       </c>
       <c r="BF210" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG210" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH210" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI210" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ210" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK210" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211">
@@ -43936,7 +43936,7 @@
         <v>0</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT214" t="n">
         <v>0</v>
@@ -44404,7 +44404,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>4470775</v>
+        <v>4470784</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -44424,12 +44424,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Thesprotos</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="I217" t="n">
@@ -44445,10 +44445,10 @@
         <v>0</v>
       </c>
       <c r="M217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -44457,17 +44457,17 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>['37']</t>
+          <t>['38', '90+6']</t>
         </is>
       </c>
       <c r="Q217" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S217" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T217" t="n">
         <v>0</v>
@@ -44497,13 +44497,13 @@
         <v>0</v>
       </c>
       <c r="AC217" t="n">
-        <v>1.73</v>
+        <v>11</v>
       </c>
       <c r="AD217" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="AE217" t="n">
-        <v>4.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF217" t="n">
         <v>0</v>
@@ -44518,10 +44518,10 @@
         <v>0</v>
       </c>
       <c r="AJ217" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="AK217" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AL217" t="n">
         <v>0</v>
@@ -44539,25 +44539,25 @@
         <v>0</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AR217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS217" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.22</v>
+        <v>2.67</v>
       </c>
       <c r="AU217" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AV217" t="n">
-        <v>0.74</v>
+        <v>1.48</v>
       </c>
       <c r="AW217" t="n">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="AX217" t="n">
         <v>0</v>
@@ -44587,19 +44587,19 @@
         <v>3</v>
       </c>
       <c r="BG217" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ217" t="n">
         <v>8</v>
       </c>
-      <c r="BI217" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ217" t="n">
-        <v>11</v>
-      </c>
       <c r="BK217" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218">
@@ -44607,7 +44607,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>4470777</v>
+        <v>4470790</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -44627,31 +44627,31 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Iraklis Larissa</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Larissa</t>
+          <t>Egaleo</t>
         </is>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -44660,149 +44660,149 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>['32', '45+1', '78']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q218" t="n">
+        <v>13</v>
+      </c>
+      <c r="R218" t="n">
+        <v>5</v>
+      </c>
+      <c r="S218" t="n">
+        <v>18</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0</v>
+      </c>
+      <c r="U218" t="n">
+        <v>0</v>
+      </c>
+      <c r="V218" t="n">
+        <v>0</v>
+      </c>
+      <c r="W218" t="n">
+        <v>0</v>
+      </c>
+      <c r="X218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG218" t="n">
         <v>4</v>
       </c>
-      <c r="R218" t="n">
-        <v>2</v>
-      </c>
-      <c r="S218" t="n">
-        <v>6</v>
-      </c>
-      <c r="T218" t="n">
-        <v>0</v>
-      </c>
-      <c r="U218" t="n">
-        <v>0</v>
-      </c>
-      <c r="V218" t="n">
-        <v>0</v>
-      </c>
-      <c r="W218" t="n">
-        <v>0</v>
-      </c>
-      <c r="X218" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y218" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC218" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="AD218" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AE218" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ218" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AK218" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AL218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ218" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR218" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AS218" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AU218" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AV218" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AW218" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AX218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF218" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG218" t="n">
-        <v>6</v>
-      </c>
       <c r="BH218" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI218" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ218" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BK218" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
@@ -44810,7 +44810,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>4470780</v>
+        <v>4470796</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -44830,50 +44830,50 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Irodotos</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Makedonikos Neapolis FC</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>['52', '62']</t>
+          <t>['49']</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22', '84']</t>
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="R219" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S219" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="T219" t="n">
         <v>0</v>
@@ -44903,13 +44903,13 @@
         <v>0</v>
       </c>
       <c r="AC219" t="n">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="AD219" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AE219" t="n">
-        <v>4.2</v>
+        <v>1.36</v>
       </c>
       <c r="AF219" t="n">
         <v>0</v>
@@ -44918,16 +44918,16 @@
         <v>0</v>
       </c>
       <c r="AH219" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AI219" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AJ219" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AK219" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AL219" t="n">
         <v>0</v>
@@ -44945,25 +44945,25 @@
         <v>0</v>
       </c>
       <c r="AQ219" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AR219" t="n">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.78</v>
+        <v>1.67</v>
       </c>
       <c r="AU219" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="AV219" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AW219" t="n">
-        <v>2.79</v>
+        <v>2.39</v>
       </c>
       <c r="AX219" t="n">
         <v>0</v>
@@ -44990,22 +44990,22 @@
         <v>0</v>
       </c>
       <c r="BF219" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BG219" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH219" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BI219" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BJ219" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BK219" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220">
@@ -45013,7 +45013,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>4470800</v>
+        <v>4470775</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -45033,31 +45033,31 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>AOX Kissamikos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220" t="n">
         <v>0</v>
       </c>
       <c r="M220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -45066,149 +45066,149 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['37']</t>
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R220" t="n">
+        <v>1</v>
+      </c>
+      <c r="S220" t="n">
+        <v>7</v>
+      </c>
+      <c r="T220" t="n">
+        <v>0</v>
+      </c>
+      <c r="U220" t="n">
+        <v>0</v>
+      </c>
+      <c r="V220" t="n">
+        <v>0</v>
+      </c>
+      <c r="W220" t="n">
+        <v>0</v>
+      </c>
+      <c r="X220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
         <v>3</v>
       </c>
-      <c r="S220" t="n">
+      <c r="BG220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH220" t="n">
         <v>8</v>
       </c>
-      <c r="T220" t="n">
-        <v>0</v>
-      </c>
-      <c r="U220" t="n">
-        <v>0</v>
-      </c>
-      <c r="V220" t="n">
-        <v>0</v>
-      </c>
-      <c r="W220" t="n">
-        <v>0</v>
-      </c>
-      <c r="X220" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y220" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC220" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD220" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AE220" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AF220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ220" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AK220" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ220" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AR220" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS220" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT220" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU220" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AV220" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW220" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AX220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE220" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF220" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG220" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH220" t="n">
-        <v>1</v>
-      </c>
       <c r="BI220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ220" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK220" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -45216,7 +45216,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>4470796</v>
+        <v>4470800</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -45236,50 +45236,50 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Irodotos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>AOX Kissamikos</t>
         </is>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>5</v>
+      </c>
+      <c r="R221" t="n">
         <v>3</v>
       </c>
-      <c r="O221" t="inlineStr">
-        <is>
-          <t>['49']</t>
-        </is>
-      </c>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>['22', '84']</t>
-        </is>
-      </c>
-      <c r="Q221" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R221" t="n">
-        <v>-1</v>
-      </c>
       <c r="S221" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T221" t="n">
         <v>0</v>
@@ -45309,109 +45309,109 @@
         <v>0</v>
       </c>
       <c r="AC221" t="n">
-        <v>7.5</v>
+        <v>1.83</v>
       </c>
       <c r="AD221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" t="n">
         <v>4</v>
       </c>
-      <c r="AE221" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ221" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AK221" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AL221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR221" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT221" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AU221" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AV221" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AW221" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AX221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ221" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA221" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB221" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC221" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD221" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE221" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF221" t="n">
-        <v>-1</v>
-      </c>
       <c r="BG221" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH221" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI221" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ221" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BK221" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
@@ -45419,7 +45419,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>4470790</v>
+        <v>4470780</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -45439,12 +45439,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Egaleo</t>
+          <t>Makedonikos Neapolis FC</t>
         </is>
       </c>
       <c r="I222" t="n">
@@ -45457,32 +45457,32 @@
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M222" t="n">
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
+          <t>['52', '62']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q222" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S222" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="T222" t="n">
         <v>0</v>
@@ -45512,13 +45512,13 @@
         <v>0</v>
       </c>
       <c r="AC222" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AD222" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AE222" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AF222" t="n">
         <v>0</v>
@@ -45527,13 +45527,13 @@
         <v>0</v>
       </c>
       <c r="AH222" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AI222" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AJ222" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="AK222" t="n">
         <v>1.54</v>
@@ -45557,22 +45557,22 @@
         <v>2.43</v>
       </c>
       <c r="AR222" t="n">
-        <v>1.86</v>
+        <v>0.86</v>
       </c>
       <c r="AS222" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.56</v>
+        <v>0.78</v>
       </c>
       <c r="AU222" t="n">
-        <v>1.23</v>
+        <v>1.77</v>
       </c>
       <c r="AV222" t="n">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="AW222" t="n">
-        <v>2.19</v>
+        <v>2.79</v>
       </c>
       <c r="AX222" t="n">
         <v>0</v>
@@ -45599,22 +45599,22 @@
         <v>0</v>
       </c>
       <c r="BF222" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG222" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH222" t="n">
         <v>4</v>
       </c>
       <c r="BI222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ222" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK222" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -45622,7 +45622,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>4470784</v>
+        <v>4470777</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -45642,31 +45642,31 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Thesprotos</t>
+          <t>Iraklis Larissa</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L223" t="n">
         <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -45675,17 +45675,17 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>['38', '90+6']</t>
+          <t>['32', '45+1', '78']</t>
         </is>
       </c>
       <c r="Q223" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R223" t="n">
         <v>2</v>
       </c>
       <c r="S223" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T223" t="n">
         <v>0</v>
@@ -45715,13 +45715,13 @@
         <v>0</v>
       </c>
       <c r="AC223" t="n">
-        <v>11</v>
+        <v>6.89</v>
       </c>
       <c r="AD223" t="n">
-        <v>4.5</v>
+        <v>3.83</v>
       </c>
       <c r="AE223" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AF223" t="n">
         <v>0</v>
@@ -45736,46 +45736,46 @@
         <v>0</v>
       </c>
       <c r="AJ223" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR223" t="n">
         <v>1.71</v>
       </c>
-      <c r="AK223" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL223" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM223" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN223" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO223" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP223" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ223" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AR223" t="n">
-        <v>3</v>
-      </c>
       <c r="AS223" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.67</v>
+        <v>1.88</v>
       </c>
       <c r="AU223" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AV223" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AW223" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="AX223" t="n">
         <v>0</v>
@@ -45805,19 +45805,19 @@
         <v>3</v>
       </c>
       <c r="BG223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ223" t="n">
         <v>4</v>
       </c>
-      <c r="BH223" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI223" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ223" t="n">
-        <v>8</v>
-      </c>
       <c r="BK223" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224">
@@ -46840,7 +46840,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>4470822</v>
+        <v>4470812</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -46860,50 +46860,50 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos II</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>AEK Athens II</t>
+          <t>Thesprotos</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="n">
         <v>1</v>
       </c>
       <c r="K229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
       <c r="N229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>['24', '66', '71']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['29']</t>
         </is>
       </c>
       <c r="Q229" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R229" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S229" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="T229" t="n">
         <v>0</v>
@@ -46933,13 +46933,13 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AD229" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AE229" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF229" t="n">
         <v>0</v>
@@ -46975,25 +46975,25 @@
         <v>0</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR229" t="n">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.89</v>
+        <v>1.13</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU229" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AV229" t="n">
-        <v>1.39</v>
+        <v>0.76</v>
       </c>
       <c r="AW229" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="AX229" t="n">
         <v>0</v>
@@ -47020,22 +47020,22 @@
         <v>0</v>
       </c>
       <c r="BF229" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BG229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI229" t="n">
         <v>4</v>
       </c>
-      <c r="BH229" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI229" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ229" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BK229" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
@@ -47184,7 +47184,7 @@
         <v>0.71</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT230" t="n">
         <v>0.5600000000000001</v>
@@ -47246,7 +47246,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>4470812</v>
+        <v>4470822</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -47266,50 +47266,50 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Panathinaikos II</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Thesprotos</t>
+          <t>AEK Athens II</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
         <v>1</v>
       </c>
       <c r="K231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
       <c r="N231" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['24', '66', '71']</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>['29']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="Q231" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R231" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S231" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T231" t="n">
         <v>0</v>
@@ -47339,13 +47339,13 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AD231" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AE231" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF231" t="n">
         <v>0</v>
@@ -47381,25 +47381,25 @@
         <v>0</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AR231" t="n">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="AU231" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="AV231" t="n">
-        <v>0.76</v>
+        <v>1.39</v>
       </c>
       <c r="AW231" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="AX231" t="n">
         <v>0</v>
@@ -47426,22 +47426,22 @@
         <v>0</v>
       </c>
       <c r="BF231" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BG231" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI231" t="n">
         <v>5</v>
       </c>
-      <c r="BI231" t="n">
+      <c r="BJ231" t="n">
         <v>4</v>
       </c>
-      <c r="BJ231" t="n">
-        <v>16</v>
-      </c>
       <c r="BK231" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
@@ -47449,7 +47449,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>4470818</v>
+        <v>4470808</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -47469,182 +47469,182 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>PAO Rouf</t>
+          <t>Veria</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N232" t="n">
         <v>2</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>['24']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>['64', '88']</t>
         </is>
       </c>
       <c r="Q232" t="n">
+        <v>1</v>
+      </c>
+      <c r="R232" t="n">
+        <v>3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>4</v>
+      </c>
+      <c r="T232" t="n">
+        <v>0</v>
+      </c>
+      <c r="U232" t="n">
+        <v>0</v>
+      </c>
+      <c r="V232" t="n">
+        <v>0</v>
+      </c>
+      <c r="W232" t="n">
+        <v>0</v>
+      </c>
+      <c r="X232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG232" t="n">
         <v>5</v>
       </c>
-      <c r="R232" t="n">
-        <v>1</v>
-      </c>
-      <c r="S232" t="n">
-        <v>6</v>
-      </c>
-      <c r="T232" t="n">
-        <v>0</v>
-      </c>
-      <c r="U232" t="n">
-        <v>0</v>
-      </c>
-      <c r="V232" t="n">
-        <v>0</v>
-      </c>
-      <c r="W232" t="n">
-        <v>0</v>
-      </c>
-      <c r="X232" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y232" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC232" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="AD232" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AE232" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AF232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ232" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AK232" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ232" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AR232" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS232" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AT232" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU232" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AV232" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AW232" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AX232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF232" t="n">
+      <c r="BH232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ232" t="n">
         <v>5</v>
       </c>
-      <c r="BG232" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH232" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI232" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ232" t="n">
-        <v>8</v>
-      </c>
       <c r="BK232" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
@@ -47652,7 +47652,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>4470808</v>
+        <v>4470827</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -47672,12 +47672,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Veria</t>
+          <t>Episkopi</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I233" t="n">
@@ -47693,10 +47693,10 @@
         <v>0</v>
       </c>
       <c r="M233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -47705,149 +47705,149 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>['64', '88']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R233" t="n">
+        <v>4</v>
+      </c>
+      <c r="S233" t="n">
+        <v>8</v>
+      </c>
+      <c r="T233" t="n">
+        <v>0</v>
+      </c>
+      <c r="U233" t="n">
+        <v>0</v>
+      </c>
+      <c r="V233" t="n">
+        <v>0</v>
+      </c>
+      <c r="W233" t="n">
+        <v>0</v>
+      </c>
+      <c r="X233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH233" t="n">
         <v>3</v>
-      </c>
-      <c r="S233" t="n">
-        <v>4</v>
-      </c>
-      <c r="T233" t="n">
-        <v>0</v>
-      </c>
-      <c r="U233" t="n">
-        <v>0</v>
-      </c>
-      <c r="V233" t="n">
-        <v>0</v>
-      </c>
-      <c r="W233" t="n">
-        <v>0</v>
-      </c>
-      <c r="X233" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y233" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC233" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AD233" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AE233" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AF233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ233" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK233" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ233" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR233" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS233" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AT233" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AU233" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AV233" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AW233" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AX233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF233" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG233" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH233" t="n">
-        <v>2</v>
       </c>
       <c r="BI233" t="n">
         <v>8</v>
       </c>
       <c r="BJ233" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK233" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234">
@@ -48058,7 +48058,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>4470804</v>
+        <v>4470818</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -48078,12 +48078,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAO Rouf</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Iraklis Larissa</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
       <c r="I235" t="n">
@@ -48099,29 +48099,29 @@
         <v>1</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['24']</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="Q235" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S235" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T235" t="n">
         <v>0</v>
@@ -48151,13 +48151,13 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>2.14</v>
+        <v>11.31</v>
       </c>
       <c r="AD235" t="n">
-        <v>2.82</v>
+        <v>5.59</v>
       </c>
       <c r="AE235" t="n">
-        <v>3.14</v>
+        <v>1.19</v>
       </c>
       <c r="AF235" t="n">
         <v>0</v>
@@ -48166,16 +48166,16 @@
         <v>0</v>
       </c>
       <c r="AH235" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AI235" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AJ235" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="AK235" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AL235" t="n">
         <v>0</v>
@@ -48196,22 +48196,22 @@
         <v>0.43</v>
       </c>
       <c r="AR235" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.88</v>
+        <v>1.56</v>
       </c>
       <c r="AU235" t="n">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="AV235" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="AW235" t="n">
-        <v>1.89</v>
+        <v>2.18</v>
       </c>
       <c r="AX235" t="n">
         <v>0</v>
@@ -48241,19 +48241,19 @@
         <v>5</v>
       </c>
       <c r="BG235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH235" t="n">
         <v>3</v>
       </c>
       <c r="BI235" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ235" t="n">
         <v>8</v>
       </c>
       <c r="BK235" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -48261,7 +48261,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>4470827</v>
+        <v>4470804</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -48281,50 +48281,50 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Episkopi</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Iraklis Larissa</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R236" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S236" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T236" t="n">
         <v>0</v>
@@ -48354,13 +48354,13 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>8.640000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="AD236" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="AE236" t="n">
-        <v>1.3</v>
+        <v>3.14</v>
       </c>
       <c r="AF236" t="n">
         <v>0</v>
@@ -48369,16 +48369,16 @@
         <v>0</v>
       </c>
       <c r="AH236" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AI236" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AJ236" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="AK236" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AL236" t="n">
         <v>0</v>
@@ -48396,25 +48396,25 @@
         <v>0</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AR236" t="n">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.56</v>
+        <v>0.89</v>
       </c>
       <c r="AU236" t="n">
-        <v>1.07</v>
+        <v>0.9</v>
       </c>
       <c r="AV236" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="AW236" t="n">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="AX236" t="n">
         <v>0</v>
@@ -48444,19 +48444,19 @@
         <v>5</v>
       </c>
       <c r="BG236" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH236" t="n">
         <v>3</v>
       </c>
       <c r="BI236" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ236" t="n">
         <v>8</v>
       </c>
       <c r="BK236" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -49276,7 +49276,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>4470854</v>
+        <v>4470831</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -49296,182 +49296,182 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>AOX Kissamikos</t>
+          <t>PAOK II</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Episkopi</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>6</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2</v>
+      </c>
+      <c r="S241" t="n">
+        <v>8</v>
+      </c>
+      <c r="T241" t="n">
+        <v>0</v>
+      </c>
+      <c r="U241" t="n">
+        <v>0</v>
+      </c>
+      <c r="V241" t="n">
+        <v>0</v>
+      </c>
+      <c r="W241" t="n">
+        <v>0</v>
+      </c>
+      <c r="X241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI241" t="n">
         <v>3</v>
       </c>
-      <c r="M241" t="n">
-        <v>2</v>
-      </c>
-      <c r="N241" t="n">
+      <c r="BJ241" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK241" t="n">
         <v>5</v>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>['5', '7', '83']</t>
-        </is>
-      </c>
-      <c r="P241" t="inlineStr">
-        <is>
-          <t>['10', '35']</t>
-        </is>
-      </c>
-      <c r="Q241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T241" t="n">
-        <v>0</v>
-      </c>
-      <c r="U241" t="n">
-        <v>0</v>
-      </c>
-      <c r="V241" t="n">
-        <v>0</v>
-      </c>
-      <c r="W241" t="n">
-        <v>0</v>
-      </c>
-      <c r="X241" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y241" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC241" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD241" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE241" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="AF241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ241" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK241" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ241" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR241" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS241" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AT241" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AU241" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AV241" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AW241" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AX241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE241" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BG241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BH241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BI241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BJ241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BK241" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -49479,7 +49479,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>4470849</v>
+        <v>4470854</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -49499,40 +49499,40 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Irodotos</t>
+          <t>AOX Kissamikos</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Episkopi</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L242" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M242" t="n">
         <v>2</v>
       </c>
       <c r="N242" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '7', '83']</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>['46', '71']</t>
+          <t>['10', '35']</t>
         </is>
       </c>
       <c r="Q242" t="n">
@@ -49572,13 +49572,13 @@
         <v>0</v>
       </c>
       <c r="AC242" t="n">
-        <v>2.55</v>
+        <v>1.43</v>
       </c>
       <c r="AD242" t="n">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="AE242" t="n">
-        <v>2.25</v>
+        <v>6.68</v>
       </c>
       <c r="AF242" t="n">
         <v>0</v>
@@ -49593,10 +49593,10 @@
         <v>0</v>
       </c>
       <c r="AJ242" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK242" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AL242" t="n">
         <v>0</v>
@@ -49614,25 +49614,25 @@
         <v>0</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR242" t="n">
-        <v>1.13</v>
+        <v>0.57</v>
       </c>
       <c r="AS242" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU242" t="n">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="AV242" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AW242" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="AX242" t="n">
         <v>0</v>
@@ -49885,7 +49885,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>4470831</v>
+        <v>4470843</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -49905,50 +49905,50 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>PAOK II</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kallithea</t>
         </is>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
       <c r="N244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>['90+6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R244" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S244" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T244" t="n">
         <v>0</v>
@@ -49978,13 +49978,13 @@
         <v>0</v>
       </c>
       <c r="AC244" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD244" t="n">
-        <v>3.83</v>
+        <v>3.74</v>
       </c>
       <c r="AE244" t="n">
-        <v>4.51</v>
+        <v>1.44</v>
       </c>
       <c r="AF244" t="n">
         <v>0</v>
@@ -49999,10 +49999,10 @@
         <v>0</v>
       </c>
       <c r="AJ244" t="n">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="AK244" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="AL244" t="n">
         <v>0</v>
@@ -50020,25 +50020,25 @@
         <v>0</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="AR244" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.22</v>
+        <v>1.88</v>
       </c>
       <c r="AU244" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AV244" t="n">
-        <v>0.71</v>
+        <v>1.48</v>
       </c>
       <c r="AW244" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="AX244" t="n">
         <v>0</v>
@@ -50065,22 +50065,22 @@
         <v>0</v>
       </c>
       <c r="BF244" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BG244" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH244" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BI244" t="n">
         <v>3</v>
       </c>
       <c r="BJ244" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BK244" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
@@ -50088,7 +50088,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>4470843</v>
+        <v>4470849</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -50108,12 +50108,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Irodotos</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I245" t="n">
@@ -50129,10 +50129,10 @@
         <v>0</v>
       </c>
       <c r="M245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -50141,17 +50141,17 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>['46', '71']</t>
         </is>
       </c>
       <c r="Q245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R245" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="S245" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="T245" t="n">
         <v>0</v>
@@ -50181,13 +50181,13 @@
         <v>0</v>
       </c>
       <c r="AC245" t="n">
-        <v>6.8</v>
+        <v>2.55</v>
       </c>
       <c r="AD245" t="n">
-        <v>3.74</v>
+        <v>3.71</v>
       </c>
       <c r="AE245" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="AF245" t="n">
         <v>0</v>
@@ -50202,10 +50202,10 @@
         <v>0</v>
       </c>
       <c r="AJ245" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK245" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AL245" t="n">
         <v>0</v>
@@ -50223,25 +50223,25 @@
         <v>0</v>
       </c>
       <c r="AQ245" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AR245" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="AS245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AU245" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AV245" t="n">
-        <v>1.48</v>
+        <v>1.09</v>
       </c>
       <c r="AW245" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="AX245" t="n">
         <v>0</v>
@@ -50268,22 +50268,22 @@
         <v>0</v>
       </c>
       <c r="BF245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BG245" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BH245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BI245" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BJ245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BK245" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -50697,7 +50697,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>4470847</v>
+        <v>4470845</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -50717,182 +50717,182 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>AEK Athens II</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Egaleo</t>
+          <t>PAO Rouf</t>
         </is>
       </c>
       <c r="I248" t="n">
         <v>2</v>
       </c>
       <c r="J248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L248" t="n">
+        <v>4</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="n">
+        <v>5</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['22', '25', '88', '90+4']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>6</v>
+      </c>
+      <c r="R248" t="n">
         <v>3</v>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="n">
-        <v>4</v>
-      </c>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>['37', '42', '65']</t>
-        </is>
-      </c>
-      <c r="P248" t="inlineStr">
-        <is>
-          <t>['78']</t>
-        </is>
-      </c>
-      <c r="Q248" t="n">
+      <c r="S248" t="n">
+        <v>9</v>
+      </c>
+      <c r="T248" t="n">
+        <v>0</v>
+      </c>
+      <c r="U248" t="n">
+        <v>0</v>
+      </c>
+      <c r="V248" t="n">
+        <v>0</v>
+      </c>
+      <c r="W248" t="n">
+        <v>0</v>
+      </c>
+      <c r="X248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG248" t="n">
         <v>3</v>
       </c>
-      <c r="R248" t="n">
-        <v>8</v>
-      </c>
-      <c r="S248" t="n">
-        <v>11</v>
-      </c>
-      <c r="T248" t="n">
-        <v>0</v>
-      </c>
-      <c r="U248" t="n">
-        <v>0</v>
-      </c>
-      <c r="V248" t="n">
-        <v>0</v>
-      </c>
-      <c r="W248" t="n">
-        <v>0</v>
-      </c>
-      <c r="X248" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y248" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC248" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AD248" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE248" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AF248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ248" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK248" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ248" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR248" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS248" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AT248" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AU248" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AV248" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AW248" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AX248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY248" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ248" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA248" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB248" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC248" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD248" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE248" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF248" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG248" t="n">
-        <v>8</v>
-      </c>
       <c r="BH248" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI248" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ248" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK248" t="n">
         <v>5</v>
-      </c>
-      <c r="BK248" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -51103,7 +51103,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>4470845</v>
+        <v>4470847</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -51123,182 +51123,182 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>AEK Athens II</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>PAO Rouf</t>
+          <t>Egaleo</t>
         </is>
       </c>
       <c r="I250" t="n">
         <v>2</v>
       </c>
       <c r="J250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K250" t="n">
+        <v>2</v>
+      </c>
+      <c r="L250" t="n">
         <v>3</v>
       </c>
-      <c r="L250" t="n">
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
         <v>4</v>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="n">
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['37', '42', '65']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>3</v>
+      </c>
+      <c r="R250" t="n">
+        <v>8</v>
+      </c>
+      <c r="S250" t="n">
+        <v>11</v>
+      </c>
+      <c r="T250" t="n">
+        <v>0</v>
+      </c>
+      <c r="U250" t="n">
+        <v>0</v>
+      </c>
+      <c r="V250" t="n">
+        <v>0</v>
+      </c>
+      <c r="W250" t="n">
+        <v>0</v>
+      </c>
+      <c r="X250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ250" t="n">
         <v>5</v>
       </c>
-      <c r="O250" t="inlineStr">
-        <is>
-          <t>['22', '25', '88', '90+4']</t>
-        </is>
-      </c>
-      <c r="P250" t="inlineStr">
-        <is>
-          <t>['17']</t>
-        </is>
-      </c>
-      <c r="Q250" t="n">
-        <v>6</v>
-      </c>
-      <c r="R250" t="n">
-        <v>3</v>
-      </c>
-      <c r="S250" t="n">
-        <v>9</v>
-      </c>
-      <c r="T250" t="n">
-        <v>0</v>
-      </c>
-      <c r="U250" t="n">
-        <v>0</v>
-      </c>
-      <c r="V250" t="n">
-        <v>0</v>
-      </c>
-      <c r="W250" t="n">
-        <v>0</v>
-      </c>
-      <c r="X250" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y250" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC250" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD250" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE250" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ250" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AK250" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AL250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ250" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AR250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS250" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AT250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU250" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AV250" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AW250" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AX250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ250" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA250" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB250" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC250" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD250" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE250" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF250" t="n">
+      <c r="BK250" t="n">
         <v>14</v>
-      </c>
-      <c r="BG250" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH250" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI250" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ250" t="n">
-        <v>23</v>
-      </c>
-      <c r="BK250" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="251">
@@ -51769,13 +51769,13 @@
         </is>
       </c>
       <c r="Q253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R253" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S253" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T253" t="n">
         <v>0</v>
@@ -51892,22 +51892,834 @@
         <v>0</v>
       </c>
       <c r="BF253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI253" t="n">
         <v>3</v>
       </c>
-      <c r="BG253" t="n">
+      <c r="BJ253" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4470875</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45025.32291666666</v>
+      </c>
+      <c r="F254" t="n">
+        <v>19</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>AOX Kissamikos</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>3</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2</v>
+      </c>
+      <c r="S254" t="n">
+        <v>5</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0</v>
+      </c>
+      <c r="V254" t="n">
+        <v>0</v>
+      </c>
+      <c r="W254" t="n">
+        <v>0</v>
+      </c>
+      <c r="X254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG254" t="n">
         <v>4</v>
       </c>
-      <c r="BH253" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI253" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ253" t="n">
+      <c r="BH254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4470873</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45025.36458333334</v>
+      </c>
+      <c r="F255" t="n">
+        <v>19</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Proodeftiki</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>OF Ierapetra</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['6', '73']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>4</v>
+      </c>
+      <c r="R255" t="n">
+        <v>1</v>
+      </c>
+      <c r="S255" t="n">
         <v>5</v>
       </c>
-      <c r="BK253" t="n">
+      <c r="T255" t="n">
+        <v>0</v>
+      </c>
+      <c r="U255" t="n">
+        <v>0</v>
+      </c>
+      <c r="V255" t="n">
+        <v>0</v>
+      </c>
+      <c r="W255" t="n">
+        <v>0</v>
+      </c>
+      <c r="X255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4470858</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45025.36458333334</v>
+      </c>
+      <c r="F256" t="n">
+        <v>19</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Iraklis Larissa</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
         <v>6</v>
+      </c>
+      <c r="R256" t="n">
+        <v>4</v>
+      </c>
+      <c r="S256" t="n">
+        <v>10</v>
+      </c>
+      <c r="T256" t="n">
+        <v>0</v>
+      </c>
+      <c r="U256" t="n">
+        <v>0</v>
+      </c>
+      <c r="V256" t="n">
+        <v>0</v>
+      </c>
+      <c r="W256" t="n">
+        <v>0</v>
+      </c>
+      <c r="X256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4470865</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45025.36458333334</v>
+      </c>
+      <c r="F257" t="n">
+        <v>19</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Veria</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Thesprotos</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>3</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>3</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['33', '64', '90+4']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>6</v>
+      </c>
+      <c r="R257" t="n">
+        <v>4</v>
+      </c>
+      <c r="S257" t="n">
+        <v>10</v>
+      </c>
+      <c r="T257" t="n">
+        <v>0</v>
+      </c>
+      <c r="U257" t="n">
+        <v>0</v>
+      </c>
+      <c r="V257" t="n">
+        <v>0</v>
+      </c>
+      <c r="W257" t="n">
+        <v>0</v>
+      </c>
+      <c r="X257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Greece Super League 2_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK257"/>
+  <dimension ref="A1:BK262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.11</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.89</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT9" t="n">
         <v>1.5</v>
@@ -2933,7 +2933,7 @@
         <v>1.89</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -6587,7 +6587,7 @@
         <v>2.38</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU30" t="n">
         <v>1.21</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU31" t="n">
         <v>1.75</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU33" t="n">
         <v>0.95</v>
@@ -8008,7 +8008,7 @@
         <v>0.75</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT38" t="n">
         <v>1.11</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
         <v>0.89</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT40" t="n">
         <v>1.56</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT41" t="n">
         <v>0.63</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5</v>
@@ -12471,10 +12471,10 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU59" t="n">
         <v>2.44</v>
@@ -12880,7 +12880,7 @@
         <v>1.89</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU61" t="n">
         <v>1.1</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AU63" t="n">
         <v>1.49</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT64" t="n">
         <v>2.67</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU67" t="n">
         <v>1.51</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT68" t="n">
         <v>0.75</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU69" t="n">
         <v>1.52</v>
@@ -14704,10 +14704,10 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AU70" t="n">
         <v>1.56</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU91" t="n">
         <v>1.85</v>
@@ -19173,7 +19173,7 @@
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -19779,7 +19779,7 @@
         <v>1.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT95" t="n">
         <v>1.56</v>
@@ -19982,7 +19982,7 @@
         <v>0.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -20185,7 +20185,7 @@
         <v>0.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT97" t="n">
         <v>0.33</v>
@@ -20591,7 +20591,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT99" t="n">
         <v>0.5600000000000001</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT106" t="n">
         <v>1.13</v>
@@ -22624,7 +22624,7 @@
         <v>2.5</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU109" t="n">
         <v>1.68</v>
@@ -23436,7 +23436,7 @@
         <v>1.22</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AU113" t="n">
         <v>1.51</v>
@@ -23636,7 +23636,7 @@
         <v>3</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT114" t="n">
         <v>2.67</v>
@@ -24042,10 +24042,10 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU116" t="n">
         <v>1.39</v>
@@ -24854,7 +24854,7 @@
         <v>1.33</v>
       </c>
       <c r="AS120" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -25057,7 +25057,7 @@
         <v>0.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5</v>
@@ -26684,7 +26684,7 @@
         <v>1.63</v>
       </c>
       <c r="AT129" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AU129" t="n">
         <v>1.81</v>
@@ -26884,7 +26884,7 @@
         <v>1.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT130" t="n">
         <v>1.22</v>
@@ -28105,7 +28105,7 @@
         <v>0.67</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU136" t="n">
         <v>1.1</v>
@@ -28308,7 +28308,7 @@
         <v>0.44</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU137" t="n">
         <v>1.49</v>
@@ -29523,7 +29523,7 @@
         <v>1.5</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT143" t="n">
         <v>1.56</v>
@@ -30335,7 +30335,7 @@
         <v>2.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT147" t="n">
         <v>2.56</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU149" t="n">
         <v>1.47</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT152" t="n">
         <v>0.78</v>
@@ -31553,7 +31553,7 @@
         <v>1.75</v>
       </c>
       <c r="AS153" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT153" t="n">
         <v>1.67</v>
@@ -32165,7 +32165,7 @@
         <v>2.13</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU156" t="n">
         <v>1.3</v>
@@ -32368,7 +32368,7 @@
         <v>2</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU157" t="n">
         <v>1.59</v>
@@ -32774,7 +32774,7 @@
         <v>2.13</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AU159" t="n">
         <v>0.95</v>
@@ -33380,7 +33380,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT162" t="n">
         <v>1.5</v>
@@ -33586,7 +33586,7 @@
         <v>1.22</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU163" t="n">
         <v>1.5</v>
@@ -36222,7 +36222,7 @@
         <v>1.8</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT176" t="n">
         <v>1.88</v>
@@ -36425,7 +36425,7 @@
         <v>1.2</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT177" t="n">
         <v>1.13</v>
@@ -36834,7 +36834,7 @@
         <v>2.5</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU179" t="n">
         <v>1.79</v>
@@ -37237,7 +37237,7 @@
         <v>1.4</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT181" t="n">
         <v>1.56</v>
@@ -37440,7 +37440,7 @@
         <v>1.6</v>
       </c>
       <c r="AS182" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT182" t="n">
         <v>1.33</v>
@@ -38252,10 +38252,10 @@
         <v>1.67</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -38458,7 +38458,7 @@
         <v>1.67</v>
       </c>
       <c r="AT187" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AU187" t="n">
         <v>1.68</v>
@@ -39067,7 +39067,7 @@
         <v>0.63</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU190" t="n">
         <v>1.15</v>
@@ -40894,7 +40894,7 @@
         <v>2.38</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU199" t="n">
         <v>1.2</v>
@@ -42515,7 +42515,7 @@
         <v>1.17</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT207" t="n">
         <v>1.22</v>
@@ -42718,7 +42718,7 @@
         <v>0</v>
       </c>
       <c r="AS208" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT208" t="n">
         <v>0</v>
@@ -43127,7 +43127,7 @@
         <v>0.67</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU210" t="n">
         <v>1.05</v>
@@ -44142,7 +44142,7 @@
         <v>1.22</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU215" t="n">
         <v>1.21</v>
@@ -46172,7 +46172,7 @@
         <v>0</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU225" t="n">
         <v>1.31</v>
@@ -46372,7 +46372,7 @@
         <v>0.71</v>
       </c>
       <c r="AS226" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT226" t="n">
         <v>0.63</v>
@@ -46578,7 +46578,7 @@
         <v>2</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU227" t="n">
         <v>1.49</v>
@@ -46981,7 +46981,7 @@
         <v>0.29</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT229" t="n">
         <v>0.33</v>
@@ -47390,7 +47390,7 @@
         <v>1.89</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU231" t="n">
         <v>1.26</v>
@@ -47593,7 +47593,7 @@
         <v>1.11</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU232" t="n">
         <v>1.13</v>
@@ -48199,7 +48199,7 @@
         <v>1.43</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT235" t="n">
         <v>1.56</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT236" t="n">
         <v>0.89</v>
@@ -48605,7 +48605,7 @@
         <v>1.71</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT237" t="n">
         <v>1.5</v>
@@ -48811,7 +48811,7 @@
         <v>0.75</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AU238" t="n">
         <v>1.35</v>
@@ -52720,6 +52720,1021 @@
       </c>
       <c r="BK257" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4470869</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45026.36458333334</v>
+      </c>
+      <c r="F258" t="n">
+        <v>19</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2</v>
+      </c>
+      <c r="M258" t="n">
+        <v>2</v>
+      </c>
+      <c r="N258" t="n">
+        <v>4</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['22', '90+3']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['62', '67']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>2</v>
+      </c>
+      <c r="R258" t="n">
+        <v>3</v>
+      </c>
+      <c r="S258" t="n">
+        <v>5</v>
+      </c>
+      <c r="T258" t="n">
+        <v>0</v>
+      </c>
+      <c r="U258" t="n">
+        <v>0</v>
+      </c>
+      <c r="V258" t="n">
+        <v>0</v>
+      </c>
+      <c r="W258" t="n">
+        <v>0</v>
+      </c>
+      <c r="X258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4470860</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45026.36458333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>19</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Panathinaikos II</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2</v>
+      </c>
+      <c r="R259" t="n">
+        <v>3</v>
+      </c>
+      <c r="S259" t="n">
+        <v>5</v>
+      </c>
+      <c r="T259" t="n">
+        <v>0</v>
+      </c>
+      <c r="U259" t="n">
+        <v>0</v>
+      </c>
+      <c r="V259" t="n">
+        <v>0</v>
+      </c>
+      <c r="W259" t="n">
+        <v>0</v>
+      </c>
+      <c r="X259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4470857</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45026.36458333334</v>
+      </c>
+      <c r="F260" t="n">
+        <v>19</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Anagennisi Karditsas</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>PAOK II</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="n">
+        <v>2</v>
+      </c>
+      <c r="N260" t="n">
+        <v>3</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['80', '83']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>6</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2</v>
+      </c>
+      <c r="S260" t="n">
+        <v>8</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0</v>
+      </c>
+      <c r="U260" t="n">
+        <v>0</v>
+      </c>
+      <c r="V260" t="n">
+        <v>0</v>
+      </c>
+      <c r="W260" t="n">
+        <v>0</v>
+      </c>
+      <c r="X260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4470882</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45026.36458333334</v>
+      </c>
+      <c r="F261" t="n">
+        <v>19</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>PAO Rouf</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>AEK Athens II</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="n">
+        <v>2</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>3</v>
+      </c>
+      <c r="R261" t="n">
+        <v>4</v>
+      </c>
+      <c r="S261" t="n">
+        <v>7</v>
+      </c>
+      <c r="T261" t="n">
+        <v>0</v>
+      </c>
+      <c r="U261" t="n">
+        <v>0</v>
+      </c>
+      <c r="V261" t="n">
+        <v>0</v>
+      </c>
+      <c r="W261" t="n">
+        <v>0</v>
+      </c>
+      <c r="X261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4470871</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Greece Super League 2</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45026.38541666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>19</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Kallithea</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2</v>
+      </c>
+      <c r="L262" t="n">
+        <v>3</v>
+      </c>
+      <c r="M262" t="n">
+        <v>3</v>
+      </c>
+      <c r="N262" t="n">
+        <v>6</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['37', '87', '90+3']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['8', '51', '66']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>9</v>
+      </c>
+      <c r="R262" t="n">
+        <v>2</v>
+      </c>
+      <c r="S262" t="n">
+        <v>11</v>
+      </c>
+      <c r="T262" t="n">
+        <v>0</v>
+      </c>
+      <c r="U262" t="n">
+        <v>0</v>
+      </c>
+      <c r="V262" t="n">
+        <v>0</v>
+      </c>
+      <c r="W262" t="n">
+        <v>0</v>
+      </c>
+      <c r="X262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
